--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>10월</t>
   </si>
@@ -190,13 +190,94 @@
   <si>
     <t>Men-Meet 프로젝트 개발일정표</t>
   </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>WEB 서비스</t>
+  </si>
+  <si>
+    <t>메타버스 서비스</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>멘토 / 멘티 키워드 검색</t>
+  </si>
+  <si>
+    <t>카테고리 조회</t>
+  </si>
+  <si>
+    <t>멘토 / 멘티 멘토링 신청</t>
+  </si>
+  <si>
+    <t>멘토 후기 / 별점</t>
+  </si>
+  <si>
+    <t xml:space="preserve">멘토 순위 / 베스트 멘토 </t>
+  </si>
+  <si>
+    <t>내 정보 확인 / 변경</t>
+  </si>
+  <si>
+    <t>예약 내역 확인 / 취소</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 - 질문</t>
+  </si>
+  <si>
+    <t>사용자 캐릭터 생성</t>
+  </si>
+  <si>
+    <t>사용자 캐릭터 이동</t>
+  </si>
+  <si>
+    <t>칠판 / 메모장</t>
+  </si>
+  <si>
+    <t>펜</t>
+  </si>
+  <si>
+    <t>음성채팅</t>
+  </si>
+  <si>
+    <t>문자채팅</t>
+  </si>
+  <si>
+    <t>타이머</t>
+  </si>
+  <si>
+    <t>스페이스 생성</t>
+  </si>
+  <si>
+    <t>스페이스 삭제</t>
+  </si>
+  <si>
+    <t>각 부서 위치 표시</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 - 답변</t>
+  </si>
+  <si>
+    <t>프로그램 기능 정의서</t>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="46">
+  <fonts count="55">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -425,6 +506,11 @@
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -433,12 +519,55 @@
       <color theme="3"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
-      <name val="돋움"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="나눔고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="나눔고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="16.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,8 +787,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="91">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -1440,144 +1581,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.349990"/>
       </left>
       <right style="thin">
@@ -1591,20 +1594,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1643,16 +1632,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.349990"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.349990"/>
       </left>
@@ -1662,6 +1641,214 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.349990"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1812,7 +1999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2242,229 +2429,645 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2525,13 +3128,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2545,7 +3148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2160270" y="1363980"/>
+          <a:off x="5156835" y="1106805"/>
           <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2587,13 +3190,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -2607,7 +3210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2998470" y="1572260"/>
+          <a:off x="5995035" y="1315085"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2649,13 +3252,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -2669,7 +3272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2018030"/>
+          <a:off x="6844665" y="1760855"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2718,13 +3321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -2738,7 +3341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4255770" y="2235200"/>
+          <a:off x="7252335" y="1978025"/>
           <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2787,13 +3390,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -2807,7 +3410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2452370"/>
+          <a:off x="6844665" y="2195195"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2856,13 +3459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -2876,7 +3479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3848100" y="2658110"/>
+          <a:off x="6844665" y="2400935"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2925,13 +3528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -2945,7 +3548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4267200" y="2875280"/>
+          <a:off x="7263765" y="2618105"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -2994,13 +3597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3014,7 +3617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4267200" y="3103880"/>
+          <a:off x="7263765" y="2846705"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3063,13 +3666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3083,7 +3686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4674870" y="3321050"/>
+          <a:off x="7671435" y="3063875"/>
           <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3125,13 +3728,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -3145,7 +3748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5513070" y="3743960"/>
+          <a:off x="8509635" y="3486785"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3187,13 +3790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3207,7 +3810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5943600" y="3972560"/>
+          <a:off x="8940165" y="3715385"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3251,13 +3854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3271,7 +3874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6351270" y="4406900"/>
+          <a:off x="9347835" y="4149725"/>
           <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3315,13 +3918,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3335,7 +3938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7608570" y="5058410"/>
+          <a:off x="10605135" y="4801235"/>
           <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3379,13 +3982,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
@@ -3399,7 +4002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8027670" y="5286375"/>
+          <a:off x="11024235" y="5029200"/>
           <a:ext cx="429895" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3441,13 +4044,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
@@ -3461,7 +4064,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5932170" y="4189730"/>
+          <a:off x="8928735" y="3932555"/>
           <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3505,13 +4108,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -3525,7 +4128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6770370" y="4646295"/>
+          <a:off x="9766935" y="4389120"/>
           <a:ext cx="841375" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3569,13 +4172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -3589,7 +4192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3417570" y="1789430"/>
+          <a:off x="6414135" y="1532255"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3631,13 +4234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
@@ -3651,7 +4254,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7204075" y="4865370"/>
+          <a:off x="10200640" y="4608195"/>
           <a:ext cx="404495" cy="58420"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3695,13 +4298,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
@@ -3715,7 +4318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8455025" y="5495290"/>
+          <a:off x="11451590" y="5238115"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3757,13 +4360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
@@ -3777,7 +4380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5093970" y="3525520"/>
+          <a:off x="8090535" y="3268345"/>
           <a:ext cx="422275" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3819,13 +4422,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
@@ -3839,7 +4442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8874125" y="5495290"/>
+          <a:off x="11870690" y="5238115"/>
           <a:ext cx="411480" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4242,61 +4845,66 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT40"/>
+  <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScale="130" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17:AH17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="54" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
-    <col min="55" max="55" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="56" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="6.22722218" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="19.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="57" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
+    <col min="58" max="58" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="59" max="16381" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="16382" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="5.250000" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
+    <row r="1" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A1" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -4304,95 +4912,101 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="21.000000" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+    <row r="2" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="243"/>
+      <c r="AD2" s="243"/>
+      <c r="AE2" s="243"/>
+      <c r="AF2" s="243"/>
+      <c r="AG2" s="243"/>
+      <c r="AH2" s="244"/>
+      <c r="AI2" s="243"/>
+      <c r="AJ2" s="243"/>
+      <c r="AK2" s="243"/>
+      <c r="AL2" s="243"/>
+      <c r="AM2" s="243"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
-    <row r="3" spans="1:46" ht="3.000000" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+    <row r="3" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="175"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
@@ -4400,49 +5014,50 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:46" ht="24.750000" customHeight="1">
-      <c r="A4" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+    <row r="4" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A4" s="160"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="164"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
@@ -4450,47 +5065,50 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="1:46" ht="9.750000" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+    <row r="5" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="164"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -4498,975 +5116,1139 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="1:46" ht="4.500000" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="2"/>
+    <row r="6" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="179"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="179"/>
+      <c r="AL6" s="179"/>
+      <c r="AM6" s="180"/>
     </row>
-    <row r="7" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="150" t="s">
+    <row r="7" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A7" s="223" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="237" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="238"/>
+      <c r="F7" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150" t="s">
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150" t="s">
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150" t="s">
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="2"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="128"/>
+      <c r="AJ7" s="128"/>
+      <c r="AK7" s="128"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="128"/>
     </row>
-    <row r="8" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A8" s="226"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="155">
+      <c r="E8" s="57"/>
+      <c r="F8" s="130">
         <v>1</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157">
+      <c r="G8" s="131"/>
+      <c r="H8" s="132">
         <v>2</v>
       </c>
-      <c r="F8" s="158"/>
-      <c r="G8" s="157">
+      <c r="I8" s="133"/>
+      <c r="J8" s="132">
         <v>3</v>
       </c>
-      <c r="H8" s="158"/>
-      <c r="I8" s="157">
+      <c r="K8" s="133"/>
+      <c r="L8" s="132">
         <v>4</v>
       </c>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160" t="s">
+      <c r="M8" s="134"/>
+      <c r="N8" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="158"/>
-      <c r="M8" s="157">
+      <c r="O8" s="133"/>
+      <c r="P8" s="132">
         <v>2</v>
       </c>
-      <c r="N8" s="158"/>
-      <c r="O8" s="157">
+      <c r="Q8" s="133"/>
+      <c r="R8" s="132">
         <v>3</v>
       </c>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="162" t="s">
+      <c r="S8" s="65"/>
+      <c r="T8" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="163"/>
-      <c r="S8" s="160">
+      <c r="U8" s="137"/>
+      <c r="V8" s="135">
         <v>5</v>
       </c>
-      <c r="T8" s="158"/>
-      <c r="U8" s="160">
+      <c r="W8" s="133"/>
+      <c r="X8" s="135">
         <v>1</v>
       </c>
-      <c r="V8" s="158"/>
-      <c r="W8" s="160">
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="135">
         <v>2</v>
       </c>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="160">
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="135">
         <v>3</v>
       </c>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="160">
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="135">
         <v>4</v>
       </c>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="160" t="s">
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="160">
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="135">
         <v>2</v>
       </c>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="160">
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="135">
         <v>3</v>
       </c>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="66" t="s">
+      <c r="AK8" s="133"/>
+      <c r="AL8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AM8" s="67"/>
     </row>
-    <row r="9" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+    <row r="9" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A9" s="272" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="273"/>
+      <c r="C9" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="246" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="78"/>
     </row>
-    <row r="10" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
+    <row r="10" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A10" s="274"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="246" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="33"/>
     </row>
-    <row r="11" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
+    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A11" s="274"/>
+      <c r="B11" s="275"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="246" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A12" s="274"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="246" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A13" s="274"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="246" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="33"/>
     </row>
-    <row r="14" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A14" s="274"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="246" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A15" s="276"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="246" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A16" s="276"/>
+      <c r="B16" s="275"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="246" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="33"/>
     </row>
-    <row r="17" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
+    <row r="17" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A17" s="276"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="246" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="33"/>
     </row>
-    <row r="18" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
+    <row r="18" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A18" s="274"/>
+      <c r="B18" s="278"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="246" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="33"/>
     </row>
-    <row r="19" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
+    <row r="19" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A19" s="276"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="246" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="33"/>
     </row>
-    <row r="20" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
+    <row r="20" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A20" s="276"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="33"/>
     </row>
-    <row r="21" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
+    <row r="21" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A21" s="276"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="33"/>
     </row>
-    <row r="22" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
+    <row r="22" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A22" s="276"/>
+      <c r="B22" s="275"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="33"/>
     </row>
-    <row r="23" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
+    <row r="23" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A23" s="276"/>
+      <c r="B23" s="275"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="246" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="86"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="33"/>
     </row>
-    <row r="24" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
+    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A24" s="276"/>
+      <c r="B24" s="275"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="246" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="33"/>
     </row>
-    <row r="25" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
+    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A25" s="276"/>
+      <c r="B25" s="279"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="246" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="33"/>
     </row>
-    <row r="26" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+    <row r="26" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A26" s="276"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="246" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="33"/>
     </row>
-    <row r="27" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
+    <row r="27" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A27" s="276"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="246" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="33"/>
     </row>
-    <row r="28" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="100"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
+    <row r="28" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A28" s="276"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="246" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="33"/>
     </row>
-    <row r="29" ht="17.100000" customHeight="1"/>
-    <row r="30" ht="17.100000" customHeight="1"/>
+    <row r="29" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A29" s="280"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="246" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="33"/>
+    </row>
+    <row r="30" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A30" s="248" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="249"/>
+      <c r="C30" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="246" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="33"/>
+    </row>
     <row r="31" ht="17.100000" customHeight="1"/>
-    <row r="32" spans="1:38" ht="17.100000" customHeight="1">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+    <row r="32" spans="1:39" ht="17.100000" customHeight="1">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -5488,17 +6270,17 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:46" ht="18.000000" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+    <row r="33" spans="4:49" ht="18.000000" customHeight="1">
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+    <row r="34" spans="4:49" ht="17.100000" customHeight="1">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -5528,11 +6310,11 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
     </row>
-    <row r="35" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+    <row r="35" spans="4:49" ht="17.100000" customHeight="1">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -5574,15 +6356,15 @@
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
     </row>
-    <row r="36" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="36" spans="4:49" ht="17.100000" customHeight="1">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -5612,9 +6394,9 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
@@ -5622,13 +6404,13 @@
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
     </row>
-    <row r="37" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+    <row r="37" spans="4:49" ht="17.100000" customHeight="1">
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -5670,11 +6452,11 @@
       <c r="AP37" s="10"/>
       <c r="AQ37" s="10"/>
       <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
     </row>
-    <row r="38" spans="1:46" ht="17.100000" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+    <row r="38" spans="4:49" ht="17.100000" customHeight="1">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5716,11 +6498,11 @@
       <c r="AP38" s="10"/>
       <c r="AQ38" s="10"/>
       <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
     </row>
-    <row r="39" spans="1:46" ht="20.100000" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+    <row r="39" spans="4:49" ht="20.100000" customHeight="1">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5760,13 +6542,13 @@
       <c r="AN39" s="10"/>
       <c r="AO39" s="10"/>
       <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
     </row>
-    <row r="40" spans="1:46" ht="20.100000" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
+    <row r="40" spans="4:49" ht="20.100000" customHeight="1">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="10"/>
       <c r="AN40" s="10"/>
@@ -5774,6 +6556,9 @@
       <c r="AP40" s="10"/>
       <c r="AQ40" s="10"/>
       <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
     </row>
     <row r="41" ht="20.100000" customHeight="1"/>
     <row r="42" ht="20.100000" customHeight="1"/>
@@ -5785,369 +6570,392 @@
     <row r="48" ht="20.100000" customHeight="1"/>
     <row r="49" ht="20.100000" customHeight="1"/>
   </sheetData>
-  <mergeCells count="362">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
+  <mergeCells count="385">
+    <mergeCell ref="A1:AM5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:W7"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="AG7:AM7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="A9:B29"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AJ29:AK29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>10월</t>
   </si>
@@ -271,6 +271,27 @@
   <si>
     <t>월</t>
   </si>
+  <si>
+    <t>요구 분석서 작성</t>
+  </si>
+  <si>
+    <t>프로그램 기능 정의서 작성</t>
+  </si>
+  <si>
+    <t>DFD 작성</t>
+  </si>
+  <si>
+    <t>테이블 정의서 작성</t>
+  </si>
+  <si>
+    <t>ERD작성</t>
+  </si>
+  <si>
+    <t>UML작성</t>
+  </si>
+  <si>
+    <t>프로젝트  설계</t>
+  </si>
 </sst>
 </file>
 
@@ -509,16 +530,6 @@
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="돋움"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="돋움"/>
-      <color theme="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <name val="나눔고딕"/>
@@ -566,8 +577,18 @@
       <name val="배달의민족 한나는 열한살"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="3"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,12 +816,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -1737,14 +1764,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1806,26 +1825,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
     </border>
@@ -1849,6 +1848,190 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF969696"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF969696"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1999,7 +2182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2549,57 +2732,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2715,31 +2892,183 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2747,23 +3076,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2771,47 +3084,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2819,115 +3100,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2955,7 +3128,7 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2967,94 +3140,91 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="37" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3063,10 +3233,286 @@
     <xf numFmtId="0" fontId="46" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="39" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3128,28 +3574,214 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1"/>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5156835" y="1106805"/>
-          <a:ext cx="841375" cy="66675"/>
+          <a:off x="8499475" y="2389505"/>
+          <a:ext cx="843915" cy="81915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6416040" y="2181860"/>
+          <a:ext cx="419100" cy="61595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7254240" y="1971675"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6831330" y="1750695"/>
+          <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -3192,26 +3824,26 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 1"/>
+        <xdr:cNvPr id="24" name="Rectangle 24"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5995035" y="1315085"/>
-          <a:ext cx="422275" cy="66675"/>
+          <a:off x="5993130" y="1541145"/>
+          <a:ext cx="419100" cy="68580"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -3252,948 +3884,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1938655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 1"/>
+        <xdr:cNvPr id="25" name="Rectangle 25"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6844665" y="1760855"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7252335" y="1978025"/>
-          <a:ext cx="429895" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6844665" y="2195195"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6844665" y="2400935"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7263765" y="2618105"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7263765" y="2846705"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7671435" y="3063875"/>
-          <a:ext cx="429895" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="CC9900"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8509635" y="3486785"/>
-          <a:ext cx="422275" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="CC9900"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8940165" y="3715385"/>
-          <a:ext cx="411480" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9347835" y="4149725"/>
-          <a:ext cx="841375" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10605135" y="4801235"/>
-          <a:ext cx="429895" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11024235" y="5029200"/>
-          <a:ext cx="429895" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="CC9900"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8928735" y="3932555"/>
-          <a:ext cx="841375" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9766935" y="4389120"/>
-          <a:ext cx="841375" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6414135" y="1532255"/>
-          <a:ext cx="422275" cy="66675"/>
+          <a:off x="5150485" y="1098550"/>
+          <a:ext cx="840740" cy="55245"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -4234,34 +3946,528 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 1026"/>
+        <xdr:cNvPr id="26" name="Rectangle 26"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10200640" y="4608195"/>
-          <a:ext cx="404495" cy="58420"/>
+          <a:off x="5574030" y="1314450"/>
+          <a:ext cx="424815" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8922385" y="2623185"/>
+          <a:ext cx="419100" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9356725" y="2834640"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9343390" y="3274695"/>
+          <a:ext cx="419100" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9351645" y="3051810"/>
+          <a:ext cx="843280" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 31"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="3931920"/>
+          <a:ext cx="419100" cy="64770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="3714750"/>
+          <a:ext cx="829945" cy="53975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 33"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10603230" y="4356100"/>
+          <a:ext cx="419100" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4143375"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
         </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:noFill/>
@@ -4299,31 +4505,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 1"/>
+        <xdr:cNvPr id="35" name="Rectangle 35"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11451590" y="5238115"/>
-          <a:ext cx="411480" cy="66675"/>
+          <a:off x="11441430" y="3491865"/>
+          <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
-          <a:srgbClr val="CC9900"/>
+          <a:srgbClr val="8EB4E3"/>
         </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:noFill/>
@@ -4360,32 +4566,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvPr id="36" name="Rectangle 36"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8090535" y="3268345"/>
-          <a:ext cx="422275" cy="66675"/>
+          <a:off x="8519160" y="4559935"/>
+          <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
-          <a:srgbClr val="CC9900"/>
+          <a:srgbClr val="770055"/>
         </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:noFill/>
@@ -4422,32 +4628,652 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Rectangle 1027"/>
+        <xdr:cNvPr id="37" name="Rectangle 37"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11870690" y="5238115"/>
-          <a:ext cx="411480" cy="66675"/>
+          <a:off x="8922385" y="4783455"/>
+          <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
-          <a:srgbClr val="CC9900"/>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8932545" y="5006340"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9345930" y="5241925"/>
+          <a:ext cx="419100" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9341485" y="5469890"/>
+          <a:ext cx="419100" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9765030" y="5657850"/>
+          <a:ext cx="849630" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770110" y="5890260"/>
+          <a:ext cx="852170" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 43"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10198735" y="6088380"/>
+          <a:ext cx="404495" cy="71755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8084185" y="6339205"/>
+          <a:ext cx="2505075" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 45"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10179685" y="6546850"/>
+          <a:ext cx="828675" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11028045" y="6743700"/>
+          <a:ext cx="424180" cy="54610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 47"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10603230" y="6990715"/>
+          <a:ext cx="428625" cy="52070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="95B3D7"/>
         </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:noFill/>
@@ -4845,10 +5671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AW40"/>
+  <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:M24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -4859,52 +5685,51 @@
     <col min="5" max="5" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
     <col min="6" max="57" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
     <col min="58" max="58" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="59" max="16381" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="16382" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="59" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -4917,45 +5742,45 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
-      <c r="AF2" s="243"/>
-      <c r="AG2" s="243"/>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="243"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="243"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="240"/>
+      <c r="AD2" s="240"/>
+      <c r="AE2" s="240"/>
+      <c r="AF2" s="240"/>
+      <c r="AG2" s="240"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="240"/>
+      <c r="AJ2" s="240"/>
+      <c r="AK2" s="240"/>
+      <c r="AL2" s="240"/>
+      <c r="AM2" s="240"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
@@ -4968,45 +5793,45 @@
       <c r="AW2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="173"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
@@ -5019,45 +5844,45 @@
       <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A4" s="160"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="164"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="162"/>
+      <c r="AM4" s="162"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
@@ -5070,45 +5895,45 @@
       <c r="AW4" s="1"/>
     </row>
     <row r="5" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -5121,56 +5946,56 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="179"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="179"/>
-      <c r="AL6" s="179"/>
-      <c r="AM6" s="180"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="169"/>
+      <c r="AD6" s="169"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="169"/>
+      <c r="AG6" s="169"/>
+      <c r="AH6" s="169"/>
+      <c r="AI6" s="169"/>
+      <c r="AJ6" s="169"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="178"/>
     </row>
     <row r="7" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="237" t="s">
+      <c r="B7" s="221"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="238"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="127" t="s">
         <v>29</v>
       </c>
@@ -5215,9 +6040,9 @@
       <c r="AM7" s="128"/>
     </row>
     <row r="8" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A8" s="226"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="228"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
       <c r="D8" s="56" t="s">
         <v>18</v>
       </c>
@@ -5292,15 +6117,15 @@
       <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="272" t="s">
+      <c r="A9" s="343" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="139" t="s">
-        <v>37</v>
+      <c r="B9" s="344"/>
+      <c r="C9" s="345" t="s">
+        <v>68</v>
       </c>
-      <c r="D9" s="246" t="s">
-        <v>39</v>
+      <c r="D9" s="243" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="68"/>
@@ -5339,295 +6164,297 @@
       <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="274"/>
-      <c r="B10" s="275"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="246" t="s">
+      <c r="A10" s="346"/>
+      <c r="B10" s="347"/>
+      <c r="C10" s="348"/>
+      <c r="D10" s="243" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="78"/>
+    </row>
+    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A11" s="346"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="348"/>
+      <c r="D11" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="78"/>
+    </row>
+    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A12" s="346"/>
+      <c r="B12" s="347"/>
+      <c r="C12" s="348"/>
+      <c r="D12" s="243" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="78"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A13" s="346"/>
+      <c r="B13" s="347"/>
+      <c r="C13" s="348"/>
+      <c r="D13" s="243" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="78"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A14" s="346"/>
+      <c r="B14" s="347"/>
+      <c r="C14" s="349"/>
+      <c r="D14" s="243" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="78"/>
+    </row>
+    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A15" s="346"/>
+      <c r="B15" s="347"/>
+      <c r="C15" s="345" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="243" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="78"/>
+    </row>
+    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A16" s="350"/>
+      <c r="B16" s="347"/>
+      <c r="C16" s="348"/>
+      <c r="D16" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="33"/>
-    </row>
-    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="274"/>
-      <c r="B11" s="275"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="246" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="33"/>
-    </row>
-    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="274"/>
-      <c r="B12" s="275"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="246" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="33"/>
-    </row>
-    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="274"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="246" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="33"/>
-    </row>
-    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="274"/>
-      <c r="B14" s="275"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="246" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="33"/>
-    </row>
-    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="276"/>
-      <c r="B15" s="275"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="246" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="33"/>
-    </row>
-    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="276"/>
-      <c r="B16" s="275"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="246" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="14"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="80"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="13"/>
@@ -5640,11 +6467,11 @@
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="276"/>
-      <c r="B17" s="277"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="246" t="s">
-        <v>47</v>
+      <c r="A17" s="350"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="348"/>
+      <c r="D17" s="243" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="13"/>
@@ -5683,27 +6510,27 @@
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="274"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="246" t="s">
-        <v>48</v>
+      <c r="A18" s="350"/>
+      <c r="B18" s="347"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="243" t="s">
+        <v>42</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="40"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="41"/>
       <c r="U18" s="42"/>
       <c r="V18" s="41"/>
@@ -5726,29 +6553,27 @@
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="276"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="146" t="s">
-        <v>38</v>
+      <c r="A19" s="350"/>
+      <c r="B19" s="347"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="243" t="s">
+        <v>43</v>
       </c>
-      <c r="D19" s="246" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="40"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="42"/>
       <c r="T19" s="41"/>
       <c r="U19" s="42"/>
       <c r="V19" s="41"/>
@@ -5771,27 +6596,27 @@
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="276"/>
-      <c r="B20" s="275"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="246" t="s">
-        <v>49</v>
+      <c r="A20" s="350"/>
+      <c r="B20" s="347"/>
+      <c r="C20" s="348"/>
+      <c r="D20" s="243" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="40"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="42"/>
       <c r="T20" s="41"/>
       <c r="U20" s="42"/>
       <c r="V20" s="41"/>
@@ -5814,27 +6639,27 @@
       <c r="AM20" s="33"/>
     </row>
     <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="276"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="246" t="s">
-        <v>50</v>
+      <c r="A21" s="351"/>
+      <c r="B21" s="347"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="243" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="40"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="42"/>
       <c r="T21" s="41"/>
       <c r="U21" s="42"/>
       <c r="V21" s="41"/>
@@ -5857,27 +6682,27 @@
       <c r="AM21" s="33"/>
     </row>
     <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="276"/>
-      <c r="B22" s="275"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="246" t="s">
-        <v>51</v>
+      <c r="A22" s="351"/>
+      <c r="B22" s="347"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="243" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="40"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="42"/>
       <c r="T22" s="41"/>
       <c r="U22" s="42"/>
       <c r="V22" s="41"/>
@@ -5900,27 +6725,27 @@
       <c r="AM22" s="33"/>
     </row>
     <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="276"/>
-      <c r="B23" s="275"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="246" t="s">
-        <v>52</v>
+      <c r="A23" s="351"/>
+      <c r="B23" s="352"/>
+      <c r="C23" s="353"/>
+      <c r="D23" s="243" t="s">
+        <v>47</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="40"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="41"/>
       <c r="U23" s="42"/>
       <c r="V23" s="41"/>
@@ -5943,13 +6768,13 @@
       <c r="AM23" s="33"/>
     </row>
     <row r="24" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A24" s="276"/>
-      <c r="B24" s="275"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="246" t="s">
-        <v>53</v>
+      <c r="A24" s="350"/>
+      <c r="B24" s="354"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="243" t="s">
+        <v>48</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
       <c r="H24" s="38"/>
@@ -5986,13 +6811,15 @@
       <c r="AM24" s="33"/>
     </row>
     <row r="25" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A25" s="276"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="246" t="s">
-        <v>54</v>
+      <c r="A25" s="351"/>
+      <c r="B25" s="347"/>
+      <c r="C25" s="345" t="s">
+        <v>38</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="D25" s="243" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="32"/>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
       <c r="H25" s="38"/>
@@ -6029,13 +6856,13 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="276"/>
-      <c r="B26" s="275"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="246" t="s">
-        <v>55</v>
+      <c r="A26" s="351"/>
+      <c r="B26" s="347"/>
+      <c r="C26" s="348"/>
+      <c r="D26" s="243" t="s">
+        <v>49</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
@@ -6072,11 +6899,11 @@
       <c r="AM26" s="33"/>
     </row>
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="246" t="s">
-        <v>56</v>
+      <c r="A27" s="351"/>
+      <c r="B27" s="347"/>
+      <c r="C27" s="348"/>
+      <c r="D27" s="243" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="36"/>
@@ -6115,11 +6942,11 @@
       <c r="AM27" s="33"/>
     </row>
     <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="276"/>
-      <c r="B28" s="275"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="246" t="s">
-        <v>57</v>
+      <c r="A28" s="351"/>
+      <c r="B28" s="347"/>
+      <c r="C28" s="348"/>
+      <c r="D28" s="243" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="36"/>
@@ -6158,11 +6985,11 @@
       <c r="AM28" s="33"/>
     </row>
     <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="280"/>
-      <c r="B29" s="281"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="246" t="s">
-        <v>58</v>
+      <c r="A29" s="351"/>
+      <c r="B29" s="347"/>
+      <c r="C29" s="348"/>
+      <c r="D29" s="243" t="s">
+        <v>52</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
@@ -6201,15 +7028,11 @@
       <c r="AM29" s="33"/>
     </row>
     <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="248" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="249"/>
-      <c r="C30" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="246" t="s">
-        <v>59</v>
+      <c r="A30" s="351"/>
+      <c r="B30" s="347"/>
+      <c r="C30" s="348"/>
+      <c r="D30" s="243" t="s">
+        <v>53</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
@@ -6247,330 +7070,599 @@
       <c r="AL30" s="15"/>
       <c r="AM30" s="33"/>
     </row>
-    <row r="31" ht="17.100000" customHeight="1"/>
+    <row r="31" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A31" s="351"/>
+      <c r="B31" s="356"/>
+      <c r="C31" s="357"/>
+      <c r="D31" s="243" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="33"/>
+    </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
+      <c r="A32" s="351"/>
+      <c r="B32" s="347"/>
+      <c r="C32" s="348"/>
+      <c r="D32" s="243" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="86"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="33"/>
     </row>
-    <row r="33" spans="4:49" ht="18.000000" customHeight="1">
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A33" s="351"/>
+      <c r="B33" s="347"/>
+      <c r="C33" s="348"/>
+      <c r="D33" s="243" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="33"/>
     </row>
-    <row r="34" spans="4:49" ht="17.100000" customHeight="1">
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
+    <row r="34" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A34" s="351"/>
+      <c r="B34" s="347"/>
+      <c r="C34" s="348"/>
+      <c r="D34" s="243" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="33"/>
     </row>
-    <row r="35" spans="4:49" ht="17.100000" customHeight="1">
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
+    <row r="35" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A35" s="358"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="349"/>
+      <c r="D35" s="243" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="33"/>
     </row>
-    <row r="36" spans="4:49" ht="17.100000" customHeight="1">
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
+    <row r="36" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A36" s="245" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="246"/>
+      <c r="C36" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="243" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="33"/>
     </row>
-    <row r="37" spans="4:49" ht="17.100000" customHeight="1">
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="10"/>
+    <row r="37" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="E37" s="35"/>
     </row>
-    <row r="38" spans="4:49" ht="17.100000" customHeight="1">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
+    <row r="38" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="E38" s="35"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="4:49" ht="20.100000" customHeight="1">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
+    <row r="39" spans="1:49" ht="18.000000" customHeight="1">
+      <c r="D39" s="5"/>
+      <c r="E39" s="35"/>
     </row>
-    <row r="40" spans="4:49" ht="20.100000" customHeight="1">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
+    <row r="40" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D40" s="8"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
     </row>
-    <row r="41" ht="20.100000" customHeight="1"/>
-    <row r="42" ht="20.100000" customHeight="1"/>
-    <row r="43" ht="20.100000" customHeight="1"/>
-    <row r="44" ht="20.100000" customHeight="1"/>
-    <row r="45" ht="20.100000" customHeight="1"/>
-    <row r="46" ht="20.100000" customHeight="1"/>
-    <row r="47" ht="20.100000" customHeight="1"/>
-    <row r="48" ht="20.100000" customHeight="1"/>
-    <row r="49" ht="20.100000" customHeight="1"/>
+    <row r="41" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+    </row>
+    <row r="42" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+    </row>
+    <row r="43" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+    </row>
+    <row r="44" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D44" s="10"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+    </row>
+    <row r="45" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="D45" s="10"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+    </row>
+    <row r="46" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+    </row>
+    <row r="47" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="5:5" ht="20.100000" customHeight="1">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" ht="20.100000" customHeight="1"/>
+    <row r="51" ht="20.100000" customHeight="1"/>
+    <row r="52" ht="20.100000" customHeight="1"/>
+    <row r="53" ht="20.100000" customHeight="1"/>
+    <row r="54" ht="20.100000" customHeight="1"/>
+    <row r="55" ht="20.100000" customHeight="1"/>
   </sheetData>
-  <mergeCells count="385">
+  <mergeCells count="488">
     <mergeCell ref="A1:AM5"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:E7"/>
@@ -6595,8 +7687,8 @@
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="A9:B29"/>
-    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="A9:B35"/>
+    <mergeCell ref="C9:C14"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
@@ -6699,6 +7791,7 @@
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="C15:C24"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -6767,7 +7860,23 @@
     <mergeCell ref="AH18:AI18"/>
     <mergeCell ref="AJ18:AK18"/>
     <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="AL19:AM19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
@@ -6853,23 +7962,7 @@
     <mergeCell ref="AH24:AI24"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="C25:C35"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -6938,7 +8031,6 @@
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="AJ29:AK29"/>
     <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -6956,6 +8048,109 @@
     <mergeCell ref="AH30:AI30"/>
     <mergeCell ref="AJ30:AK30"/>
     <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>10월</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>프로젝트  설계</t>
+  </si>
+  <si>
+    <t>학교 소개</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
-      <color theme="3"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="40">
@@ -816,18 +819,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="8" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249980"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="121">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -1849,23 +1852,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1881,156 +1870,28 @@
       <bottom/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0" tint="-0.249950"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.249950"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF969696"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.049990"/>
       </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.249950"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF969696"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF969696"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -2182,7 +2043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3254,47 +3115,31 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3328,67 +3173,19 @@
     <xf numFmtId="0" fontId="45" fillId="37" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="115" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3413,6 +3210,57 @@
     <xf numFmtId="0" fontId="44" fillId="37" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="38" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3514,6 +3362,18 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="39" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4382,13 +4242,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4400,7 +4260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="4356100"/>
+          <a:off x="10603230" y="4573270"/>
           <a:ext cx="419100" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4568,13 +4428,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4586,7 +4446,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8519160" y="4559935"/>
+          <a:off x="8519160" y="4777105"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4630,13 +4490,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4648,7 +4508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8922385" y="4783455"/>
+          <a:off x="8922385" y="5000625"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4692,13 +4552,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4710,7 +4570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8932545" y="5006340"/>
+          <a:off x="8932545" y="5223510"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4754,13 +4614,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4772,7 +4632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9345930" y="5241925"/>
+          <a:off x="9345930" y="5459095"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4816,13 +4676,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4834,7 +4694,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9341485" y="5469890"/>
+          <a:off x="9341485" y="5687060"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4878,13 +4738,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4896,7 +4756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9765030" y="5657850"/>
+          <a:off x="9765030" y="5875020"/>
           <a:ext cx="849630" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4940,13 +4800,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4958,7 +4818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770110" y="5890260"/>
+          <a:off x="9770110" y="6107430"/>
           <a:ext cx="852170" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5002,13 +4862,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5020,7 +4880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10198735" y="6088380"/>
+          <a:off x="10198735" y="6305550"/>
           <a:ext cx="404495" cy="71755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5064,13 +4924,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5082,7 +4942,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8084185" y="6339205"/>
+          <a:off x="8084185" y="6556375"/>
           <a:ext cx="2505075" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5126,13 +4986,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5144,7 +5004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10179685" y="6546850"/>
+          <a:off x="10179685" y="6764020"/>
           <a:ext cx="828675" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5188,13 +5048,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5206,7 +5066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11028045" y="6743700"/>
+          <a:off x="11028045" y="6960870"/>
           <a:ext cx="424180" cy="54610"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5250,13 +5110,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5268,12 +5128,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="6990715"/>
+          <a:off x="10603230" y="7207885"/>
           <a:ext cx="428625" cy="52070"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="95B3D7"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 48"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4360545"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
         </a:solidFill>
         <a:ln w="0" cap="flat" cmpd="sng">
           <a:noFill/>
@@ -5671,10 +5593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:AW56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView topLeftCell="A7" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29:W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -6117,11 +6039,11 @@
       <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="343" t="s">
+      <c r="A9" s="344" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="344"/>
-      <c r="C9" s="345" t="s">
+      <c r="B9" s="345"/>
+      <c r="C9" s="346" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="243" t="s">
@@ -6164,9 +6086,9 @@
       <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="346"/>
-      <c r="B10" s="347"/>
-      <c r="C10" s="348"/>
+      <c r="A10" s="347"/>
+      <c r="B10" s="348"/>
+      <c r="C10" s="349"/>
       <c r="D10" s="243" t="s">
         <v>63</v>
       </c>
@@ -6207,9 +6129,9 @@
       <c r="AM10" s="78"/>
     </row>
     <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="346"/>
-      <c r="B11" s="347"/>
-      <c r="C11" s="348"/>
+      <c r="A11" s="347"/>
+      <c r="B11" s="348"/>
+      <c r="C11" s="349"/>
       <c r="D11" s="243" t="s">
         <v>64</v>
       </c>
@@ -6250,9 +6172,9 @@
       <c r="AM11" s="78"/>
     </row>
     <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="346"/>
-      <c r="B12" s="347"/>
-      <c r="C12" s="348"/>
+      <c r="A12" s="347"/>
+      <c r="B12" s="348"/>
+      <c r="C12" s="349"/>
       <c r="D12" s="243" t="s">
         <v>65</v>
       </c>
@@ -6293,9 +6215,9 @@
       <c r="AM12" s="78"/>
     </row>
     <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="346"/>
-      <c r="B13" s="347"/>
-      <c r="C13" s="348"/>
+      <c r="A13" s="347"/>
+      <c r="B13" s="348"/>
+      <c r="C13" s="349"/>
       <c r="D13" s="243" t="s">
         <v>66</v>
       </c>
@@ -6336,9 +6258,9 @@
       <c r="AM13" s="78"/>
     </row>
     <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="346"/>
-      <c r="B14" s="347"/>
-      <c r="C14" s="349"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="348"/>
+      <c r="C14" s="350"/>
       <c r="D14" s="243" t="s">
         <v>67</v>
       </c>
@@ -6379,9 +6301,9 @@
       <c r="AM14" s="78"/>
     </row>
     <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="346"/>
-      <c r="B15" s="347"/>
-      <c r="C15" s="345" t="s">
+      <c r="A15" s="347"/>
+      <c r="B15" s="348"/>
+      <c r="C15" s="346" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="243" t="s">
@@ -6424,9 +6346,9 @@
       <c r="AM15" s="78"/>
     </row>
     <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="350"/>
-      <c r="B16" s="347"/>
-      <c r="C16" s="348"/>
+      <c r="A16" s="351"/>
+      <c r="B16" s="348"/>
+      <c r="C16" s="349"/>
       <c r="D16" s="243" t="s">
         <v>40</v>
       </c>
@@ -6467,9 +6389,9 @@
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="350"/>
-      <c r="B17" s="347"/>
-      <c r="C17" s="348"/>
+      <c r="A17" s="351"/>
+      <c r="B17" s="348"/>
+      <c r="C17" s="349"/>
       <c r="D17" s="243" t="s">
         <v>41</v>
       </c>
@@ -6510,9 +6432,9 @@
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="350"/>
-      <c r="B18" s="347"/>
-      <c r="C18" s="348"/>
+      <c r="A18" s="351"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="243" t="s">
         <v>42</v>
       </c>
@@ -6553,9 +6475,9 @@
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="350"/>
-      <c r="B19" s="347"/>
-      <c r="C19" s="348"/>
+      <c r="A19" s="351"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="349"/>
       <c r="D19" s="243" t="s">
         <v>43</v>
       </c>
@@ -6596,9 +6518,9 @@
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="350"/>
-      <c r="B20" s="347"/>
-      <c r="C20" s="348"/>
+      <c r="A20" s="351"/>
+      <c r="B20" s="348"/>
+      <c r="C20" s="349"/>
       <c r="D20" s="243" t="s">
         <v>44</v>
       </c>
@@ -6639,9 +6561,9 @@
       <c r="AM20" s="33"/>
     </row>
     <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="351"/>
-      <c r="B21" s="347"/>
-      <c r="C21" s="348"/>
+      <c r="A21" s="352"/>
+      <c r="B21" s="348"/>
+      <c r="C21" s="349"/>
       <c r="D21" s="243" t="s">
         <v>45</v>
       </c>
@@ -6682,9 +6604,9 @@
       <c r="AM21" s="33"/>
     </row>
     <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="351"/>
-      <c r="B22" s="347"/>
-      <c r="C22" s="348"/>
+      <c r="A22" s="352"/>
+      <c r="B22" s="348"/>
+      <c r="C22" s="349"/>
       <c r="D22" s="243" t="s">
         <v>46</v>
       </c>
@@ -6725,9 +6647,9 @@
       <c r="AM22" s="33"/>
     </row>
     <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="351"/>
-      <c r="B23" s="352"/>
-      <c r="C23" s="353"/>
+      <c r="A23" s="352"/>
+      <c r="B23" s="353"/>
+      <c r="C23" s="354"/>
       <c r="D23" s="243" t="s">
         <v>47</v>
       </c>
@@ -6767,28 +6689,28 @@
       <c r="AL23" s="15"/>
       <c r="AM23" s="33"/>
     </row>
-    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A24" s="350"/>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
+    <row r="24" spans="1:39" ht="17.100000">
+      <c r="A24" s="335"/>
+      <c r="B24" s="336"/>
+      <c r="C24" s="337"/>
       <c r="D24" s="243" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="40"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="41"/>
       <c r="U24" s="42"/>
       <c r="V24" s="41"/>
@@ -6812,12 +6734,10 @@
     </row>
     <row r="25" spans="1:39" ht="17.100000" customHeight="1">
       <c r="A25" s="351"/>
-      <c r="B25" s="347"/>
-      <c r="C25" s="345" t="s">
-        <v>38</v>
-      </c>
+      <c r="B25" s="355"/>
+      <c r="C25" s="356"/>
       <c r="D25" s="243" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="36"/>
@@ -6856,11 +6776,13 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="351"/>
-      <c r="B26" s="347"/>
-      <c r="C26" s="348"/>
+      <c r="A26" s="352"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="346" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="243" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="36"/>
@@ -6899,13 +6821,13 @@
       <c r="AM26" s="33"/>
     </row>
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="351"/>
-      <c r="B27" s="347"/>
-      <c r="C27" s="348"/>
+      <c r="A27" s="352"/>
+      <c r="B27" s="348"/>
+      <c r="C27" s="349"/>
       <c r="D27" s="243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
@@ -6942,11 +6864,11 @@
       <c r="AM27" s="33"/>
     </row>
     <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="351"/>
-      <c r="B28" s="347"/>
-      <c r="C28" s="348"/>
+      <c r="A28" s="352"/>
+      <c r="B28" s="348"/>
+      <c r="C28" s="349"/>
       <c r="D28" s="243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="36"/>
@@ -6985,11 +6907,11 @@
       <c r="AM28" s="33"/>
     </row>
     <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="351"/>
-      <c r="B29" s="347"/>
-      <c r="C29" s="348"/>
+      <c r="A29" s="352"/>
+      <c r="B29" s="348"/>
+      <c r="C29" s="349"/>
       <c r="D29" s="243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
@@ -7028,11 +6950,11 @@
       <c r="AM29" s="33"/>
     </row>
     <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="351"/>
-      <c r="B30" s="347"/>
-      <c r="C30" s="348"/>
+      <c r="A30" s="352"/>
+      <c r="B30" s="348"/>
+      <c r="C30" s="349"/>
       <c r="D30" s="243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
@@ -7071,11 +6993,11 @@
       <c r="AM30" s="33"/>
     </row>
     <row r="31" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A31" s="351"/>
-      <c r="B31" s="356"/>
-      <c r="C31" s="357"/>
+      <c r="A31" s="352"/>
+      <c r="B31" s="348"/>
+      <c r="C31" s="349"/>
       <c r="D31" s="243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
@@ -7114,13 +7036,13 @@
       <c r="AM31" s="33"/>
     </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A32" s="351"/>
-      <c r="B32" s="347"/>
-      <c r="C32" s="348"/>
+      <c r="A32" s="352"/>
+      <c r="B32" s="357"/>
+      <c r="C32" s="358"/>
       <c r="D32" s="243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
@@ -7157,13 +7079,13 @@
       <c r="AM32" s="33"/>
     </row>
     <row r="33" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A33" s="351"/>
-      <c r="B33" s="347"/>
-      <c r="C33" s="348"/>
+      <c r="A33" s="352"/>
+      <c r="B33" s="348"/>
+      <c r="C33" s="349"/>
       <c r="D33" s="243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
@@ -7200,11 +7122,11 @@
       <c r="AM33" s="33"/>
     </row>
     <row r="34" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A34" s="351"/>
-      <c r="B34" s="347"/>
-      <c r="C34" s="348"/>
+      <c r="A34" s="352"/>
+      <c r="B34" s="348"/>
+      <c r="C34" s="349"/>
       <c r="D34" s="243" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
@@ -7243,11 +7165,11 @@
       <c r="AM34" s="33"/>
     </row>
     <row r="35" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A35" s="358"/>
-      <c r="B35" s="359"/>
+      <c r="A35" s="352"/>
+      <c r="B35" s="348"/>
       <c r="C35" s="349"/>
       <c r="D35" s="243" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
@@ -7286,15 +7208,11 @@
       <c r="AM35" s="33"/>
     </row>
     <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="245" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="246"/>
-      <c r="C36" s="152" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="359"/>
+      <c r="B36" s="360"/>
+      <c r="C36" s="350"/>
       <c r="D36" s="243" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
@@ -7333,76 +7251,88 @@
       <c r="AM36" s="33"/>
     </row>
     <row r="37" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A37" s="245" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="246"/>
+      <c r="C37" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="243" t="s">
+        <v>59</v>
+      </c>
       <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="33"/>
     </row>
     <row r="38" spans="1:49" ht="17.100000" customHeight="1">
       <c r="E38" s="35"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:49" ht="18.000000" customHeight="1">
-      <c r="D39" s="5"/>
+    <row r="39" spans="1:49" ht="17.100000" customHeight="1">
       <c r="E39" s="35"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D40" s="8"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
+    <row r="40" spans="1:49" ht="18.000000" customHeight="1">
+      <c r="D40" s="5"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D41" s="4"/>
+      <c r="D41" s="8"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -7435,54 +7365,41 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
     </row>
     <row r="42" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D42" s="4"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
@@ -7497,8 +7414,8 @@
       <c r="AW42" s="1"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -7531,20 +7448,22 @@
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
-      <c r="AN43" s="10"/>
-      <c r="AO43" s="10"/>
-      <c r="AP43" s="10"/>
-      <c r="AQ43" s="10"/>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="10"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
     </row>
     <row r="44" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D44" s="10"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -7588,7 +7507,7 @@
       <c r="AT44" s="10"/>
       <c r="AU44" s="10"/>
     </row>
-    <row r="45" spans="1:49" ht="20.100000" customHeight="1">
+    <row r="45" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D45" s="10"/>
       <c r="E45" s="4"/>
       <c r="F45" s="10"/>
@@ -7631,10 +7550,44 @@
       <c r="AQ45" s="10"/>
       <c r="AR45" s="10"/>
       <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
     </row>
     <row r="46" spans="1:49" ht="20.100000" customHeight="1">
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10"/>
       <c r="AN46" s="10"/>
@@ -7643,11 +7596,20 @@
       <c r="AQ46" s="10"/>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
     </row>
     <row r="47" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="D47" s="10"/>
       <c r="E47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
     </row>
     <row r="48" spans="1:49" ht="20.100000" customHeight="1">
       <c r="E48" s="10"/>
@@ -7655,14 +7617,17 @@
     <row r="49" spans="5:5" ht="20.100000" customHeight="1">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" ht="20.100000" customHeight="1"/>
+    <row r="50" spans="5:5" ht="20.100000" customHeight="1">
+      <c r="E50" s="10"/>
+    </row>
     <row r="51" ht="20.100000" customHeight="1"/>
     <row r="52" ht="20.100000" customHeight="1"/>
     <row r="53" ht="20.100000" customHeight="1"/>
     <row r="54" ht="20.100000" customHeight="1"/>
     <row r="55" ht="20.100000" customHeight="1"/>
+    <row r="56" ht="20.100000" customHeight="1"/>
   </sheetData>
-  <mergeCells count="488">
+  <mergeCells count="505">
     <mergeCell ref="A1:AM5"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:E7"/>
@@ -7687,7 +7652,7 @@
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="A9:B35"/>
+    <mergeCell ref="A9:B36"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
@@ -7791,7 +7756,7 @@
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="C15:C25"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -7962,24 +7927,24 @@
     <mergeCell ref="AH24:AI24"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="C25:C35"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="C26:C36"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:K27"/>
@@ -8133,7 +8098,6 @@
     <mergeCell ref="AH35:AI35"/>
     <mergeCell ref="AJ35:AK35"/>
     <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
@@ -8151,6 +8115,24 @@
     <mergeCell ref="AH36:AI36"/>
     <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AL37:AM37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>10월</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>학교 소개</t>
+  </si>
+  <si>
+    <t>알림</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,12 +826,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="99">
     <border>
@@ -1862,28 +1859,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF969696"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF969696"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249950"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249950"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249950"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="1" tint="0.049990"/>
       </right>
       <top style="thin">
@@ -1893,6 +1868,22 @@
         <color theme="0" tint="-0.249950"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF969696"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF969696"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2043,7 +2034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3312,55 +3303,55 @@
     <xf numFmtId="0" fontId="45" fillId="38" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3373,6 +3364,14 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4242,13 +4241,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4260,7 +4259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="4573270"/>
+          <a:off x="10603230" y="4790440"/>
           <a:ext cx="419100" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4428,13 +4427,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4446,7 +4445,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8519160" y="4777105"/>
+          <a:off x="8519160" y="4994275"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4490,13 +4489,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4508,7 +4507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8922385" y="5000625"/>
+          <a:off x="8922385" y="5217795"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4552,13 +4551,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4570,7 +4569,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8932545" y="5223510"/>
+          <a:off x="8932545" y="5440680"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4614,13 +4613,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4632,7 +4631,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9345930" y="5459095"/>
+          <a:off x="9345930" y="5676265"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4676,13 +4675,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4694,7 +4693,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9341485" y="5687060"/>
+          <a:off x="9341485" y="5904230"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4738,13 +4737,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4756,7 +4755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9765030" y="5875020"/>
+          <a:off x="9765030" y="6092190"/>
           <a:ext cx="849630" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4800,13 +4799,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4818,7 +4817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770110" y="6107430"/>
+          <a:off x="9770110" y="6324600"/>
           <a:ext cx="852170" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4862,13 +4861,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4880,7 +4879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10198735" y="6305550"/>
+          <a:off x="10198735" y="6522720"/>
           <a:ext cx="404495" cy="71755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4924,13 +4923,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4942,7 +4941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8084185" y="6556375"/>
+          <a:off x="8084185" y="6773545"/>
           <a:ext cx="2505075" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4986,13 +4985,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5004,7 +5003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10179685" y="6764020"/>
+          <a:off x="10179685" y="6981190"/>
           <a:ext cx="828675" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5048,13 +5047,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5066,7 +5065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11028045" y="6960870"/>
+          <a:off x="11028045" y="7178040"/>
           <a:ext cx="424180" cy="54610"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5110,13 +5109,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5128,7 +5127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="7207885"/>
+          <a:off x="10603230" y="7425055"/>
           <a:ext cx="428625" cy="52070"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5192,6 +5191,68 @@
         <a:xfrm flipV="1">
           <a:off x="11010900" y="4360545"/>
           <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 49"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10594340" y="4584700"/>
+          <a:ext cx="419100" cy="62230"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -5593,10 +5654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AW56"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29:W29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -6732,28 +6793,28 @@
       <c r="AL24" s="15"/>
       <c r="AM24" s="33"/>
     </row>
-    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A25" s="351"/>
-      <c r="B25" s="355"/>
-      <c r="C25" s="356"/>
+    <row r="25" spans="1:39" ht="17.100000">
+      <c r="A25" s="335"/>
+      <c r="B25" s="336"/>
+      <c r="C25" s="337"/>
       <c r="D25" s="243" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="40"/>
+      <c r="E25" s="365"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="363"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="41"/>
       <c r="U25" s="42"/>
       <c r="V25" s="41"/>
@@ -6776,15 +6837,13 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="352"/>
-      <c r="B26" s="348"/>
-      <c r="C26" s="346" t="s">
-        <v>38</v>
+      <c r="A26" s="351"/>
+      <c r="B26" s="355"/>
+      <c r="C26" s="356"/>
+      <c r="D26" s="243" t="s">
+        <v>48</v>
       </c>
-      <c r="D26" s="243" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="365"/>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
@@ -6823,11 +6882,13 @@
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
       <c r="A27" s="352"/>
       <c r="B27" s="348"/>
-      <c r="C27" s="349"/>
+      <c r="C27" s="346" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="243" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="364"/>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
       <c r="H27" s="38"/>
@@ -6868,9 +6929,9 @@
       <c r="B28" s="348"/>
       <c r="C28" s="349"/>
       <c r="D28" s="243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
@@ -6911,9 +6972,9 @@
       <c r="B29" s="348"/>
       <c r="C29" s="349"/>
       <c r="D29" s="243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
@@ -6954,9 +7015,9 @@
       <c r="B30" s="348"/>
       <c r="C30" s="349"/>
       <c r="D30" s="243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
@@ -6997,7 +7058,7 @@
       <c r="B31" s="348"/>
       <c r="C31" s="349"/>
       <c r="D31" s="243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
@@ -7037,10 +7098,10 @@
     </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
       <c r="A32" s="352"/>
-      <c r="B32" s="357"/>
-      <c r="C32" s="358"/>
+      <c r="B32" s="348"/>
+      <c r="C32" s="349"/>
       <c r="D32" s="243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36"/>
@@ -7080,12 +7141,12 @@
     </row>
     <row r="33" spans="1:49" ht="17.100000" customHeight="1">
       <c r="A33" s="352"/>
-      <c r="B33" s="348"/>
-      <c r="C33" s="349"/>
+      <c r="B33" s="357"/>
+      <c r="C33" s="358"/>
       <c r="D33" s="243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="E33" s="86"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
@@ -7126,7 +7187,7 @@
       <c r="B34" s="348"/>
       <c r="C34" s="349"/>
       <c r="D34" s="243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
@@ -7169,7 +7230,7 @@
       <c r="B35" s="348"/>
       <c r="C35" s="349"/>
       <c r="D35" s="243" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
@@ -7208,13 +7269,13 @@
       <c r="AM35" s="33"/>
     </row>
     <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="359"/>
-      <c r="B36" s="360"/>
-      <c r="C36" s="350"/>
+      <c r="A36" s="352"/>
+      <c r="B36" s="348"/>
+      <c r="C36" s="349"/>
       <c r="D36" s="243" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
-      <c r="E36" s="35"/>
+      <c r="E36" s="86"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
       <c r="H36" s="38"/>
@@ -7251,15 +7312,11 @@
       <c r="AM36" s="33"/>
     </row>
     <row r="37" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A37" s="245" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="246"/>
-      <c r="C37" s="152" t="s">
-        <v>37</v>
-      </c>
+      <c r="A37" s="359"/>
+      <c r="B37" s="360"/>
+      <c r="C37" s="350"/>
       <c r="D37" s="243" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
@@ -7298,76 +7355,89 @@
       <c r="AM37" s="33"/>
     </row>
     <row r="38" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A38" s="245" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="246"/>
+      <c r="C38" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="243" t="s">
+        <v>59</v>
+      </c>
       <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="33"/>
     </row>
     <row r="39" spans="1:49" ht="17.100000" customHeight="1">
       <c r="E39" s="35"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:49" ht="18.000000" customHeight="1">
-      <c r="D40" s="5"/>
+    <row r="40" spans="1:49" ht="17.100000" customHeight="1">
       <c r="E40" s="35"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D41" s="8"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
+    <row r="41" spans="1:49" ht="18.000000" customHeight="1">
+      <c r="D41" s="5"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D42" s="4"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -7400,54 +7470,42 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
@@ -7462,8 +7520,7 @@
       <c r="AW43" s="1"/>
     </row>
     <row r="44" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D44" s="10"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="4"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -7496,20 +7553,21 @@
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="10"/>
-      <c r="AN44" s="10"/>
-      <c r="AO44" s="10"/>
-      <c r="AP44" s="10"/>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
-      <c r="AU44" s="10"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
     </row>
     <row r="45" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D45" s="10"/>
-      <c r="E45" s="4"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -7553,9 +7611,9 @@
       <c r="AT45" s="10"/>
       <c r="AU45" s="10"/>
     </row>
-    <row r="46" spans="1:49" ht="20.100000" customHeight="1">
+    <row r="46" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D46" s="10"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -7596,10 +7654,44 @@
       <c r="AQ46" s="10"/>
       <c r="AR46" s="10"/>
       <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
     </row>
     <row r="47" spans="1:49" ht="20.100000" customHeight="1">
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
       <c r="AM47" s="10"/>
       <c r="AN47" s="10"/>
@@ -7608,24 +7700,41 @@
       <c r="AQ47" s="10"/>
       <c r="AR47" s="10"/>
       <c r="AS47" s="10"/>
-      <c r="AT47" s="10"/>
-      <c r="AU47" s="10"/>
     </row>
     <row r="48" spans="1:49" ht="20.100000" customHeight="1">
-      <c r="E48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="4"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
     </row>
-    <row r="49" spans="5:5" ht="20.100000" customHeight="1">
-      <c r="E49" s="10"/>
+    <row r="49" spans="4:5" ht="20.100000" customHeight="1">
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" ht="20.100000" customHeight="1">
+    <row r="50" spans="4:5" ht="20.100000" customHeight="1">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" ht="20.100000" customHeight="1"/>
-    <row r="52" ht="20.100000" customHeight="1"/>
-    <row r="53" ht="20.100000" customHeight="1"/>
+    <row r="51" spans="4:5" ht="20.100000" customHeight="1">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="4:5" ht="20.100000" customHeight="1">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="4:5" ht="20.100000" customHeight="1">
+      <c r="E53" s="10"/>
+    </row>
     <row r="54" ht="20.100000" customHeight="1"/>
     <row r="55" ht="20.100000" customHeight="1"/>
     <row r="56" ht="20.100000" customHeight="1"/>
+    <row r="57" ht="20.100000" customHeight="1"/>
   </sheetData>
   <mergeCells count="505">
     <mergeCell ref="A1:AM5"/>
@@ -7652,7 +7761,7 @@
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="A9:B36"/>
+    <mergeCell ref="A9:B37"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
@@ -7756,7 +7865,7 @@
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="C15:C26"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -7927,41 +8036,24 @@
     <mergeCell ref="AH24:AI24"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="C27:C37"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
@@ -8115,7 +8207,6 @@
     <mergeCell ref="AH36:AI36"/>
     <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
@@ -8133,6 +8224,24 @@
     <mergeCell ref="AH37:AI37"/>
     <mergeCell ref="AJ37:AK37"/>
     <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -10,7 +10,7 @@
     <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>10월</t>
   </si>
@@ -298,13 +298,25 @@
   <si>
     <t>알림</t>
   </si>
+  <si>
+    <t>멘토 게시물 등록</t>
+  </si>
+  <si>
+    <t>멘티 게시물 등록</t>
+  </si>
+  <si>
+    <t>멘토링 신청</t>
+  </si>
+  <si>
+    <t>멘토링 후기 작성</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="55">
+  <fonts count="57">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -593,8 +605,18 @@
       <name val="돋움"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="배달의민족 한나는 열한살"/>
+      <color rgb="FFFF0000"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,8 +848,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="104">
     <border>
       <left/>
       <right/>
@@ -1870,12 +1916,18 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF969696"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF969696"/>
-      </top>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
     </border>
     <border>
@@ -1884,6 +1936,48 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2034,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3373,6 +3467,390 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="38" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3453,7 +3931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8499475" y="2389505"/>
+          <a:off x="8505190" y="2393315"/>
           <a:ext cx="843915" cy="81915"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3515,7 +3993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6416040" y="2181860"/>
+          <a:off x="6421755" y="2185670"/>
           <a:ext cx="419100" cy="61595"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3577,7 +4055,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7254240" y="1971675"/>
+          <a:off x="7259955" y="1975485"/>
           <a:ext cx="419100" cy="67945"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3639,7 +4117,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6831330" y="1750695"/>
+          <a:off x="6837045" y="1754505"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3701,7 +4179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5993130" y="1541145"/>
+          <a:off x="5998845" y="1544955"/>
           <a:ext cx="419100" cy="68580"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3763,7 +4241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5150485" y="1098550"/>
+          <a:off x="5156200" y="1102360"/>
           <a:ext cx="840740" cy="55245"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3825,7 +4303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5574030" y="1314450"/>
+          <a:off x="5579745" y="1318260"/>
           <a:ext cx="424815" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3887,7 +4365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8922385" y="2623185"/>
+          <a:off x="8928100" y="2626995"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3949,7 +4427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9356725" y="2834640"/>
+          <a:off x="9362440" y="2838450"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3993,13 +4471,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4011,7 +4489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9343390" y="3274695"/>
+          <a:off x="9349105" y="3712845"/>
           <a:ext cx="419100" cy="65405"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4073,7 +4551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9351645" y="3051810"/>
+          <a:off x="9357360" y="3055620"/>
           <a:ext cx="843280" cy="65405"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4117,13 +4595,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4135,7 +4613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770745" y="3931920"/>
+          <a:off x="9776460" y="4370070"/>
           <a:ext cx="419100" cy="64770"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4179,13 +4657,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>135890</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4197,7 +4675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770745" y="3714750"/>
+          <a:off x="9776460" y="4152900"/>
           <a:ext cx="829945" cy="53975"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4241,13 +4719,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4259,7 +4737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="4790440"/>
+          <a:off x="10608945" y="5228590"/>
           <a:ext cx="419100" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4303,13 +4781,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4321,7 +4799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11010900" y="4143375"/>
+          <a:off x="11016615" y="4581525"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4365,13 +4843,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4383,7 +4861,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11441430" y="3491865"/>
+          <a:off x="11447145" y="3930015"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4427,13 +4905,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4445,7 +4923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8519160" y="4994275"/>
+          <a:off x="8524875" y="5432425"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4489,13 +4967,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4507,7 +4985,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8922385" y="5217795"/>
+          <a:off x="8928100" y="5655945"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4551,13 +5029,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4569,7 +5047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8932545" y="5440680"/>
+          <a:off x="8938260" y="5878830"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4613,13 +5091,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4631,7 +5109,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9345930" y="5676265"/>
+          <a:off x="9351645" y="6114415"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4675,13 +5153,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4693,7 +5171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9341485" y="5904230"/>
+          <a:off x="9347200" y="6342380"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4737,13 +5215,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4755,7 +5233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9765030" y="6092190"/>
+          <a:off x="9770745" y="6530340"/>
           <a:ext cx="849630" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4799,13 +5277,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4817,7 +5295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770110" y="6324600"/>
+          <a:off x="9775825" y="6762750"/>
           <a:ext cx="852170" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4861,13 +5339,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4879,7 +5357,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10198735" y="6522720"/>
+          <a:off x="10204450" y="6960870"/>
           <a:ext cx="404495" cy="71755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4923,13 +5401,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -4941,7 +5419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8084185" y="6773545"/>
+          <a:off x="8089900" y="7211695"/>
           <a:ext cx="2505075" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4985,13 +5463,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5003,7 +5481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10179685" y="6981190"/>
+          <a:off x="10185400" y="7419340"/>
           <a:ext cx="828675" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5047,13 +5525,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5065,7 +5543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11028045" y="7178040"/>
+          <a:off x="11033760" y="7616190"/>
           <a:ext cx="424180" cy="54610"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5109,13 +5587,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5127,7 +5605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10603230" y="7425055"/>
+          <a:off x="10608945" y="7863205"/>
           <a:ext cx="428625" cy="52070"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5171,13 +5649,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5189,7 +5667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11010900" y="4360545"/>
+          <a:off x="11016615" y="4798695"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5233,13 +5711,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5251,8 +5729,132 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10594340" y="4584700"/>
+          <a:off x="10600055" y="5022850"/>
           <a:ext cx="419100" cy="62230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 50"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8926830" y="3494405"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 51"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8926830" y="3277235"/>
+          <a:ext cx="419100" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -5654,10 +6256,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AW53"/>
+  <dimension ref="A1:AW55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22:AG22"/>
+    <sheetView topLeftCell="A16" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -5672,47 +6274,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="442" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="444"/>
+      <c r="N1" s="444"/>
+      <c r="O1" s="444"/>
+      <c r="P1" s="444"/>
+      <c r="Q1" s="444"/>
+      <c r="R1" s="444"/>
+      <c r="S1" s="444"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="445"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -5725,45 +6327,45 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
+      <c r="A2" s="443"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
+      <c r="J2" s="444"/>
+      <c r="K2" s="444"/>
+      <c r="L2" s="444"/>
+      <c r="M2" s="444"/>
+      <c r="N2" s="444"/>
+      <c r="O2" s="444"/>
+      <c r="P2" s="444"/>
+      <c r="Q2" s="444"/>
+      <c r="R2" s="444"/>
+      <c r="S2" s="444"/>
+      <c r="T2" s="445"/>
+      <c r="U2" s="445"/>
+      <c r="V2" s="445"/>
+      <c r="W2" s="445"/>
+      <c r="X2" s="445"/>
+      <c r="Y2" s="445"/>
+      <c r="Z2" s="445"/>
+      <c r="AA2" s="445"/>
+      <c r="AB2" s="445"/>
+      <c r="AC2" s="446"/>
+      <c r="AD2" s="446"/>
+      <c r="AE2" s="446"/>
+      <c r="AF2" s="446"/>
+      <c r="AG2" s="446"/>
+      <c r="AH2" s="447"/>
+      <c r="AI2" s="446"/>
+      <c r="AJ2" s="446"/>
+      <c r="AK2" s="446"/>
+      <c r="AL2" s="446"/>
+      <c r="AM2" s="446"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
@@ -5776,45 +6378,45 @@
       <c r="AW2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="173"/>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173"/>
-      <c r="AM3" s="173"/>
+      <c r="A3" s="443"/>
+      <c r="B3" s="443"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="445"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="445"/>
+      <c r="M3" s="445"/>
+      <c r="N3" s="445"/>
+      <c r="O3" s="445"/>
+      <c r="P3" s="445"/>
+      <c r="Q3" s="445"/>
+      <c r="R3" s="445"/>
+      <c r="S3" s="445"/>
+      <c r="T3" s="445"/>
+      <c r="U3" s="445"/>
+      <c r="V3" s="445"/>
+      <c r="W3" s="445"/>
+      <c r="X3" s="445"/>
+      <c r="Y3" s="445"/>
+      <c r="Z3" s="445"/>
+      <c r="AA3" s="445"/>
+      <c r="AB3" s="445"/>
+      <c r="AC3" s="445"/>
+      <c r="AD3" s="445"/>
+      <c r="AE3" s="445"/>
+      <c r="AF3" s="445"/>
+      <c r="AG3" s="445"/>
+      <c r="AH3" s="445"/>
+      <c r="AI3" s="445"/>
+      <c r="AJ3" s="445"/>
+      <c r="AK3" s="445"/>
+      <c r="AL3" s="445"/>
+      <c r="AM3" s="445"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
@@ -5827,45 +6429,45 @@
       <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A4" s="158"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
+      <c r="A4" s="442"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="442"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="442"/>
+      <c r="H4" s="442"/>
+      <c r="I4" s="442"/>
+      <c r="J4" s="448"/>
+      <c r="K4" s="448"/>
+      <c r="L4" s="448"/>
+      <c r="M4" s="448"/>
+      <c r="N4" s="448"/>
+      <c r="O4" s="448"/>
+      <c r="P4" s="448"/>
+      <c r="Q4" s="448"/>
+      <c r="R4" s="448"/>
+      <c r="S4" s="448"/>
+      <c r="T4" s="448"/>
+      <c r="U4" s="448"/>
+      <c r="V4" s="448"/>
+      <c r="W4" s="448"/>
+      <c r="X4" s="448"/>
+      <c r="Y4" s="448"/>
+      <c r="Z4" s="448"/>
+      <c r="AA4" s="448"/>
+      <c r="AB4" s="448"/>
+      <c r="AC4" s="448"/>
+      <c r="AD4" s="448"/>
+      <c r="AE4" s="448"/>
+      <c r="AF4" s="448"/>
+      <c r="AG4" s="448"/>
+      <c r="AH4" s="448"/>
+      <c r="AI4" s="448"/>
+      <c r="AJ4" s="448"/>
+      <c r="AK4" s="448"/>
+      <c r="AL4" s="445"/>
+      <c r="AM4" s="445"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
@@ -5878,45 +6480,45 @@
       <c r="AW4" s="1"/>
     </row>
     <row r="5" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
+      <c r="A5" s="443"/>
+      <c r="B5" s="443"/>
+      <c r="C5" s="443"/>
+      <c r="D5" s="449"/>
+      <c r="E5" s="449"/>
+      <c r="F5" s="449"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="449"/>
+      <c r="I5" s="449"/>
+      <c r="J5" s="445"/>
+      <c r="K5" s="445"/>
+      <c r="L5" s="445"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="445"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="445"/>
+      <c r="Q5" s="445"/>
+      <c r="R5" s="445"/>
+      <c r="S5" s="445"/>
+      <c r="T5" s="445"/>
+      <c r="U5" s="445"/>
+      <c r="V5" s="445"/>
+      <c r="W5" s="445"/>
+      <c r="X5" s="445"/>
+      <c r="Y5" s="445"/>
+      <c r="Z5" s="445"/>
+      <c r="AA5" s="445"/>
+      <c r="AB5" s="445"/>
+      <c r="AC5" s="445"/>
+      <c r="AD5" s="445"/>
+      <c r="AE5" s="445"/>
+      <c r="AF5" s="445"/>
+      <c r="AG5" s="445"/>
+      <c r="AH5" s="445"/>
+      <c r="AI5" s="445"/>
+      <c r="AJ5" s="445"/>
+      <c r="AK5" s="445"/>
+      <c r="AL5" s="445"/>
+      <c r="AM5" s="445"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -5929,45 +6531,45 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="177"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="169"/>
-      <c r="AD6" s="169"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="169"/>
-      <c r="AG6" s="169"/>
-      <c r="AH6" s="169"/>
-      <c r="AI6" s="169"/>
-      <c r="AJ6" s="169"/>
-      <c r="AK6" s="177"/>
-      <c r="AL6" s="177"/>
-      <c r="AM6" s="178"/>
+      <c r="A6" s="450"/>
+      <c r="B6" s="450"/>
+      <c r="C6" s="450"/>
+      <c r="D6" s="451"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="451"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="451"/>
+      <c r="N6" s="451"/>
+      <c r="O6" s="451"/>
+      <c r="P6" s="451"/>
+      <c r="Q6" s="451"/>
+      <c r="R6" s="451"/>
+      <c r="S6" s="451"/>
+      <c r="T6" s="451"/>
+      <c r="U6" s="451"/>
+      <c r="V6" s="451"/>
+      <c r="W6" s="451"/>
+      <c r="X6" s="451"/>
+      <c r="Y6" s="451"/>
+      <c r="Z6" s="451"/>
+      <c r="AA6" s="454"/>
+      <c r="AB6" s="451"/>
+      <c r="AC6" s="451"/>
+      <c r="AD6" s="451"/>
+      <c r="AE6" s="451"/>
+      <c r="AF6" s="451"/>
+      <c r="AG6" s="451"/>
+      <c r="AH6" s="451"/>
+      <c r="AI6" s="451"/>
+      <c r="AJ6" s="451"/>
+      <c r="AK6" s="454"/>
+      <c r="AL6" s="454"/>
+      <c r="AM6" s="455"/>
     </row>
     <row r="7" spans="1:49" ht="17.100000" customHeight="1">
       <c r="A7" s="220" t="s">
@@ -5975,57 +6577,57 @@
       </c>
       <c r="B7" s="221"/>
       <c r="C7" s="222"/>
-      <c r="D7" s="234" t="s">
+      <c r="D7" s="460" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="127" t="s">
+      <c r="E7" s="461"/>
+      <c r="F7" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127" t="s">
+      <c r="G7" s="461"/>
+      <c r="H7" s="461"/>
+      <c r="I7" s="461"/>
+      <c r="J7" s="461"/>
+      <c r="K7" s="461"/>
+      <c r="L7" s="461"/>
+      <c r="M7" s="460"/>
+      <c r="N7" s="460"/>
+      <c r="O7" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="P7" s="461"/>
+      <c r="Q7" s="461"/>
+      <c r="R7" s="461"/>
+      <c r="S7" s="461"/>
+      <c r="T7" s="461"/>
+      <c r="U7" s="461"/>
+      <c r="V7" s="460"/>
+      <c r="W7" s="460"/>
+      <c r="X7" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127" t="s">
+      <c r="Y7" s="461"/>
+      <c r="Z7" s="461"/>
+      <c r="AA7" s="461"/>
+      <c r="AB7" s="461"/>
+      <c r="AC7" s="461"/>
+      <c r="AD7" s="461"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="460"/>
+      <c r="AG7" s="460" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
+      <c r="AH7" s="461"/>
+      <c r="AI7" s="461"/>
+      <c r="AJ7" s="461"/>
+      <c r="AK7" s="461"/>
+      <c r="AL7" s="461"/>
+      <c r="AM7" s="461"/>
     </row>
     <row r="8" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A8" s="223"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="225"/>
+      <c r="A8" s="411"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="413"/>
       <c r="D8" s="56" t="s">
         <v>18</v>
       </c>
@@ -6100,11 +6702,11 @@
       <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="344" t="s">
+      <c r="A9" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="345"/>
-      <c r="C9" s="346" t="s">
+      <c r="B9" s="405"/>
+      <c r="C9" s="405" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="243" t="s">
@@ -6147,9 +6749,9 @@
       <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="347"/>
-      <c r="B10" s="348"/>
-      <c r="C10" s="349"/>
+      <c r="A10" s="404"/>
+      <c r="B10" s="405"/>
+      <c r="C10" s="405"/>
       <c r="D10" s="243" t="s">
         <v>63</v>
       </c>
@@ -6190,9 +6792,9 @@
       <c r="AM10" s="78"/>
     </row>
     <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="347"/>
-      <c r="B11" s="348"/>
-      <c r="C11" s="349"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="405"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="243" t="s">
         <v>64</v>
       </c>
@@ -6233,9 +6835,9 @@
       <c r="AM11" s="78"/>
     </row>
     <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="347"/>
-      <c r="B12" s="348"/>
-      <c r="C12" s="349"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="405"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="243" t="s">
         <v>65</v>
       </c>
@@ -6276,9 +6878,9 @@
       <c r="AM12" s="78"/>
     </row>
     <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="347"/>
-      <c r="B13" s="348"/>
-      <c r="C13" s="349"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="405"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="243" t="s">
         <v>66</v>
       </c>
@@ -6319,9 +6921,9 @@
       <c r="AM13" s="78"/>
     </row>
     <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="347"/>
-      <c r="B14" s="348"/>
-      <c r="C14" s="350"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="405"/>
+      <c r="C14" s="405"/>
       <c r="D14" s="243" t="s">
         <v>67</v>
       </c>
@@ -6362,9 +6964,9 @@
       <c r="AM14" s="78"/>
     </row>
     <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="347"/>
-      <c r="B15" s="348"/>
-      <c r="C15" s="346" t="s">
+      <c r="A15" s="404"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="468" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="243" t="s">
@@ -6407,9 +7009,9 @@
       <c r="AM15" s="78"/>
     </row>
     <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="351"/>
-      <c r="B16" s="348"/>
-      <c r="C16" s="349"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="469"/>
       <c r="D16" s="243" t="s">
         <v>40</v>
       </c>
@@ -6450,9 +7052,9 @@
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="351"/>
-      <c r="B17" s="348"/>
-      <c r="C17" s="349"/>
+      <c r="A17" s="406"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="469"/>
       <c r="D17" s="243" t="s">
         <v>41</v>
       </c>
@@ -6493,9 +7095,9 @@
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="351"/>
-      <c r="B18" s="348"/>
-      <c r="C18" s="349"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="469"/>
       <c r="D18" s="243" t="s">
         <v>42</v>
       </c>
@@ -6536,11 +7138,11 @@
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="351"/>
-      <c r="B19" s="348"/>
-      <c r="C19" s="349"/>
+      <c r="A19" s="406"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="469"/>
       <c r="D19" s="243" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="13"/>
@@ -6579,13 +7181,13 @@
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="351"/>
-      <c r="B20" s="348"/>
-      <c r="C20" s="349"/>
+      <c r="A20" s="406"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="469"/>
       <c r="D20" s="243" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
@@ -6622,14 +7224,14 @@
       <c r="AM20" s="33"/>
     </row>
     <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="352"/>
-      <c r="B21" s="348"/>
-      <c r="C21" s="349"/>
+      <c r="A21" s="407"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="469"/>
       <c r="D21" s="243" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -6665,14 +7267,14 @@
       <c r="AM21" s="33"/>
     </row>
     <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="352"/>
-      <c r="B22" s="348"/>
-      <c r="C22" s="349"/>
+      <c r="A22" s="407"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="469"/>
       <c r="D22" s="243" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E22" s="35"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -6708,14 +7310,14 @@
       <c r="AM22" s="33"/>
     </row>
     <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="352"/>
-      <c r="B23" s="353"/>
-      <c r="C23" s="354"/>
+      <c r="A23" s="407"/>
+      <c r="B23" s="408"/>
+      <c r="C23" s="470"/>
       <c r="D23" s="243" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="35"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -6750,15 +7352,15 @@
       <c r="AL23" s="15"/>
       <c r="AM23" s="33"/>
     </row>
-    <row r="24" spans="1:39" ht="17.100000">
-      <c r="A24" s="335"/>
-      <c r="B24" s="336"/>
-      <c r="C24" s="337"/>
+    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A24" s="407"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="470"/>
       <c r="D24" s="243" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E24" s="35"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -6793,22 +7395,22 @@
       <c r="AL24" s="15"/>
       <c r="AM24" s="33"/>
     </row>
-    <row r="25" spans="1:39" ht="17.100000">
-      <c r="A25" s="335"/>
-      <c r="B25" s="336"/>
-      <c r="C25" s="337"/>
+    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A25" s="407"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="470"/>
       <c r="D25" s="243" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
-      <c r="E25" s="365"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="363"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="13"/>
       <c r="O25" s="14"/>
       <c r="P25" s="15"/>
@@ -6837,27 +7439,27 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="351"/>
-      <c r="B26" s="355"/>
-      <c r="C26" s="356"/>
+      <c r="A26" s="406"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="471"/>
       <c r="D26" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="365"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="40"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="41"/>
       <c r="U26" s="42"/>
       <c r="V26" s="41"/>
@@ -6880,29 +7482,27 @@
       <c r="AM26" s="33"/>
     </row>
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="352"/>
-      <c r="B27" s="348"/>
-      <c r="C27" s="346" t="s">
-        <v>38</v>
+      <c r="A27" s="407"/>
+      <c r="B27" s="405"/>
+      <c r="C27" s="472"/>
+      <c r="D27" s="243" t="s">
+        <v>70</v>
       </c>
-      <c r="D27" s="243" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="364"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="40"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="363"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="42"/>
       <c r="T27" s="41"/>
       <c r="U27" s="42"/>
       <c r="V27" s="41"/>
@@ -6925,17 +7525,17 @@
       <c r="AM27" s="33"/>
     </row>
     <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="352"/>
-      <c r="B28" s="348"/>
-      <c r="C28" s="349"/>
+      <c r="A28" s="407"/>
+      <c r="B28" s="405"/>
+      <c r="C28" s="473"/>
       <c r="D28" s="243" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="38"/>
       <c r="K28" s="37"/>
       <c r="L28" s="38"/>
@@ -6968,20 +7568,24 @@
       <c r="AM28" s="33"/>
     </row>
     <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="352"/>
-      <c r="B29" s="348"/>
-      <c r="C29" s="349"/>
+      <c r="A29" s="407"/>
+      <c r="B29" s="405"/>
+      <c r="C29" s="468" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="243" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="38"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
+      <c r="L29" s="38">
+        <v>4</v>
+      </c>
       <c r="M29" s="39"/>
       <c r="N29" s="36"/>
       <c r="O29" s="37"/>
@@ -7011,17 +7615,17 @@
       <c r="AM29" s="33"/>
     </row>
     <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="352"/>
-      <c r="B30" s="348"/>
-      <c r="C30" s="349"/>
+      <c r="A30" s="407"/>
+      <c r="B30" s="405"/>
+      <c r="C30" s="469"/>
       <c r="D30" s="243" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="38"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
@@ -7054,17 +7658,17 @@
       <c r="AM30" s="33"/>
     </row>
     <row r="31" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A31" s="352"/>
-      <c r="B31" s="348"/>
-      <c r="C31" s="349"/>
+      <c r="A31" s="407"/>
+      <c r="B31" s="405"/>
+      <c r="C31" s="469"/>
       <c r="D31" s="243" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="38"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
@@ -7097,17 +7701,17 @@
       <c r="AM31" s="33"/>
     </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A32" s="352"/>
-      <c r="B32" s="348"/>
-      <c r="C32" s="349"/>
+      <c r="A32" s="407"/>
+      <c r="B32" s="405"/>
+      <c r="C32" s="469"/>
       <c r="D32" s="243" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="38"/>
       <c r="K32" s="37"/>
       <c r="L32" s="38"/>
@@ -7140,17 +7744,17 @@
       <c r="AM32" s="33"/>
     </row>
     <row r="33" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A33" s="352"/>
-      <c r="B33" s="357"/>
-      <c r="C33" s="358"/>
+      <c r="A33" s="407"/>
+      <c r="B33" s="404"/>
+      <c r="C33" s="474"/>
       <c r="D33" s="243" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="38"/>
       <c r="K33" s="37"/>
       <c r="L33" s="38"/>
@@ -7183,11 +7787,11 @@
       <c r="AM33" s="33"/>
     </row>
     <row r="34" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A34" s="352"/>
-      <c r="B34" s="348"/>
-      <c r="C34" s="349"/>
+      <c r="A34" s="407"/>
+      <c r="B34" s="405"/>
+      <c r="C34" s="469"/>
       <c r="D34" s="243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
@@ -7226,11 +7830,11 @@
       <c r="AM34" s="33"/>
     </row>
     <row r="35" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A35" s="352"/>
-      <c r="B35" s="348"/>
-      <c r="C35" s="349"/>
+      <c r="A35" s="407"/>
+      <c r="B35" s="405"/>
+      <c r="C35" s="469"/>
       <c r="D35" s="243" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
@@ -7269,13 +7873,13 @@
       <c r="AM35" s="33"/>
     </row>
     <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="352"/>
-      <c r="B36" s="348"/>
-      <c r="C36" s="349"/>
+      <c r="A36" s="407"/>
+      <c r="B36" s="405"/>
+      <c r="C36" s="469"/>
       <c r="D36" s="243" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
-      <c r="E36" s="86"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
       <c r="H36" s="38"/>
@@ -7312,11 +7916,11 @@
       <c r="AM36" s="33"/>
     </row>
     <row r="37" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A37" s="359"/>
-      <c r="B37" s="360"/>
-      <c r="C37" s="350"/>
+      <c r="A37" s="404"/>
+      <c r="B37" s="405"/>
+      <c r="C37" s="469"/>
       <c r="D37" s="243" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
@@ -7355,17 +7959,13 @@
       <c r="AM37" s="33"/>
     </row>
     <row r="38" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A38" s="245" t="s">
-        <v>36</v>
+      <c r="A38" s="409"/>
+      <c r="B38" s="409"/>
+      <c r="C38" s="472"/>
+      <c r="D38" s="243" t="s">
+        <v>57</v>
       </c>
-      <c r="B38" s="246"/>
-      <c r="C38" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="243" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="86"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
       <c r="H38" s="38"/>
@@ -7402,112 +8002,128 @@
       <c r="AM38" s="33"/>
     </row>
     <row r="39" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A39" s="409"/>
+      <c r="B39" s="409"/>
+      <c r="C39" s="475"/>
+      <c r="D39" s="243" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="33"/>
     </row>
     <row r="40" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A40" s="245" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="246"/>
+      <c r="C40" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="243" t="s">
+        <v>59</v>
+      </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="33"/>
     </row>
     <row r="41" spans="1:49" ht="18.000000" customHeight="1">
-      <c r="D41" s="5"/>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D42" s="8"/>
       <c r="E42" s="35"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="35"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
@@ -7520,41 +8136,40 @@
       <c r="AW43" s="1"/>
     </row>
     <row r="44" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
@@ -7567,41 +8182,42 @@
       <c r="AW44" s="1"/>
     </row>
     <row r="45" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="10"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
@@ -7612,8 +8228,7 @@
       <c r="AU45" s="10"/>
     </row>
     <row r="46" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D46" s="10"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="4"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -7646,8 +8261,8 @@
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
@@ -7659,7 +8274,6 @@
     </row>
     <row r="47" spans="1:49" ht="20.100000" customHeight="1">
       <c r="D47" s="10"/>
-      <c r="E47" s="9"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -7703,7 +8317,39 @@
     </row>
     <row r="48" spans="1:49" ht="20.100000" customHeight="1">
       <c r="D48" s="10"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
@@ -7715,28 +8361,69 @@
       <c r="AT48" s="10"/>
       <c r="AU48" s="10"/>
     </row>
-    <row r="49" spans="4:5" ht="20.100000" customHeight="1">
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
+    <row r="49" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
     </row>
-    <row r="50" spans="4:5" ht="20.100000" customHeight="1">
-      <c r="E50" s="10"/>
+    <row r="50" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="D50" s="10"/>
+      <c r="E50" s="4"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
     </row>
-    <row r="51" spans="4:5" ht="20.100000" customHeight="1">
-      <c r="E51" s="10"/>
+    <row r="51" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="4:5" ht="20.100000" customHeight="1">
+    <row r="52" spans="4:39" ht="20.100000" customHeight="1">
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" ht="20.100000" customHeight="1">
+    <row r="53" spans="4:39" ht="20.100000" customHeight="1">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" ht="20.100000" customHeight="1"/>
-    <row r="55" ht="20.100000" customHeight="1"/>
+    <row r="54" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E55" s="10"/>
+    </row>
     <row r="56" ht="20.100000" customHeight="1"/>
     <row r="57" ht="20.100000" customHeight="1"/>
   </sheetData>
-  <mergeCells count="505">
+  <mergeCells count="509">
     <mergeCell ref="A1:AM5"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:E7"/>
@@ -7761,7 +8448,7 @@
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="A9:B37"/>
+    <mergeCell ref="A9:B39"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
@@ -7865,7 +8552,7 @@
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="C15:C28"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -7934,40 +8621,6 @@
     <mergeCell ref="AH18:AI18"/>
     <mergeCell ref="AJ18:AK18"/>
     <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="AL20:AM20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
@@ -8036,6 +8689,23 @@
     <mergeCell ref="AH24:AI24"/>
     <mergeCell ref="AJ24:AK24"/>
     <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
@@ -8053,7 +8723,8 @@
     <mergeCell ref="AH26:AI26"/>
     <mergeCell ref="AJ26:AK26"/>
     <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="C27:C37"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
@@ -8071,23 +8742,9 @@
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="AJ28:AK28"/>
     <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="C29:C39"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AJ29:AK29"/>
-    <mergeCell ref="AL29:AM29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
@@ -8224,7 +8881,6 @@
     <mergeCell ref="AH37:AI37"/>
     <mergeCell ref="AJ37:AK37"/>
     <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
@@ -8242,6 +8898,41 @@
     <mergeCell ref="AH38:AI38"/>
     <mergeCell ref="AJ38:AK38"/>
     <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AL40:AM40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId1"/>
+    <sheet name="프로젝트 개발 일정표 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표 (2)'!$A$1:$AM$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -23,8 +25,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>10월</t>
   </si>
@@ -310,13 +319,31 @@
   <si>
     <t>멘토링 후기 작성</t>
   </si>
+  <si>
+    <t>회원관리</t>
+  </si>
+  <si>
+    <t>멘토링</t>
+  </si>
+  <si>
+    <t>학교체험</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>웹 로그인</t>
+  </si>
+  <si>
+    <t>메타버스 로그인</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -601,22 +628,17 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="돋움"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <name val="배달의민족 한나는 열한살"/>
       <color rgb="FFFF0000"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <name val="배달의민족 한나는 열한살"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,30 +872,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="3" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="104">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1924,28 +1964,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1978,6 +1996,86 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2128,7 +2226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3468,12 +3566,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="14" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3603,201 +3695,201 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3819,38 +3911,296 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="42" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="43" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3931,7 +4281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8505190" y="2393315"/>
+          <a:off x="8499475" y="2389505"/>
           <a:ext cx="843915" cy="81915"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3993,7 +4343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6421755" y="2185670"/>
+          <a:off x="6416040" y="2181860"/>
           <a:ext cx="419100" cy="61595"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4055,7 +4405,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7259955" y="1975485"/>
+          <a:off x="7254240" y="1971675"/>
           <a:ext cx="419100" cy="67945"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4117,7 +4467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6837045" y="1754505"/>
+          <a:off x="6831330" y="1750695"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4179,7 +4529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5998845" y="1544955"/>
+          <a:off x="5993130" y="1541145"/>
           <a:ext cx="419100" cy="68580"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4241,7 +4591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5156200" y="1102360"/>
+          <a:off x="5150485" y="1098550"/>
           <a:ext cx="840740" cy="55245"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4303,7 +4653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5579745" y="1318260"/>
+          <a:off x="5574030" y="1314450"/>
           <a:ext cx="424815" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4365,7 +4715,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8928100" y="2626995"/>
+          <a:off x="8922385" y="2623185"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4427,7 +4777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9362440" y="2838450"/>
+          <a:off x="9356725" y="2834640"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4489,7 +4839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9349105" y="3712845"/>
+          <a:off x="9343390" y="3709035"/>
           <a:ext cx="419100" cy="65405"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4551,7 +4901,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9357360" y="3055620"/>
+          <a:off x="9351645" y="3051810"/>
           <a:ext cx="843280" cy="65405"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4613,7 +4963,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9776460" y="4370070"/>
+          <a:off x="9770745" y="4366260"/>
           <a:ext cx="419100" cy="64770"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4675,7 +5025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9776460" y="4152900"/>
+          <a:off x="9770745" y="4149090"/>
           <a:ext cx="829945" cy="53975"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4737,7 +5087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10608945" y="5228590"/>
+          <a:off x="10603230" y="5224780"/>
           <a:ext cx="419100" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4799,7 +5149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11016615" y="4581525"/>
+          <a:off x="11010900" y="4577715"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4861,7 +5211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11447145" y="3930015"/>
+          <a:off x="11441430" y="3926205"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4923,7 +5273,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8524875" y="5432425"/>
+          <a:off x="8519160" y="5428615"/>
           <a:ext cx="419100" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4985,7 +5335,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8928100" y="5655945"/>
+          <a:off x="8922385" y="5652135"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5047,7 +5397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8938260" y="5878830"/>
+          <a:off x="8932545" y="5875020"/>
           <a:ext cx="419100" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5109,7 +5459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9351645" y="6114415"/>
+          <a:off x="9345930" y="6110605"/>
           <a:ext cx="419100" cy="69850"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5171,7 +5521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9347200" y="6342380"/>
+          <a:off x="9341485" y="6338570"/>
           <a:ext cx="419100" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5233,7 +5583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9770745" y="6530340"/>
+          <a:off x="9765030" y="6526530"/>
           <a:ext cx="849630" cy="64135"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5295,7 +5645,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9775825" y="6762750"/>
+          <a:off x="9770110" y="6758940"/>
           <a:ext cx="852170" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5357,7 +5707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10204450" y="6960870"/>
+          <a:off x="10198735" y="6957060"/>
           <a:ext cx="404495" cy="71755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5419,7 +5769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8089900" y="7211695"/>
+          <a:off x="8084185" y="7207885"/>
           <a:ext cx="2505075" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5481,7 +5831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10185400" y="7419340"/>
+          <a:off x="10179685" y="7415530"/>
           <a:ext cx="828675" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5543,7 +5893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11033760" y="7616190"/>
+          <a:off x="11028045" y="7612380"/>
           <a:ext cx="424180" cy="54610"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5605,7 +5955,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10608945" y="7863205"/>
+          <a:off x="10603230" y="7859395"/>
           <a:ext cx="428625" cy="52070"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5667,7 +6017,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11016615" y="4798695"/>
+          <a:off x="11010900" y="4794885"/>
           <a:ext cx="419100" cy="66040"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5729,7 +6079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10600055" y="5022850"/>
+          <a:off x="10594340" y="5019040"/>
           <a:ext cx="419100" cy="62230"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5791,7 +6141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8926830" y="3494405"/>
+          <a:off x="8921115" y="3490595"/>
           <a:ext cx="419100" cy="67945"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -5853,7 +6203,1996 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8926830" y="3277235"/>
+          <a:off x="8921115" y="3273425"/>
+          <a:ext cx="419100" cy="60960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8499475" y="2389505"/>
+          <a:ext cx="843915" cy="81915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6416040" y="2181860"/>
+          <a:ext cx="419100" cy="61595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7254240" y="1971675"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6831330" y="1750695"/>
+          <a:ext cx="419100" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5993130" y="1541145"/>
+          <a:ext cx="419100" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1938655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5150485" y="1098550"/>
+          <a:ext cx="840740" cy="55245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5574030" y="1314450"/>
+          <a:ext cx="424815" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8922385" y="2623185"/>
+          <a:ext cx="419100" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9356725" y="2834640"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9343390" y="3709035"/>
+          <a:ext cx="419100" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9351645" y="3051810"/>
+          <a:ext cx="843280" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 31"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="4366260"/>
+          <a:ext cx="419100" cy="64770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="4149090"/>
+          <a:ext cx="829945" cy="53975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 33"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10603230" y="5224780"/>
+          <a:ext cx="419100" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4577715"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 35"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11441430" y="3926205"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8519160" y="5428615"/>
+          <a:ext cx="419100" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 37"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8922385" y="5652135"/>
+          <a:ext cx="419100" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8932545" y="5875020"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9345930" y="6110605"/>
+          <a:ext cx="419100" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9341485" y="6338570"/>
+          <a:ext cx="419100" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9765030" y="6526530"/>
+          <a:ext cx="849630" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770110" y="6758940"/>
+          <a:ext cx="852170" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 43"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10198735" y="6957060"/>
+          <a:ext cx="404495" cy="71755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8084185" y="7207885"/>
+          <a:ext cx="2505075" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 45"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10179685" y="7415530"/>
+          <a:ext cx="828675" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11028045" y="7612380"/>
+          <a:ext cx="424180" cy="54610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 47"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10603230" y="7859395"/>
+          <a:ext cx="428625" cy="52070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="95B3D7"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 48"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4794885"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 49"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10594340" y="5019040"/>
+          <a:ext cx="419100" cy="62230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 50"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8921115" y="3490595"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 51"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8921115" y="3273425"/>
           <a:ext cx="419100" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -6256,10 +8595,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AW55"/>
+  <dimension ref="A1:AW57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView topLeftCell="C1" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -6274,47 +8613,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="440" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="444"/>
-      <c r="E1" s="444"/>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
-      <c r="H1" s="444"/>
-      <c r="I1" s="444"/>
-      <c r="J1" s="444"/>
-      <c r="K1" s="444"/>
-      <c r="L1" s="444"/>
-      <c r="M1" s="444"/>
-      <c r="N1" s="444"/>
-      <c r="O1" s="444"/>
-      <c r="P1" s="444"/>
-      <c r="Q1" s="444"/>
-      <c r="R1" s="444"/>
-      <c r="S1" s="444"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="445"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="442"/>
+      <c r="S1" s="442"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="443"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
@@ -6327,45 +8666,45 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A2" s="443"/>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
-      <c r="J2" s="444"/>
-      <c r="K2" s="444"/>
-      <c r="L2" s="444"/>
-      <c r="M2" s="444"/>
-      <c r="N2" s="444"/>
-      <c r="O2" s="444"/>
-      <c r="P2" s="444"/>
-      <c r="Q2" s="444"/>
-      <c r="R2" s="444"/>
-      <c r="S2" s="444"/>
-      <c r="T2" s="445"/>
-      <c r="U2" s="445"/>
-      <c r="V2" s="445"/>
-      <c r="W2" s="445"/>
-      <c r="X2" s="445"/>
-      <c r="Y2" s="445"/>
-      <c r="Z2" s="445"/>
-      <c r="AA2" s="445"/>
-      <c r="AB2" s="445"/>
-      <c r="AC2" s="446"/>
-      <c r="AD2" s="446"/>
-      <c r="AE2" s="446"/>
-      <c r="AF2" s="446"/>
-      <c r="AG2" s="446"/>
-      <c r="AH2" s="447"/>
-      <c r="AI2" s="446"/>
-      <c r="AJ2" s="446"/>
-      <c r="AK2" s="446"/>
-      <c r="AL2" s="446"/>
-      <c r="AM2" s="446"/>
+      <c r="A2" s="441"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
+      <c r="K2" s="442"/>
+      <c r="L2" s="442"/>
+      <c r="M2" s="442"/>
+      <c r="N2" s="442"/>
+      <c r="O2" s="442"/>
+      <c r="P2" s="442"/>
+      <c r="Q2" s="442"/>
+      <c r="R2" s="442"/>
+      <c r="S2" s="442"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="443"/>
+      <c r="X2" s="443"/>
+      <c r="Y2" s="443"/>
+      <c r="Z2" s="443"/>
+      <c r="AA2" s="443"/>
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="444"/>
+      <c r="AD2" s="444"/>
+      <c r="AE2" s="444"/>
+      <c r="AF2" s="444"/>
+      <c r="AG2" s="444"/>
+      <c r="AH2" s="445"/>
+      <c r="AI2" s="444"/>
+      <c r="AJ2" s="444"/>
+      <c r="AK2" s="444"/>
+      <c r="AL2" s="444"/>
+      <c r="AM2" s="444"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
@@ -6378,45 +8717,45 @@
       <c r="AW2" s="1"/>
     </row>
     <row r="3" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A3" s="443"/>
-      <c r="B3" s="443"/>
-      <c r="C3" s="443"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
-      <c r="N3" s="445"/>
-      <c r="O3" s="445"/>
-      <c r="P3" s="445"/>
-      <c r="Q3" s="445"/>
-      <c r="R3" s="445"/>
-      <c r="S3" s="445"/>
-      <c r="T3" s="445"/>
-      <c r="U3" s="445"/>
-      <c r="V3" s="445"/>
-      <c r="W3" s="445"/>
-      <c r="X3" s="445"/>
-      <c r="Y3" s="445"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="445"/>
-      <c r="AC3" s="445"/>
-      <c r="AD3" s="445"/>
-      <c r="AE3" s="445"/>
-      <c r="AF3" s="445"/>
-      <c r="AG3" s="445"/>
-      <c r="AH3" s="445"/>
-      <c r="AI3" s="445"/>
-      <c r="AJ3" s="445"/>
-      <c r="AK3" s="445"/>
-      <c r="AL3" s="445"/>
-      <c r="AM3" s="445"/>
+      <c r="A3" s="441"/>
+      <c r="B3" s="441"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
+      <c r="M3" s="443"/>
+      <c r="N3" s="443"/>
+      <c r="O3" s="443"/>
+      <c r="P3" s="443"/>
+      <c r="Q3" s="443"/>
+      <c r="R3" s="443"/>
+      <c r="S3" s="443"/>
+      <c r="T3" s="443"/>
+      <c r="U3" s="443"/>
+      <c r="V3" s="443"/>
+      <c r="W3" s="443"/>
+      <c r="X3" s="443"/>
+      <c r="Y3" s="443"/>
+      <c r="Z3" s="443"/>
+      <c r="AA3" s="443"/>
+      <c r="AB3" s="443"/>
+      <c r="AC3" s="443"/>
+      <c r="AD3" s="443"/>
+      <c r="AE3" s="443"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="443"/>
+      <c r="AH3" s="443"/>
+      <c r="AI3" s="443"/>
+      <c r="AJ3" s="443"/>
+      <c r="AK3" s="443"/>
+      <c r="AL3" s="443"/>
+      <c r="AM3" s="443"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
@@ -6429,45 +8768,45 @@
       <c r="AW3" s="1"/>
     </row>
     <row r="4" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A4" s="442"/>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
-      <c r="I4" s="442"/>
-      <c r="J4" s="448"/>
-      <c r="K4" s="448"/>
-      <c r="L4" s="448"/>
-      <c r="M4" s="448"/>
-      <c r="N4" s="448"/>
-      <c r="O4" s="448"/>
-      <c r="P4" s="448"/>
-      <c r="Q4" s="448"/>
-      <c r="R4" s="448"/>
-      <c r="S4" s="448"/>
-      <c r="T4" s="448"/>
-      <c r="U4" s="448"/>
-      <c r="V4" s="448"/>
-      <c r="W4" s="448"/>
-      <c r="X4" s="448"/>
-      <c r="Y4" s="448"/>
-      <c r="Z4" s="448"/>
-      <c r="AA4" s="448"/>
-      <c r="AB4" s="448"/>
-      <c r="AC4" s="448"/>
-      <c r="AD4" s="448"/>
-      <c r="AE4" s="448"/>
-      <c r="AF4" s="448"/>
-      <c r="AG4" s="448"/>
-      <c r="AH4" s="448"/>
-      <c r="AI4" s="448"/>
-      <c r="AJ4" s="448"/>
-      <c r="AK4" s="448"/>
-      <c r="AL4" s="445"/>
-      <c r="AM4" s="445"/>
+      <c r="A4" s="440"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="440"/>
+      <c r="H4" s="440"/>
+      <c r="I4" s="440"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="446"/>
+      <c r="N4" s="446"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="446"/>
+      <c r="Q4" s="446"/>
+      <c r="R4" s="446"/>
+      <c r="S4" s="446"/>
+      <c r="T4" s="446"/>
+      <c r="U4" s="446"/>
+      <c r="V4" s="446"/>
+      <c r="W4" s="446"/>
+      <c r="X4" s="446"/>
+      <c r="Y4" s="446"/>
+      <c r="Z4" s="446"/>
+      <c r="AA4" s="446"/>
+      <c r="AB4" s="446"/>
+      <c r="AC4" s="446"/>
+      <c r="AD4" s="446"/>
+      <c r="AE4" s="446"/>
+      <c r="AF4" s="446"/>
+      <c r="AG4" s="446"/>
+      <c r="AH4" s="446"/>
+      <c r="AI4" s="446"/>
+      <c r="AJ4" s="446"/>
+      <c r="AK4" s="446"/>
+      <c r="AL4" s="443"/>
+      <c r="AM4" s="443"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
@@ -6480,45 +8819,45 @@
       <c r="AW4" s="1"/>
     </row>
     <row r="5" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A5" s="443"/>
-      <c r="B5" s="443"/>
-      <c r="C5" s="443"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="449"/>
-      <c r="G5" s="449"/>
-      <c r="H5" s="449"/>
-      <c r="I5" s="449"/>
-      <c r="J5" s="445"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="445"/>
-      <c r="M5" s="445"/>
-      <c r="N5" s="445"/>
-      <c r="O5" s="445"/>
-      <c r="P5" s="445"/>
-      <c r="Q5" s="445"/>
-      <c r="R5" s="445"/>
-      <c r="S5" s="445"/>
-      <c r="T5" s="445"/>
-      <c r="U5" s="445"/>
-      <c r="V5" s="445"/>
-      <c r="W5" s="445"/>
-      <c r="X5" s="445"/>
-      <c r="Y5" s="445"/>
-      <c r="Z5" s="445"/>
-      <c r="AA5" s="445"/>
-      <c r="AB5" s="445"/>
-      <c r="AC5" s="445"/>
-      <c r="AD5" s="445"/>
-      <c r="AE5" s="445"/>
-      <c r="AF5" s="445"/>
-      <c r="AG5" s="445"/>
-      <c r="AH5" s="445"/>
-      <c r="AI5" s="445"/>
-      <c r="AJ5" s="445"/>
-      <c r="AK5" s="445"/>
-      <c r="AL5" s="445"/>
-      <c r="AM5" s="445"/>
+      <c r="A5" s="441"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="443"/>
+      <c r="K5" s="443"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="443"/>
+      <c r="N5" s="443"/>
+      <c r="O5" s="443"/>
+      <c r="P5" s="443"/>
+      <c r="Q5" s="443"/>
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="U5" s="443"/>
+      <c r="V5" s="443"/>
+      <c r="W5" s="443"/>
+      <c r="X5" s="443"/>
+      <c r="Y5" s="443"/>
+      <c r="Z5" s="443"/>
+      <c r="AA5" s="443"/>
+      <c r="AB5" s="443"/>
+      <c r="AC5" s="443"/>
+      <c r="AD5" s="443"/>
+      <c r="AE5" s="443"/>
+      <c r="AF5" s="443"/>
+      <c r="AG5" s="443"/>
+      <c r="AH5" s="443"/>
+      <c r="AI5" s="443"/>
+      <c r="AJ5" s="443"/>
+      <c r="AK5" s="443"/>
+      <c r="AL5" s="443"/>
+      <c r="AM5" s="443"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -6531,45 +8870,45 @@
       <c r="AW5" s="1"/>
     </row>
     <row r="6" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A6" s="450"/>
-      <c r="B6" s="450"/>
-      <c r="C6" s="450"/>
-      <c r="D6" s="451"/>
-      <c r="E6" s="451"/>
-      <c r="F6" s="451"/>
-      <c r="G6" s="451"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="451"/>
-      <c r="J6" s="451"/>
-      <c r="K6" s="451"/>
-      <c r="L6" s="451"/>
-      <c r="M6" s="451"/>
-      <c r="N6" s="451"/>
-      <c r="O6" s="451"/>
-      <c r="P6" s="451"/>
-      <c r="Q6" s="451"/>
-      <c r="R6" s="451"/>
-      <c r="S6" s="451"/>
-      <c r="T6" s="451"/>
-      <c r="U6" s="451"/>
-      <c r="V6" s="451"/>
-      <c r="W6" s="451"/>
-      <c r="X6" s="451"/>
-      <c r="Y6" s="451"/>
-      <c r="Z6" s="451"/>
-      <c r="AA6" s="454"/>
-      <c r="AB6" s="451"/>
-      <c r="AC6" s="451"/>
-      <c r="AD6" s="451"/>
-      <c r="AE6" s="451"/>
-      <c r="AF6" s="451"/>
-      <c r="AG6" s="451"/>
-      <c r="AH6" s="451"/>
-      <c r="AI6" s="451"/>
-      <c r="AJ6" s="451"/>
-      <c r="AK6" s="454"/>
-      <c r="AL6" s="454"/>
-      <c r="AM6" s="455"/>
+      <c r="A6" s="448"/>
+      <c r="B6" s="448"/>
+      <c r="C6" s="448"/>
+      <c r="D6" s="449"/>
+      <c r="E6" s="449"/>
+      <c r="F6" s="449"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="449"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="449"/>
+      <c r="L6" s="449"/>
+      <c r="M6" s="449"/>
+      <c r="N6" s="449"/>
+      <c r="O6" s="449"/>
+      <c r="P6" s="449"/>
+      <c r="Q6" s="449"/>
+      <c r="R6" s="449"/>
+      <c r="S6" s="449"/>
+      <c r="T6" s="449"/>
+      <c r="U6" s="449"/>
+      <c r="V6" s="449"/>
+      <c r="W6" s="449"/>
+      <c r="X6" s="449"/>
+      <c r="Y6" s="449"/>
+      <c r="Z6" s="449"/>
+      <c r="AA6" s="452"/>
+      <c r="AB6" s="449"/>
+      <c r="AC6" s="449"/>
+      <c r="AD6" s="449"/>
+      <c r="AE6" s="449"/>
+      <c r="AF6" s="449"/>
+      <c r="AG6" s="449"/>
+      <c r="AH6" s="449"/>
+      <c r="AI6" s="449"/>
+      <c r="AJ6" s="449"/>
+      <c r="AK6" s="452"/>
+      <c r="AL6" s="452"/>
+      <c r="AM6" s="453"/>
     </row>
     <row r="7" spans="1:49" ht="17.100000" customHeight="1">
       <c r="A7" s="220" t="s">
@@ -6577,57 +8916,57 @@
       </c>
       <c r="B7" s="221"/>
       <c r="C7" s="222"/>
-      <c r="D7" s="460" t="s">
+      <c r="D7" s="458" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="460" t="s">
+      <c r="E7" s="459"/>
+      <c r="F7" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
-      <c r="K7" s="461"/>
-      <c r="L7" s="461"/>
-      <c r="M7" s="460"/>
-      <c r="N7" s="460"/>
-      <c r="O7" s="460" t="s">
+      <c r="G7" s="459"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="459"/>
+      <c r="J7" s="459"/>
+      <c r="K7" s="459"/>
+      <c r="L7" s="459"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="458"/>
+      <c r="O7" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="461"/>
-      <c r="Q7" s="461"/>
-      <c r="R7" s="461"/>
-      <c r="S7" s="461"/>
-      <c r="T7" s="461"/>
-      <c r="U7" s="461"/>
-      <c r="V7" s="460"/>
-      <c r="W7" s="460"/>
-      <c r="X7" s="460" t="s">
+      <c r="P7" s="459"/>
+      <c r="Q7" s="459"/>
+      <c r="R7" s="459"/>
+      <c r="S7" s="459"/>
+      <c r="T7" s="459"/>
+      <c r="U7" s="459"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="461"/>
-      <c r="Z7" s="461"/>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
-      <c r="AG7" s="460" t="s">
+      <c r="Y7" s="459"/>
+      <c r="Z7" s="459"/>
+      <c r="AA7" s="459"/>
+      <c r="AB7" s="459"/>
+      <c r="AC7" s="459"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" s="461"/>
-      <c r="AI7" s="461"/>
-      <c r="AJ7" s="461"/>
-      <c r="AK7" s="461"/>
-      <c r="AL7" s="461"/>
-      <c r="AM7" s="461"/>
+      <c r="AH7" s="459"/>
+      <c r="AI7" s="459"/>
+      <c r="AJ7" s="459"/>
+      <c r="AK7" s="459"/>
+      <c r="AL7" s="459"/>
+      <c r="AM7" s="459"/>
     </row>
     <row r="8" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A8" s="411"/>
-      <c r="B8" s="412"/>
-      <c r="C8" s="413"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="411"/>
       <c r="D8" s="56" t="s">
         <v>18</v>
       </c>
@@ -6702,11 +9041,11 @@
       <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="405"/>
-      <c r="C9" s="405" t="s">
+      <c r="B9" s="552"/>
+      <c r="C9" s="403" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="243" t="s">
@@ -6749,9 +9088,9 @@
       <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="404"/>
-      <c r="B10" s="405"/>
-      <c r="C10" s="405"/>
+      <c r="A10" s="553"/>
+      <c r="B10" s="554"/>
+      <c r="C10" s="403"/>
       <c r="D10" s="243" t="s">
         <v>63</v>
       </c>
@@ -6792,9 +9131,9 @@
       <c r="AM10" s="78"/>
     </row>
     <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="404"/>
-      <c r="B11" s="405"/>
-      <c r="C11" s="405"/>
+      <c r="A11" s="553"/>
+      <c r="B11" s="554"/>
+      <c r="C11" s="403"/>
       <c r="D11" s="243" t="s">
         <v>64</v>
       </c>
@@ -6835,9 +9174,9 @@
       <c r="AM11" s="78"/>
     </row>
     <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="404"/>
-      <c r="B12" s="405"/>
-      <c r="C12" s="405"/>
+      <c r="A12" s="553"/>
+      <c r="B12" s="554"/>
+      <c r="C12" s="403"/>
       <c r="D12" s="243" t="s">
         <v>65</v>
       </c>
@@ -6878,9 +9217,9 @@
       <c r="AM12" s="78"/>
     </row>
     <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="404"/>
-      <c r="B13" s="405"/>
-      <c r="C13" s="405"/>
+      <c r="A13" s="553"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="403"/>
       <c r="D13" s="243" t="s">
         <v>66</v>
       </c>
@@ -6921,9 +9260,9 @@
       <c r="AM13" s="78"/>
     </row>
     <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="404"/>
-      <c r="B14" s="405"/>
-      <c r="C14" s="405"/>
+      <c r="A14" s="553"/>
+      <c r="B14" s="554"/>
+      <c r="C14" s="403"/>
       <c r="D14" s="243" t="s">
         <v>67</v>
       </c>
@@ -6964,9 +9303,2706 @@
       <c r="AM14" s="78"/>
     </row>
     <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="404"/>
-      <c r="B15" s="405"/>
-      <c r="C15" s="468" t="s">
+      <c r="A15" s="553"/>
+      <c r="B15" s="555"/>
+      <c r="C15" s="475" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="243" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="78"/>
+    </row>
+    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A16" s="556"/>
+      <c r="B16" s="557"/>
+      <c r="C16" s="475"/>
+      <c r="D16" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="33"/>
+    </row>
+    <row r="17" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A17" s="556"/>
+      <c r="B17" s="557"/>
+      <c r="C17" s="475"/>
+      <c r="D17" s="243" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="33"/>
+    </row>
+    <row r="18" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A18" s="556"/>
+      <c r="B18" s="557"/>
+      <c r="C18" s="475"/>
+      <c r="D18" s="243" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A19" s="556"/>
+      <c r="B19" s="557"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="243" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="33"/>
+    </row>
+    <row r="20" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A20" s="556"/>
+      <c r="B20" s="557"/>
+      <c r="C20" s="475"/>
+      <c r="D20" s="243" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="33"/>
+    </row>
+    <row r="21" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A21" s="558"/>
+      <c r="B21" s="557"/>
+      <c r="C21" s="475"/>
+      <c r="D21" s="243" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="33"/>
+    </row>
+    <row r="22" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A22" s="558"/>
+      <c r="B22" s="557"/>
+      <c r="C22" s="475"/>
+      <c r="D22" s="243" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="33"/>
+    </row>
+    <row r="23" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A23" s="558"/>
+      <c r="B23" s="559"/>
+      <c r="C23" s="479" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="33"/>
+    </row>
+    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A24" s="558"/>
+      <c r="B24" s="559"/>
+      <c r="C24" s="479"/>
+      <c r="D24" s="243" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="33"/>
+    </row>
+    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A25" s="558"/>
+      <c r="B25" s="559"/>
+      <c r="C25" s="480"/>
+      <c r="D25" s="243" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="33"/>
+    </row>
+    <row r="26" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A26" s="556"/>
+      <c r="B26" s="559"/>
+      <c r="C26" s="480"/>
+      <c r="D26" s="243" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="33"/>
+    </row>
+    <row r="27" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A27" s="558"/>
+      <c r="B27" s="559"/>
+      <c r="C27" s="480"/>
+      <c r="D27" s="243" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="363"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="33"/>
+    </row>
+    <row r="28" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A28" s="558"/>
+      <c r="B28" s="557"/>
+      <c r="C28" s="481"/>
+      <c r="D28" s="243" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="33"/>
+    </row>
+    <row r="29" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A29" s="558"/>
+      <c r="B29" s="559"/>
+      <c r="C29" s="479"/>
+      <c r="D29" s="243" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38">
+        <v>4</v>
+      </c>
+      <c r="M29" s="39"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="33"/>
+    </row>
+    <row r="30" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A30" s="558"/>
+      <c r="B30" s="559"/>
+      <c r="C30" s="483" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="33"/>
+    </row>
+    <row r="31" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A31" s="558"/>
+      <c r="B31" s="559"/>
+      <c r="C31" s="483"/>
+      <c r="D31" s="243" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="33"/>
+    </row>
+    <row r="32" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A32" s="558"/>
+      <c r="B32" s="559"/>
+      <c r="C32" s="483"/>
+      <c r="D32" s="243" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="33"/>
+    </row>
+    <row r="33" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A33" s="558"/>
+      <c r="B33" s="559"/>
+      <c r="C33" s="483"/>
+      <c r="D33" s="243" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="33"/>
+    </row>
+    <row r="34" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A34" s="558"/>
+      <c r="B34" s="559"/>
+      <c r="C34" s="483"/>
+      <c r="D34" s="243" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="33"/>
+    </row>
+    <row r="35" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A35" s="558"/>
+      <c r="B35" s="559"/>
+      <c r="C35" s="484"/>
+      <c r="D35" s="243" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="33"/>
+    </row>
+    <row r="36" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A36" s="558"/>
+      <c r="B36" s="559"/>
+      <c r="C36" s="483"/>
+      <c r="D36" s="243" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="33"/>
+    </row>
+    <row r="37" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A37" s="553"/>
+      <c r="B37" s="559"/>
+      <c r="C37" s="483"/>
+      <c r="D37" s="243" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="33"/>
+    </row>
+    <row r="38" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A38" s="560"/>
+      <c r="B38" s="559"/>
+      <c r="C38" s="483"/>
+      <c r="D38" s="243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="33"/>
+    </row>
+    <row r="39" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A39" s="561"/>
+      <c r="B39" s="562"/>
+      <c r="C39" s="485" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="33"/>
+    </row>
+    <row r="40" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A40" s="505" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="506"/>
+      <c r="C40" s="487"/>
+      <c r="D40" s="243" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="33"/>
+    </row>
+    <row r="41" spans="1:49" ht="18.000000" customHeight="1">
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="E42" s="35"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+    </row>
+    <row r="43" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D43" s="5"/>
+      <c r="E43" s="35"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+    </row>
+    <row r="44" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D44" s="8"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+    </row>
+    <row r="45" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D45" s="4"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+    </row>
+    <row r="46" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+    </row>
+    <row r="47" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="D47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+    </row>
+    <row r="48" spans="1:49" ht="20.100000" customHeight="1">
+      <c r="D48" s="10"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+    </row>
+    <row r="49" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+    </row>
+    <row r="50" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="D50" s="10"/>
+      <c r="E50" s="4"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+    </row>
+    <row r="51" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="4:39" ht="20.100000" customHeight="1">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" ht="20.100000" customHeight="1"/>
+    <row r="57" ht="20.100000" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="511">
+    <mergeCell ref="A1:AM5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:W7"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="AG7:AM7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="A9:B39"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AL40:AM40"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.59" right="0.59" top="0.59" bottom="0.35" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AW57"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="2" max="2" width="6.22722218" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="19.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="57" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
+    <col min="58" max="58" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="59" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A1" s="440" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="442"/>
+      <c r="S1" s="442"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="443"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+    </row>
+    <row r="2" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A2" s="441"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
+      <c r="K2" s="442"/>
+      <c r="L2" s="442"/>
+      <c r="M2" s="442"/>
+      <c r="N2" s="442"/>
+      <c r="O2" s="442"/>
+      <c r="P2" s="442"/>
+      <c r="Q2" s="442"/>
+      <c r="R2" s="442"/>
+      <c r="S2" s="442"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="443"/>
+      <c r="X2" s="443"/>
+      <c r="Y2" s="443"/>
+      <c r="Z2" s="443"/>
+      <c r="AA2" s="443"/>
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="444"/>
+      <c r="AD2" s="444"/>
+      <c r="AE2" s="444"/>
+      <c r="AF2" s="444"/>
+      <c r="AG2" s="444"/>
+      <c r="AH2" s="445"/>
+      <c r="AI2" s="444"/>
+      <c r="AJ2" s="444"/>
+      <c r="AK2" s="444"/>
+      <c r="AL2" s="444"/>
+      <c r="AM2" s="444"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A3" s="441"/>
+      <c r="B3" s="441"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
+      <c r="M3" s="443"/>
+      <c r="N3" s="443"/>
+      <c r="O3" s="443"/>
+      <c r="P3" s="443"/>
+      <c r="Q3" s="443"/>
+      <c r="R3" s="443"/>
+      <c r="S3" s="443"/>
+      <c r="T3" s="443"/>
+      <c r="U3" s="443"/>
+      <c r="V3" s="443"/>
+      <c r="W3" s="443"/>
+      <c r="X3" s="443"/>
+      <c r="Y3" s="443"/>
+      <c r="Z3" s="443"/>
+      <c r="AA3" s="443"/>
+      <c r="AB3" s="443"/>
+      <c r="AC3" s="443"/>
+      <c r="AD3" s="443"/>
+      <c r="AE3" s="443"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="443"/>
+      <c r="AH3" s="443"/>
+      <c r="AI3" s="443"/>
+      <c r="AJ3" s="443"/>
+      <c r="AK3" s="443"/>
+      <c r="AL3" s="443"/>
+      <c r="AM3" s="443"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A4" s="440"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="440"/>
+      <c r="H4" s="440"/>
+      <c r="I4" s="440"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="446"/>
+      <c r="N4" s="446"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="446"/>
+      <c r="Q4" s="446"/>
+      <c r="R4" s="446"/>
+      <c r="S4" s="446"/>
+      <c r="T4" s="446"/>
+      <c r="U4" s="446"/>
+      <c r="V4" s="446"/>
+      <c r="W4" s="446"/>
+      <c r="X4" s="446"/>
+      <c r="Y4" s="446"/>
+      <c r="Z4" s="446"/>
+      <c r="AA4" s="446"/>
+      <c r="AB4" s="446"/>
+      <c r="AC4" s="446"/>
+      <c r="AD4" s="446"/>
+      <c r="AE4" s="446"/>
+      <c r="AF4" s="446"/>
+      <c r="AG4" s="446"/>
+      <c r="AH4" s="446"/>
+      <c r="AI4" s="446"/>
+      <c r="AJ4" s="446"/>
+      <c r="AK4" s="446"/>
+      <c r="AL4" s="443"/>
+      <c r="AM4" s="443"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A5" s="441"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="443"/>
+      <c r="K5" s="443"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="443"/>
+      <c r="N5" s="443"/>
+      <c r="O5" s="443"/>
+      <c r="P5" s="443"/>
+      <c r="Q5" s="443"/>
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="U5" s="443"/>
+      <c r="V5" s="443"/>
+      <c r="W5" s="443"/>
+      <c r="X5" s="443"/>
+      <c r="Y5" s="443"/>
+      <c r="Z5" s="443"/>
+      <c r="AA5" s="443"/>
+      <c r="AB5" s="443"/>
+      <c r="AC5" s="443"/>
+      <c r="AD5" s="443"/>
+      <c r="AE5" s="443"/>
+      <c r="AF5" s="443"/>
+      <c r="AG5" s="443"/>
+      <c r="AH5" s="443"/>
+      <c r="AI5" s="443"/>
+      <c r="AJ5" s="443"/>
+      <c r="AK5" s="443"/>
+      <c r="AL5" s="443"/>
+      <c r="AM5" s="443"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A6" s="448"/>
+      <c r="B6" s="448"/>
+      <c r="C6" s="448"/>
+      <c r="D6" s="449"/>
+      <c r="E6" s="449"/>
+      <c r="F6" s="449"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="449"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="449"/>
+      <c r="L6" s="449"/>
+      <c r="M6" s="449"/>
+      <c r="N6" s="449"/>
+      <c r="O6" s="449"/>
+      <c r="P6" s="449"/>
+      <c r="Q6" s="449"/>
+      <c r="R6" s="449"/>
+      <c r="S6" s="449"/>
+      <c r="T6" s="449"/>
+      <c r="U6" s="449"/>
+      <c r="V6" s="449"/>
+      <c r="W6" s="449"/>
+      <c r="X6" s="449"/>
+      <c r="Y6" s="449"/>
+      <c r="Z6" s="449"/>
+      <c r="AA6" s="452"/>
+      <c r="AB6" s="449"/>
+      <c r="AC6" s="449"/>
+      <c r="AD6" s="449"/>
+      <c r="AE6" s="449"/>
+      <c r="AF6" s="449"/>
+      <c r="AG6" s="449"/>
+      <c r="AH6" s="449"/>
+      <c r="AI6" s="449"/>
+      <c r="AJ6" s="449"/>
+      <c r="AK6" s="452"/>
+      <c r="AL6" s="452"/>
+      <c r="AM6" s="453"/>
+    </row>
+    <row r="7" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A7" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="221"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="458" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="459"/>
+      <c r="F7" s="458" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="459"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="459"/>
+      <c r="J7" s="459"/>
+      <c r="K7" s="459"/>
+      <c r="L7" s="459"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="458"/>
+      <c r="O7" s="458" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="459"/>
+      <c r="Q7" s="459"/>
+      <c r="R7" s="459"/>
+      <c r="S7" s="459"/>
+      <c r="T7" s="459"/>
+      <c r="U7" s="459"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="459"/>
+      <c r="Z7" s="459"/>
+      <c r="AA7" s="459"/>
+      <c r="AB7" s="459"/>
+      <c r="AC7" s="459"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH7" s="459"/>
+      <c r="AI7" s="459"/>
+      <c r="AJ7" s="459"/>
+      <c r="AK7" s="459"/>
+      <c r="AL7" s="459"/>
+      <c r="AM7" s="459"/>
+    </row>
+    <row r="8" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A8" s="409"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="130">
+        <v>1</v>
+      </c>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132">
+        <v>2</v>
+      </c>
+      <c r="I8" s="133"/>
+      <c r="J8" s="132">
+        <v>3</v>
+      </c>
+      <c r="K8" s="133"/>
+      <c r="L8" s="132">
+        <v>4</v>
+      </c>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="133"/>
+      <c r="P8" s="132">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="132">
+        <v>3</v>
+      </c>
+      <c r="S8" s="65"/>
+      <c r="T8" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="137"/>
+      <c r="V8" s="135">
+        <v>5</v>
+      </c>
+      <c r="W8" s="133"/>
+      <c r="X8" s="135">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="135">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="135">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="135">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="135">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="135">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="133"/>
+      <c r="AL8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="67"/>
+    </row>
+    <row r="9" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A9" s="402" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="403"/>
+      <c r="C9" s="403" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="78"/>
+    </row>
+    <row r="10" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A10" s="402"/>
+      <c r="B10" s="403"/>
+      <c r="C10" s="403"/>
+      <c r="D10" s="243" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="78"/>
+    </row>
+    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A11" s="402"/>
+      <c r="B11" s="403"/>
+      <c r="C11" s="403"/>
+      <c r="D11" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="78"/>
+    </row>
+    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A12" s="402"/>
+      <c r="B12" s="403"/>
+      <c r="C12" s="403"/>
+      <c r="D12" s="243" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="78"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A13" s="402"/>
+      <c r="B13" s="403"/>
+      <c r="C13" s="403"/>
+      <c r="D13" s="243" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="78"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A14" s="402"/>
+      <c r="B14" s="403"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="243" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="78"/>
+    </row>
+    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A15" s="402"/>
+      <c r="B15" s="403"/>
+      <c r="C15" s="466" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="243" t="s">
@@ -7009,9 +12045,9 @@
       <c r="AM15" s="78"/>
     </row>
     <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="406"/>
-      <c r="B16" s="405"/>
-      <c r="C16" s="469"/>
+      <c r="A16" s="404"/>
+      <c r="B16" s="403"/>
+      <c r="C16" s="467"/>
       <c r="D16" s="243" t="s">
         <v>40</v>
       </c>
@@ -7052,9 +12088,9 @@
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="406"/>
-      <c r="B17" s="405"/>
-      <c r="C17" s="469"/>
+      <c r="A17" s="404"/>
+      <c r="B17" s="403"/>
+      <c r="C17" s="467"/>
       <c r="D17" s="243" t="s">
         <v>41</v>
       </c>
@@ -7095,9 +12131,9 @@
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="406"/>
-      <c r="B18" s="405"/>
-      <c r="C18" s="469"/>
+      <c r="A18" s="404"/>
+      <c r="B18" s="403"/>
+      <c r="C18" s="467"/>
       <c r="D18" s="243" t="s">
         <v>42</v>
       </c>
@@ -7138,9 +12174,9 @@
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="406"/>
-      <c r="B19" s="405"/>
-      <c r="C19" s="469"/>
+      <c r="A19" s="404"/>
+      <c r="B19" s="403"/>
+      <c r="C19" s="467"/>
       <c r="D19" s="243" t="s">
         <v>71</v>
       </c>
@@ -7181,9 +12217,9 @@
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="406"/>
-      <c r="B20" s="405"/>
-      <c r="C20" s="469"/>
+      <c r="A20" s="404"/>
+      <c r="B20" s="403"/>
+      <c r="C20" s="467"/>
       <c r="D20" s="243" t="s">
         <v>72</v>
       </c>
@@ -7224,9 +12260,9 @@
       <c r="AM20" s="33"/>
     </row>
     <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="407"/>
-      <c r="B21" s="405"/>
-      <c r="C21" s="469"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="403"/>
+      <c r="C21" s="467"/>
       <c r="D21" s="243" t="s">
         <v>73</v>
       </c>
@@ -7267,9 +12303,9 @@
       <c r="AM21" s="33"/>
     </row>
     <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="407"/>
-      <c r="B22" s="405"/>
-      <c r="C22" s="469"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="403"/>
+      <c r="C22" s="467"/>
       <c r="D22" s="243" t="s">
         <v>74</v>
       </c>
@@ -7310,9 +12346,9 @@
       <c r="AM22" s="33"/>
     </row>
     <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="407"/>
-      <c r="B23" s="408"/>
-      <c r="C23" s="470"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="406"/>
+      <c r="C23" s="468"/>
       <c r="D23" s="243" t="s">
         <v>45</v>
       </c>
@@ -7353,9 +12389,9 @@
       <c r="AM23" s="33"/>
     </row>
     <row r="24" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A24" s="407"/>
-      <c r="B24" s="408"/>
-      <c r="C24" s="470"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="406"/>
+      <c r="C24" s="468"/>
       <c r="D24" s="243" t="s">
         <v>46</v>
       </c>
@@ -7396,9 +12432,9 @@
       <c r="AM24" s="33"/>
     </row>
     <row r="25" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A25" s="407"/>
-      <c r="B25" s="408"/>
-      <c r="C25" s="470"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="468"/>
       <c r="D25" s="243" t="s">
         <v>47</v>
       </c>
@@ -7439,9 +12475,9 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="406"/>
-      <c r="B26" s="406"/>
-      <c r="C26" s="471"/>
+      <c r="A26" s="404"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="469"/>
       <c r="D26" s="243" t="s">
         <v>48</v>
       </c>
@@ -7482,9 +12518,9 @@
       <c r="AM26" s="33"/>
     </row>
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="407"/>
-      <c r="B27" s="405"/>
-      <c r="C27" s="472"/>
+      <c r="A27" s="405"/>
+      <c r="B27" s="403"/>
+      <c r="C27" s="470"/>
       <c r="D27" s="243" t="s">
         <v>70</v>
       </c>
@@ -7525,9 +12561,9 @@
       <c r="AM27" s="33"/>
     </row>
     <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="407"/>
-      <c r="B28" s="405"/>
-      <c r="C28" s="473"/>
+      <c r="A28" s="405"/>
+      <c r="B28" s="403"/>
+      <c r="C28" s="471"/>
       <c r="D28" s="243" t="s">
         <v>69</v>
       </c>
@@ -7568,9 +12604,9 @@
       <c r="AM28" s="33"/>
     </row>
     <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="407"/>
-      <c r="B29" s="405"/>
-      <c r="C29" s="468" t="s">
+      <c r="A29" s="405"/>
+      <c r="B29" s="403"/>
+      <c r="C29" s="466" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="243" t="s">
@@ -7615,9 +12651,9 @@
       <c r="AM29" s="33"/>
     </row>
     <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="407"/>
-      <c r="B30" s="405"/>
-      <c r="C30" s="469"/>
+      <c r="A30" s="405"/>
+      <c r="B30" s="403"/>
+      <c r="C30" s="467"/>
       <c r="D30" s="243" t="s">
         <v>49</v>
       </c>
@@ -7658,9 +12694,9 @@
       <c r="AM30" s="33"/>
     </row>
     <row r="31" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A31" s="407"/>
-      <c r="B31" s="405"/>
-      <c r="C31" s="469"/>
+      <c r="A31" s="405"/>
+      <c r="B31" s="403"/>
+      <c r="C31" s="467"/>
       <c r="D31" s="243" t="s">
         <v>50</v>
       </c>
@@ -7701,9 +12737,9 @@
       <c r="AM31" s="33"/>
     </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A32" s="407"/>
-      <c r="B32" s="405"/>
-      <c r="C32" s="469"/>
+      <c r="A32" s="405"/>
+      <c r="B32" s="403"/>
+      <c r="C32" s="467"/>
       <c r="D32" s="243" t="s">
         <v>51</v>
       </c>
@@ -7744,9 +12780,9 @@
       <c r="AM32" s="33"/>
     </row>
     <row r="33" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A33" s="407"/>
-      <c r="B33" s="404"/>
-      <c r="C33" s="474"/>
+      <c r="A33" s="405"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="472"/>
       <c r="D33" s="243" t="s">
         <v>52</v>
       </c>
@@ -7787,9 +12823,9 @@
       <c r="AM33" s="33"/>
     </row>
     <row r="34" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A34" s="407"/>
-      <c r="B34" s="405"/>
-      <c r="C34" s="469"/>
+      <c r="A34" s="405"/>
+      <c r="B34" s="403"/>
+      <c r="C34" s="467"/>
       <c r="D34" s="243" t="s">
         <v>53</v>
       </c>
@@ -7830,9 +12866,9 @@
       <c r="AM34" s="33"/>
     </row>
     <row r="35" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A35" s="407"/>
-      <c r="B35" s="405"/>
-      <c r="C35" s="469"/>
+      <c r="A35" s="405"/>
+      <c r="B35" s="403"/>
+      <c r="C35" s="467"/>
       <c r="D35" s="243" t="s">
         <v>54</v>
       </c>
@@ -7873,9 +12909,9 @@
       <c r="AM35" s="33"/>
     </row>
     <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="407"/>
-      <c r="B36" s="405"/>
-      <c r="C36" s="469"/>
+      <c r="A36" s="405"/>
+      <c r="B36" s="403"/>
+      <c r="C36" s="467"/>
       <c r="D36" s="243" t="s">
         <v>55</v>
       </c>
@@ -7916,9 +12952,9 @@
       <c r="AM36" s="33"/>
     </row>
     <row r="37" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A37" s="404"/>
-      <c r="B37" s="405"/>
-      <c r="C37" s="469"/>
+      <c r="A37" s="402"/>
+      <c r="B37" s="403"/>
+      <c r="C37" s="467"/>
       <c r="D37" s="243" t="s">
         <v>56</v>
       </c>
@@ -7959,9 +12995,9 @@
       <c r="AM37" s="33"/>
     </row>
     <row r="38" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A38" s="409"/>
-      <c r="B38" s="409"/>
-      <c r="C38" s="472"/>
+      <c r="A38" s="407"/>
+      <c r="B38" s="407"/>
+      <c r="C38" s="470"/>
       <c r="D38" s="243" t="s">
         <v>57</v>
       </c>
@@ -8002,9 +13038,9 @@
       <c r="AM38" s="33"/>
     </row>
     <row r="39" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A39" s="409"/>
-      <c r="B39" s="409"/>
-      <c r="C39" s="475"/>
+      <c r="A39" s="407"/>
+      <c r="B39" s="407"/>
+      <c r="C39" s="473"/>
       <c r="D39" s="243" t="s">
         <v>58</v>
       </c>
@@ -8229,6 +13265,7 @@
     </row>
     <row r="46" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>

--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,28 +4,19 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="프로젝트 개발 일정표 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="프로젝트 개발 일정표" sheetId="1" r:id="rId2"/>
+    <sheet name="프로젝트 개발 일정표" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표 (2)'!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors/>
   <commentList/>
@@ -638,7 +629,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,37 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2226,7 +2187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="546">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3938,103 +3899,91 @@
     <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="40" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="40" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="40" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="42" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="43" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="44" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="37" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4130,76 +4079,37 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="45" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4258,1995 +4168,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>201295</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8499475" y="2389505"/>
-          <a:ext cx="843915" cy="81915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 21"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6416040" y="2181860"/>
-          <a:ext cx="419100" cy="61595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 22"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7254240" y="1971675"/>
-          <a:ext cx="419100" cy="67945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 23"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6831330" y="1750695"/>
-          <a:ext cx="419100" cy="64135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 24"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5993130" y="1541145"/>
-          <a:ext cx="419100" cy="68580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1938655</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 25"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5150485" y="1098550"/>
-          <a:ext cx="840740" cy="55245"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 26"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5574030" y="1314450"/>
-          <a:ext cx="424815" cy="70485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 27"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8922385" y="2623185"/>
-          <a:ext cx="419100" cy="70485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 28"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9356725" y="2834640"/>
-          <a:ext cx="419100" cy="71120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 29"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9343390" y="3709035"/>
-          <a:ext cx="419100" cy="65405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 30"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9351645" y="3051810"/>
-          <a:ext cx="843280" cy="65405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 31"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9770745" y="4366260"/>
-          <a:ext cx="419100" cy="64770"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 32"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9770745" y="4149090"/>
-          <a:ext cx="829945" cy="53975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 33"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10603230" y="5224780"/>
-          <a:ext cx="419100" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 34"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11010900" y="4577715"/>
-          <a:ext cx="419100" cy="66040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 35"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11441430" y="3926205"/>
-          <a:ext cx="419100" cy="66040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 36"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8519160" y="5428615"/>
-          <a:ext cx="419100" cy="70485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 37"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8922385" y="5652135"/>
-          <a:ext cx="419100" cy="69850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 38"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8932545" y="5875020"/>
-          <a:ext cx="419100" cy="71120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 39"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9345930" y="6110605"/>
-          <a:ext cx="419100" cy="69850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 40"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9341485" y="6338570"/>
-          <a:ext cx="419100" cy="64135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 41"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9765030" y="6526530"/>
-          <a:ext cx="849630" cy="64135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 42"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9770110" y="6758940"/>
-          <a:ext cx="852170" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 43"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10198735" y="6957060"/>
-          <a:ext cx="404495" cy="71755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 44"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8084185" y="7207885"/>
-          <a:ext cx="2505075" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 45"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10179685" y="7415530"/>
-          <a:ext cx="828675" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>125095</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 46"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11028045" y="7612380"/>
-          <a:ext cx="424180" cy="54610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="770055"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 47"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10603230" y="7859395"/>
-          <a:ext cx="428625" cy="52070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="95B3D7"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 48"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11010900" y="4794885"/>
-          <a:ext cx="419100" cy="66040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 49"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10594340" y="5019040"/>
-          <a:ext cx="419100" cy="62230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 50"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8921115" y="3490595"/>
-          <a:ext cx="419100" cy="67945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 51"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8921115" y="3273425"/>
-          <a:ext cx="419100" cy="60960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="8EB4E3"/>
-        </a:solidFill>
-        <a:ln w="0" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="돋움"/>
-              <a:ea typeface="돋움"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="돋움"/>
-            <a:ea typeface="돋움"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8597,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:AW57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="L25" sqref="L25:M25"/>
     </sheetView>
   </sheetViews>
@@ -9041,10 +6962,10 @@
       <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="551" t="s">
+      <c r="A9" s="509" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="552"/>
+      <c r="B9" s="540"/>
       <c r="C9" s="403" t="s">
         <v>68</v>
       </c>
@@ -9088,8 +7009,8 @@
       <c r="AM9" s="78"/>
     </row>
     <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="553"/>
-      <c r="B10" s="554"/>
+      <c r="A10" s="515"/>
+      <c r="B10" s="541"/>
       <c r="C10" s="403"/>
       <c r="D10" s="243" t="s">
         <v>63</v>
@@ -9131,8 +7052,8 @@
       <c r="AM10" s="78"/>
     </row>
     <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="553"/>
-      <c r="B11" s="554"/>
+      <c r="A11" s="515"/>
+      <c r="B11" s="541"/>
       <c r="C11" s="403"/>
       <c r="D11" s="243" t="s">
         <v>64</v>
@@ -9174,8 +7095,8 @@
       <c r="AM11" s="78"/>
     </row>
     <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="553"/>
-      <c r="B12" s="554"/>
+      <c r="A12" s="515"/>
+      <c r="B12" s="541"/>
       <c r="C12" s="403"/>
       <c r="D12" s="243" t="s">
         <v>65</v>
@@ -9217,8 +7138,8 @@
       <c r="AM12" s="78"/>
     </row>
     <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="553"/>
-      <c r="B13" s="554"/>
+      <c r="A13" s="515"/>
+      <c r="B13" s="541"/>
       <c r="C13" s="403"/>
       <c r="D13" s="243" t="s">
         <v>66</v>
@@ -9260,8 +7181,8 @@
       <c r="AM13" s="78"/>
     </row>
     <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="553"/>
-      <c r="B14" s="554"/>
+      <c r="A14" s="515"/>
+      <c r="B14" s="541"/>
       <c r="C14" s="403"/>
       <c r="D14" s="243" t="s">
         <v>67</v>
@@ -9303,8 +7224,8 @@
       <c r="AM14" s="78"/>
     </row>
     <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="553"/>
-      <c r="B15" s="555"/>
+      <c r="A15" s="515"/>
+      <c r="B15" s="542"/>
       <c r="C15" s="475" t="s">
         <v>75</v>
       </c>
@@ -9348,8 +7269,8 @@
       <c r="AM15" s="78"/>
     </row>
     <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="556"/>
-      <c r="B16" s="557"/>
+      <c r="A16" s="511"/>
+      <c r="B16" s="543"/>
       <c r="C16" s="475"/>
       <c r="D16" s="243" t="s">
         <v>79</v>
@@ -9391,8 +7312,8 @@
       <c r="AM16" s="33"/>
     </row>
     <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="556"/>
-      <c r="B17" s="557"/>
+      <c r="A17" s="511"/>
+      <c r="B17" s="543"/>
       <c r="C17" s="475"/>
       <c r="D17" s="243" t="s">
         <v>80</v>
@@ -9434,8 +7355,8 @@
       <c r="AM17" s="33"/>
     </row>
     <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="556"/>
-      <c r="B18" s="557"/>
+      <c r="A18" s="511"/>
+      <c r="B18" s="543"/>
       <c r="C18" s="475"/>
       <c r="D18" s="243" t="s">
         <v>49</v>
@@ -9477,8 +7398,8 @@
       <c r="AM18" s="33"/>
     </row>
     <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="556"/>
-      <c r="B19" s="557"/>
+      <c r="A19" s="511"/>
+      <c r="B19" s="543"/>
       <c r="C19" s="475"/>
       <c r="D19" s="243" t="s">
         <v>50</v>
@@ -9520,8 +7441,8 @@
       <c r="AM19" s="33"/>
     </row>
     <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="556"/>
-      <c r="B20" s="557"/>
+      <c r="A20" s="511"/>
+      <c r="B20" s="543"/>
       <c r="C20" s="475"/>
       <c r="D20" s="243" t="s">
         <v>46</v>
@@ -9563,8 +7484,8 @@
       <c r="AM20" s="33"/>
     </row>
     <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="558"/>
-      <c r="B21" s="557"/>
+      <c r="A21" s="513"/>
+      <c r="B21" s="543"/>
       <c r="C21" s="475"/>
       <c r="D21" s="243" t="s">
         <v>47</v>
@@ -9606,8 +7527,8 @@
       <c r="AM21" s="33"/>
     </row>
     <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="558"/>
-      <c r="B22" s="557"/>
+      <c r="A22" s="513"/>
+      <c r="B22" s="543"/>
       <c r="C22" s="475"/>
       <c r="D22" s="243" t="s">
         <v>70</v>
@@ -9649,8 +7570,8 @@
       <c r="AM22" s="33"/>
     </row>
     <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="558"/>
-      <c r="B23" s="559"/>
+      <c r="A23" s="513"/>
+      <c r="B23" s="544"/>
       <c r="C23" s="479" t="s">
         <v>76</v>
       </c>
@@ -9694,8 +7615,8 @@
       <c r="AM23" s="33"/>
     </row>
     <row r="24" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A24" s="558"/>
-      <c r="B24" s="559"/>
+      <c r="A24" s="513"/>
+      <c r="B24" s="544"/>
       <c r="C24" s="479"/>
       <c r="D24" s="243" t="s">
         <v>42</v>
@@ -9737,8 +7658,8 @@
       <c r="AM24" s="33"/>
     </row>
     <row r="25" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A25" s="558"/>
-      <c r="B25" s="559"/>
+      <c r="A25" s="513"/>
+      <c r="B25" s="544"/>
       <c r="C25" s="480"/>
       <c r="D25" s="243" t="s">
         <v>71</v>
@@ -9780,8 +7701,8 @@
       <c r="AM25" s="33"/>
     </row>
     <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="556"/>
-      <c r="B26" s="559"/>
+      <c r="A26" s="511"/>
+      <c r="B26" s="544"/>
       <c r="C26" s="480"/>
       <c r="D26" s="243" t="s">
         <v>72</v>
@@ -9823,8 +7744,8 @@
       <c r="AM26" s="33"/>
     </row>
     <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="558"/>
-      <c r="B27" s="559"/>
+      <c r="A27" s="513"/>
+      <c r="B27" s="544"/>
       <c r="C27" s="480"/>
       <c r="D27" s="243" t="s">
         <v>73</v>
@@ -9866,8 +7787,8 @@
       <c r="AM27" s="33"/>
     </row>
     <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="558"/>
-      <c r="B28" s="557"/>
+      <c r="A28" s="513"/>
+      <c r="B28" s="543"/>
       <c r="C28" s="481"/>
       <c r="D28" s="243" t="s">
         <v>74</v>
@@ -9909,8 +7830,8 @@
       <c r="AM28" s="33"/>
     </row>
     <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="558"/>
-      <c r="B29" s="559"/>
+      <c r="A29" s="513"/>
+      <c r="B29" s="544"/>
       <c r="C29" s="479"/>
       <c r="D29" s="243" t="s">
         <v>45</v>
@@ -9954,8 +7875,8 @@
       <c r="AM29" s="33"/>
     </row>
     <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="558"/>
-      <c r="B30" s="559"/>
+      <c r="A30" s="513"/>
+      <c r="B30" s="544"/>
       <c r="C30" s="483" t="s">
         <v>77</v>
       </c>
@@ -9999,8 +7920,8 @@
       <c r="AM30" s="33"/>
     </row>
     <row r="31" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A31" s="558"/>
-      <c r="B31" s="559"/>
+      <c r="A31" s="513"/>
+      <c r="B31" s="544"/>
       <c r="C31" s="483"/>
       <c r="D31" s="243" t="s">
         <v>52</v>
@@ -10042,8 +7963,8 @@
       <c r="AM31" s="33"/>
     </row>
     <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A32" s="558"/>
-      <c r="B32" s="559"/>
+      <c r="A32" s="513"/>
+      <c r="B32" s="544"/>
       <c r="C32" s="483"/>
       <c r="D32" s="243" t="s">
         <v>53</v>
@@ -10085,8 +8006,8 @@
       <c r="AM32" s="33"/>
     </row>
     <row r="33" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A33" s="558"/>
-      <c r="B33" s="559"/>
+      <c r="A33" s="513"/>
+      <c r="B33" s="544"/>
       <c r="C33" s="483"/>
       <c r="D33" s="243" t="s">
         <v>54</v>
@@ -10128,8 +8049,8 @@
       <c r="AM33" s="33"/>
     </row>
     <row r="34" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A34" s="558"/>
-      <c r="B34" s="559"/>
+      <c r="A34" s="513"/>
+      <c r="B34" s="544"/>
       <c r="C34" s="483"/>
       <c r="D34" s="243" t="s">
         <v>55</v>
@@ -10171,8 +8092,8 @@
       <c r="AM34" s="33"/>
     </row>
     <row r="35" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A35" s="558"/>
-      <c r="B35" s="559"/>
+      <c r="A35" s="513"/>
+      <c r="B35" s="544"/>
       <c r="C35" s="484"/>
       <c r="D35" s="243" t="s">
         <v>56</v>
@@ -10214,8 +8135,8 @@
       <c r="AM35" s="33"/>
     </row>
     <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="558"/>
-      <c r="B36" s="559"/>
+      <c r="A36" s="513"/>
+      <c r="B36" s="544"/>
       <c r="C36" s="483"/>
       <c r="D36" s="243" t="s">
         <v>57</v>
@@ -10257,8 +8178,8 @@
       <c r="AM36" s="33"/>
     </row>
     <row r="37" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A37" s="553"/>
-      <c r="B37" s="559"/>
+      <c r="A37" s="515"/>
+      <c r="B37" s="544"/>
       <c r="C37" s="483"/>
       <c r="D37" s="243" t="s">
         <v>58</v>
@@ -10300,8 +8221,8 @@
       <c r="AM37" s="33"/>
     </row>
     <row r="38" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A38" s="560"/>
-      <c r="B38" s="559"/>
+      <c r="A38" s="516"/>
+      <c r="B38" s="544"/>
       <c r="C38" s="483"/>
       <c r="D38" s="243" t="s">
         <v>69</v>
@@ -10343,8 +8264,8 @@
       <c r="AM38" s="33"/>
     </row>
     <row r="39" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A39" s="561"/>
-      <c r="B39" s="562"/>
+      <c r="A39" s="517"/>
+      <c r="B39" s="545"/>
       <c r="C39" s="485" t="s">
         <v>78</v>
       </c>
@@ -10388,10 +8309,10 @@
       <c r="AM39" s="33"/>
     </row>
     <row r="40" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A40" s="505" t="s">
+      <c r="A40" s="501" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="506"/>
+      <c r="B40" s="502"/>
       <c r="C40" s="487"/>
       <c r="D40" s="243" t="s">
         <v>59</v>
@@ -10570,7 +8491,6 @@
     </row>
     <row r="46" spans="1:49" ht="17.100000" customHeight="1">
       <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -11285,2697 +9205,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AW57"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="130" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
-  <cols>
-    <col min="2" max="2" width="6.22722218" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="19.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="57" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
-    <col min="58" max="58" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="59" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A1" s="440" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
-      <c r="N1" s="442"/>
-      <c r="O1" s="442"/>
-      <c r="P1" s="442"/>
-      <c r="Q1" s="442"/>
-      <c r="R1" s="442"/>
-      <c r="S1" s="442"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="443"/>
-      <c r="AM1" s="443"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-    </row>
-    <row r="2" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A2" s="441"/>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
-      <c r="K2" s="442"/>
-      <c r="L2" s="442"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="442"/>
-      <c r="O2" s="442"/>
-      <c r="P2" s="442"/>
-      <c r="Q2" s="442"/>
-      <c r="R2" s="442"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="443"/>
-      <c r="U2" s="443"/>
-      <c r="V2" s="443"/>
-      <c r="W2" s="443"/>
-      <c r="X2" s="443"/>
-      <c r="Y2" s="443"/>
-      <c r="Z2" s="443"/>
-      <c r="AA2" s="443"/>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="444"/>
-      <c r="AD2" s="444"/>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="444"/>
-      <c r="AG2" s="444"/>
-      <c r="AH2" s="445"/>
-      <c r="AI2" s="444"/>
-      <c r="AJ2" s="444"/>
-      <c r="AK2" s="444"/>
-      <c r="AL2" s="444"/>
-      <c r="AM2" s="444"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-    </row>
-    <row r="3" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A3" s="441"/>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="443"/>
-      <c r="F3" s="443"/>
-      <c r="G3" s="443"/>
-      <c r="H3" s="443"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="443"/>
-      <c r="K3" s="443"/>
-      <c r="L3" s="443"/>
-      <c r="M3" s="443"/>
-      <c r="N3" s="443"/>
-      <c r="O3" s="443"/>
-      <c r="P3" s="443"/>
-      <c r="Q3" s="443"/>
-      <c r="R3" s="443"/>
-      <c r="S3" s="443"/>
-      <c r="T3" s="443"/>
-      <c r="U3" s="443"/>
-      <c r="V3" s="443"/>
-      <c r="W3" s="443"/>
-      <c r="X3" s="443"/>
-      <c r="Y3" s="443"/>
-      <c r="Z3" s="443"/>
-      <c r="AA3" s="443"/>
-      <c r="AB3" s="443"/>
-      <c r="AC3" s="443"/>
-      <c r="AD3" s="443"/>
-      <c r="AE3" s="443"/>
-      <c r="AF3" s="443"/>
-      <c r="AG3" s="443"/>
-      <c r="AH3" s="443"/>
-      <c r="AI3" s="443"/>
-      <c r="AJ3" s="443"/>
-      <c r="AK3" s="443"/>
-      <c r="AL3" s="443"/>
-      <c r="AM3" s="443"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-    </row>
-    <row r="4" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A4" s="440"/>
-      <c r="B4" s="441"/>
-      <c r="C4" s="441"/>
-      <c r="D4" s="440"/>
-      <c r="E4" s="440"/>
-      <c r="F4" s="440"/>
-      <c r="G4" s="440"/>
-      <c r="H4" s="440"/>
-      <c r="I4" s="440"/>
-      <c r="J4" s="446"/>
-      <c r="K4" s="446"/>
-      <c r="L4" s="446"/>
-      <c r="M4" s="446"/>
-      <c r="N4" s="446"/>
-      <c r="O4" s="446"/>
-      <c r="P4" s="446"/>
-      <c r="Q4" s="446"/>
-      <c r="R4" s="446"/>
-      <c r="S4" s="446"/>
-      <c r="T4" s="446"/>
-      <c r="U4" s="446"/>
-      <c r="V4" s="446"/>
-      <c r="W4" s="446"/>
-      <c r="X4" s="446"/>
-      <c r="Y4" s="446"/>
-      <c r="Z4" s="446"/>
-      <c r="AA4" s="446"/>
-      <c r="AB4" s="446"/>
-      <c r="AC4" s="446"/>
-      <c r="AD4" s="446"/>
-      <c r="AE4" s="446"/>
-      <c r="AF4" s="446"/>
-      <c r="AG4" s="446"/>
-      <c r="AH4" s="446"/>
-      <c r="AI4" s="446"/>
-      <c r="AJ4" s="446"/>
-      <c r="AK4" s="446"/>
-      <c r="AL4" s="443"/>
-      <c r="AM4" s="443"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-    </row>
-    <row r="5" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A5" s="441"/>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="443"/>
-      <c r="L5" s="443"/>
-      <c r="M5" s="443"/>
-      <c r="N5" s="443"/>
-      <c r="O5" s="443"/>
-      <c r="P5" s="443"/>
-      <c r="Q5" s="443"/>
-      <c r="R5" s="443"/>
-      <c r="S5" s="443"/>
-      <c r="T5" s="443"/>
-      <c r="U5" s="443"/>
-      <c r="V5" s="443"/>
-      <c r="W5" s="443"/>
-      <c r="X5" s="443"/>
-      <c r="Y5" s="443"/>
-      <c r="Z5" s="443"/>
-      <c r="AA5" s="443"/>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="443"/>
-      <c r="AD5" s="443"/>
-      <c r="AE5" s="443"/>
-      <c r="AF5" s="443"/>
-      <c r="AG5" s="443"/>
-      <c r="AH5" s="443"/>
-      <c r="AI5" s="443"/>
-      <c r="AJ5" s="443"/>
-      <c r="AK5" s="443"/>
-      <c r="AL5" s="443"/>
-      <c r="AM5" s="443"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-    </row>
-    <row r="6" spans="1:49" ht="8.000000" customHeight="1">
-      <c r="A6" s="448"/>
-      <c r="B6" s="448"/>
-      <c r="C6" s="448"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="449"/>
-      <c r="F6" s="449"/>
-      <c r="G6" s="449"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="449"/>
-      <c r="J6" s="449"/>
-      <c r="K6" s="449"/>
-      <c r="L6" s="449"/>
-      <c r="M6" s="449"/>
-      <c r="N6" s="449"/>
-      <c r="O6" s="449"/>
-      <c r="P6" s="449"/>
-      <c r="Q6" s="449"/>
-      <c r="R6" s="449"/>
-      <c r="S6" s="449"/>
-      <c r="T6" s="449"/>
-      <c r="U6" s="449"/>
-      <c r="V6" s="449"/>
-      <c r="W6" s="449"/>
-      <c r="X6" s="449"/>
-      <c r="Y6" s="449"/>
-      <c r="Z6" s="449"/>
-      <c r="AA6" s="452"/>
-      <c r="AB6" s="449"/>
-      <c r="AC6" s="449"/>
-      <c r="AD6" s="449"/>
-      <c r="AE6" s="449"/>
-      <c r="AF6" s="449"/>
-      <c r="AG6" s="449"/>
-      <c r="AH6" s="449"/>
-      <c r="AI6" s="449"/>
-      <c r="AJ6" s="449"/>
-      <c r="AK6" s="452"/>
-      <c r="AL6" s="452"/>
-      <c r="AM6" s="453"/>
-    </row>
-    <row r="7" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A7" s="220" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="458" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="459"/>
-      <c r="F7" s="458" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="459"/>
-      <c r="H7" s="459"/>
-      <c r="I7" s="459"/>
-      <c r="J7" s="459"/>
-      <c r="K7" s="459"/>
-      <c r="L7" s="459"/>
-      <c r="M7" s="458"/>
-      <c r="N7" s="458"/>
-      <c r="O7" s="458" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="459"/>
-      <c r="Q7" s="459"/>
-      <c r="R7" s="459"/>
-      <c r="S7" s="459"/>
-      <c r="T7" s="459"/>
-      <c r="U7" s="459"/>
-      <c r="V7" s="458"/>
-      <c r="W7" s="458"/>
-      <c r="X7" s="458" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="459"/>
-      <c r="Z7" s="459"/>
-      <c r="AA7" s="459"/>
-      <c r="AB7" s="459"/>
-      <c r="AC7" s="459"/>
-      <c r="AD7" s="459"/>
-      <c r="AE7" s="458"/>
-      <c r="AF7" s="458"/>
-      <c r="AG7" s="458" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH7" s="459"/>
-      <c r="AI7" s="459"/>
-      <c r="AJ7" s="459"/>
-      <c r="AK7" s="459"/>
-      <c r="AL7" s="459"/>
-      <c r="AM7" s="459"/>
-    </row>
-    <row r="8" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="410"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="130">
-        <v>1</v>
-      </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132">
-        <v>2</v>
-      </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="132">
-        <v>3</v>
-      </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="132">
-        <v>4</v>
-      </c>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="133"/>
-      <c r="P8" s="132">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="132">
-        <v>3</v>
-      </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="137"/>
-      <c r="V8" s="135">
-        <v>5</v>
-      </c>
-      <c r="W8" s="133"/>
-      <c r="X8" s="135">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="135">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="135">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="135">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="133"/>
-      <c r="AF8" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG8" s="133"/>
-      <c r="AH8" s="135">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="133"/>
-      <c r="AJ8" s="135">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="133"/>
-      <c r="AL8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM8" s="67"/>
-    </row>
-    <row r="9" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A9" s="402" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="243" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="78"/>
-    </row>
-    <row r="10" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A10" s="402"/>
-      <c r="B10" s="403"/>
-      <c r="C10" s="403"/>
-      <c r="D10" s="243" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="78"/>
-    </row>
-    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A11" s="402"/>
-      <c r="B11" s="403"/>
-      <c r="C11" s="403"/>
-      <c r="D11" s="243" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="78"/>
-    </row>
-    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A12" s="402"/>
-      <c r="B12" s="403"/>
-      <c r="C12" s="403"/>
-      <c r="D12" s="243" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="78"/>
-    </row>
-    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A13" s="402"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="403"/>
-      <c r="D13" s="243" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="78"/>
-    </row>
-    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A14" s="402"/>
-      <c r="B14" s="403"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="243" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="78"/>
-    </row>
-    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A15" s="402"/>
-      <c r="B15" s="403"/>
-      <c r="C15" s="466" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="243" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="78"/>
-    </row>
-    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A16" s="404"/>
-      <c r="B16" s="403"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="243" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="33"/>
-    </row>
-    <row r="17" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A17" s="404"/>
-      <c r="B17" s="403"/>
-      <c r="C17" s="467"/>
-      <c r="D17" s="243" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="33"/>
-    </row>
-    <row r="18" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A18" s="404"/>
-      <c r="B18" s="403"/>
-      <c r="C18" s="467"/>
-      <c r="D18" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="33"/>
-    </row>
-    <row r="19" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A19" s="404"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="467"/>
-      <c r="D19" s="243" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="33"/>
-    </row>
-    <row r="20" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A20" s="404"/>
-      <c r="B20" s="403"/>
-      <c r="C20" s="467"/>
-      <c r="D20" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="33"/>
-    </row>
-    <row r="21" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A21" s="405"/>
-      <c r="B21" s="403"/>
-      <c r="C21" s="467"/>
-      <c r="D21" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="33"/>
-    </row>
-    <row r="22" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A22" s="405"/>
-      <c r="B22" s="403"/>
-      <c r="C22" s="467"/>
-      <c r="D22" s="243" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="33"/>
-    </row>
-    <row r="23" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A23" s="405"/>
-      <c r="B23" s="406"/>
-      <c r="C23" s="468"/>
-      <c r="D23" s="243" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="33"/>
-    </row>
-    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A24" s="405"/>
-      <c r="B24" s="406"/>
-      <c r="C24" s="468"/>
-      <c r="D24" s="243" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="33"/>
-    </row>
-    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A25" s="405"/>
-      <c r="B25" s="406"/>
-      <c r="C25" s="468"/>
-      <c r="D25" s="243" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="33"/>
-    </row>
-    <row r="26" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A26" s="404"/>
-      <c r="B26" s="404"/>
-      <c r="C26" s="469"/>
-      <c r="D26" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="33"/>
-    </row>
-    <row r="27" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A27" s="405"/>
-      <c r="B27" s="403"/>
-      <c r="C27" s="470"/>
-      <c r="D27" s="243" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="363"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="33"/>
-    </row>
-    <row r="28" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A28" s="405"/>
-      <c r="B28" s="403"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="243" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="33"/>
-    </row>
-    <row r="29" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A29" s="405"/>
-      <c r="B29" s="403"/>
-      <c r="C29" s="466" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="243" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38">
-        <v>4</v>
-      </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="33"/>
-    </row>
-    <row r="30" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A30" s="405"/>
-      <c r="B30" s="403"/>
-      <c r="C30" s="467"/>
-      <c r="D30" s="243" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="33"/>
-    </row>
-    <row r="31" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A31" s="405"/>
-      <c r="B31" s="403"/>
-      <c r="C31" s="467"/>
-      <c r="D31" s="243" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="33"/>
-    </row>
-    <row r="32" spans="1:39" ht="17.100000" customHeight="1">
-      <c r="A32" s="405"/>
-      <c r="B32" s="403"/>
-      <c r="C32" s="467"/>
-      <c r="D32" s="243" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="33"/>
-    </row>
-    <row r="33" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A33" s="405"/>
-      <c r="B33" s="402"/>
-      <c r="C33" s="472"/>
-      <c r="D33" s="243" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="33"/>
-    </row>
-    <row r="34" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A34" s="405"/>
-      <c r="B34" s="403"/>
-      <c r="C34" s="467"/>
-      <c r="D34" s="243" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="33"/>
-    </row>
-    <row r="35" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A35" s="405"/>
-      <c r="B35" s="403"/>
-      <c r="C35" s="467"/>
-      <c r="D35" s="243" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="33"/>
-    </row>
-    <row r="36" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A36" s="405"/>
-      <c r="B36" s="403"/>
-      <c r="C36" s="467"/>
-      <c r="D36" s="243" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="15"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="33"/>
-    </row>
-    <row r="37" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A37" s="402"/>
-      <c r="B37" s="403"/>
-      <c r="C37" s="467"/>
-      <c r="D37" s="243" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="14"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="33"/>
-    </row>
-    <row r="38" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A38" s="407"/>
-      <c r="B38" s="407"/>
-      <c r="C38" s="470"/>
-      <c r="D38" s="243" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="33"/>
-    </row>
-    <row r="39" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A39" s="407"/>
-      <c r="B39" s="407"/>
-      <c r="C39" s="473"/>
-      <c r="D39" s="243" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="14"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="33"/>
-    </row>
-    <row r="40" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="A40" s="245" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="243" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="33"/>
-    </row>
-    <row r="41" spans="1:49" ht="18.000000" customHeight="1">
-      <c r="E41" s="35"/>
-    </row>
-    <row r="42" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="E42" s="35"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-    </row>
-    <row r="43" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D43" s="5"/>
-      <c r="E43" s="35"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-    </row>
-    <row r="44" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D44" s="8"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="4"/>
-      <c r="AT44" s="4"/>
-      <c r="AU44" s="4"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-    </row>
-    <row r="45" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="10"/>
-      <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
-    </row>
-    <row r="46" spans="1:49" ht="17.100000" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-    </row>
-    <row r="47" spans="1:49" ht="20.100000" customHeight="1">
-      <c r="D47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="10"/>
-      <c r="AL47" s="10"/>
-      <c r="AM47" s="10"/>
-      <c r="AN47" s="10"/>
-      <c r="AO47" s="10"/>
-      <c r="AP47" s="10"/>
-      <c r="AQ47" s="10"/>
-      <c r="AR47" s="10"/>
-      <c r="AS47" s="10"/>
-    </row>
-    <row r="48" spans="1:49" ht="20.100000" customHeight="1">
-      <c r="D48" s="10"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-    </row>
-    <row r="49" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-    </row>
-    <row r="50" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="D50" s="10"/>
-      <c r="E50" s="4"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-    </row>
-    <row r="51" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="4:39" ht="20.100000" customHeight="1">
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" ht="20.100000" customHeight="1"/>
-    <row r="57" ht="20.100000" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="509">
-    <mergeCell ref="A1:AM5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:W7"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="AG7:AM7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="A9:B39"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AK22"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="AL25:AM25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AJ28:AK28"/>
-    <mergeCell ref="AL28:AM28"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AJ31:AK31"/>
-    <mergeCell ref="AL31:AM31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AJ35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AL37:AM37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AJ38:AK38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AL40:AM40"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.59" right="0.59" top="0.59" bottom="0.35" header="0.00" footer="0.00"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Project_Design/일정표/프로젝트 일정표.xlsx
+++ b/Project_Design/일정표/프로젝트 일정표.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 개발 일정표" sheetId="2" r:id="rId1"/>
+    <sheet name="프로젝트 개발 일정표 수정" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 개발 일정표'!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'프로젝트 개발 일정표 수정'!$A$1:$AM$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -23,8 +25,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>10월</t>
   </si>
@@ -327,6 +336,15 @@
   </si>
   <si>
     <t>메타버스 로그인</t>
+  </si>
+  <si>
+    <t>Q&amp;A 게시판 - 자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>프로그램 안내</t>
   </si>
 </sst>
 </file>
@@ -874,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2037,6 +2055,20 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2187,7 +2219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4110,6 +4142,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="14" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6156,6 +6233,1995 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8499475" y="2389505"/>
+          <a:ext cx="843915" cy="81915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6416040" y="2181860"/>
+          <a:ext cx="419100" cy="61595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7254240" y="1971675"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6831330" y="1750695"/>
+          <a:ext cx="419100" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5993130" y="1541145"/>
+          <a:ext cx="419100" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1938655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5150485" y="1098550"/>
+          <a:ext cx="840740" cy="55245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5574030" y="1314450"/>
+          <a:ext cx="424815" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8922385" y="2623185"/>
+          <a:ext cx="419100" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9356725" y="2834640"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9343390" y="3709035"/>
+          <a:ext cx="419100" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9351645" y="3051810"/>
+          <a:ext cx="843280" cy="65405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 31"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="4366260"/>
+          <a:ext cx="419100" cy="64770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770745" y="4149090"/>
+          <a:ext cx="829945" cy="53975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 33"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10603230" y="5224780"/>
+          <a:ext cx="419100" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4577715"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 35"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11441430" y="3926205"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8519160" y="5428615"/>
+          <a:ext cx="419100" cy="70485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 37"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8922385" y="5652135"/>
+          <a:ext cx="419100" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8932545" y="5875020"/>
+          <a:ext cx="419100" cy="71120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9345930" y="6110605"/>
+          <a:ext cx="419100" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9341485" y="6338570"/>
+          <a:ext cx="419100" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9765030" y="6526530"/>
+          <a:ext cx="849630" cy="64135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9770110" y="6758940"/>
+          <a:ext cx="852170" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 43"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10198735" y="6957060"/>
+          <a:ext cx="404495" cy="71755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8084185" y="7207885"/>
+          <a:ext cx="2505075" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 45"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10179685" y="7415530"/>
+          <a:ext cx="828675" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11028045" y="7829550"/>
+          <a:ext cx="424180" cy="54610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 48"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="4794885"/>
+          <a:ext cx="419100" cy="66040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 49"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10594340" y="5019040"/>
+          <a:ext cx="419100" cy="62230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 50"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8921115" y="3490595"/>
+          <a:ext cx="419100" cy="67945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 51"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8921115" y="3273425"/>
+          <a:ext cx="419100" cy="60960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="8EB4E3"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 52"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10608945" y="7606665"/>
+          <a:ext cx="408940" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="770055"/>
+        </a:solidFill>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36830" tIns="18415" rIns="0" bIns="0" anchor="t" vertOverflow="clip" horzOverflow="overflow">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="돋움"/>
+              <a:ea typeface="돋움"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="돋움"/>
+            <a:ea typeface="돋움"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -6518,7 +8584,7 @@
   </sheetPr>
   <dimension ref="A1:AW57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="L25" sqref="L25:M25"/>
     </sheetView>
   </sheetViews>
@@ -9205,4 +11271,4057 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:XEQ56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="2" max="2" width="6.22722218" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="19.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="2.78277776" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="22.67166731" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="57" style="2" width="2.44944439" customWidth="1" outlineLevel="0"/>
+    <col min="58" max="58" style="2" width="2.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="59" max="16384" style="2" width="8.89388869" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A1" s="440" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="442"/>
+      <c r="S1" s="442"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="443"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+    </row>
+    <row r="2" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A2" s="441"/>
+      <c r="B2" s="441"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
+      <c r="K2" s="442"/>
+      <c r="L2" s="442"/>
+      <c r="M2" s="442"/>
+      <c r="N2" s="442"/>
+      <c r="O2" s="442"/>
+      <c r="P2" s="442"/>
+      <c r="Q2" s="442"/>
+      <c r="R2" s="442"/>
+      <c r="S2" s="442"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
+      <c r="W2" s="443"/>
+      <c r="X2" s="443"/>
+      <c r="Y2" s="443"/>
+      <c r="Z2" s="443"/>
+      <c r="AA2" s="443"/>
+      <c r="AB2" s="443"/>
+      <c r="AC2" s="444"/>
+      <c r="AD2" s="444"/>
+      <c r="AE2" s="444"/>
+      <c r="AF2" s="444"/>
+      <c r="AG2" s="444"/>
+      <c r="AH2" s="445"/>
+      <c r="AI2" s="444"/>
+      <c r="AJ2" s="444"/>
+      <c r="AK2" s="444"/>
+      <c r="AL2" s="444"/>
+      <c r="AM2" s="444"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A3" s="441"/>
+      <c r="B3" s="441"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
+      <c r="M3" s="443"/>
+      <c r="N3" s="443"/>
+      <c r="O3" s="443"/>
+      <c r="P3" s="443"/>
+      <c r="Q3" s="443"/>
+      <c r="R3" s="443"/>
+      <c r="S3" s="443"/>
+      <c r="T3" s="443"/>
+      <c r="U3" s="443"/>
+      <c r="V3" s="443"/>
+      <c r="W3" s="443"/>
+      <c r="X3" s="443"/>
+      <c r="Y3" s="443"/>
+      <c r="Z3" s="443"/>
+      <c r="AA3" s="443"/>
+      <c r="AB3" s="443"/>
+      <c r="AC3" s="443"/>
+      <c r="AD3" s="443"/>
+      <c r="AE3" s="443"/>
+      <c r="AF3" s="443"/>
+      <c r="AG3" s="443"/>
+      <c r="AH3" s="443"/>
+      <c r="AI3" s="443"/>
+      <c r="AJ3" s="443"/>
+      <c r="AK3" s="443"/>
+      <c r="AL3" s="443"/>
+      <c r="AM3" s="443"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A4" s="440"/>
+      <c r="B4" s="441"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="440"/>
+      <c r="E4" s="440"/>
+      <c r="F4" s="440"/>
+      <c r="G4" s="440"/>
+      <c r="H4" s="440"/>
+      <c r="I4" s="440"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="446"/>
+      <c r="N4" s="446"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="446"/>
+      <c r="Q4" s="446"/>
+      <c r="R4" s="446"/>
+      <c r="S4" s="446"/>
+      <c r="T4" s="446"/>
+      <c r="U4" s="446"/>
+      <c r="V4" s="446"/>
+      <c r="W4" s="446"/>
+      <c r="X4" s="446"/>
+      <c r="Y4" s="446"/>
+      <c r="Z4" s="446"/>
+      <c r="AA4" s="446"/>
+      <c r="AB4" s="446"/>
+      <c r="AC4" s="446"/>
+      <c r="AD4" s="446"/>
+      <c r="AE4" s="446"/>
+      <c r="AF4" s="446"/>
+      <c r="AG4" s="446"/>
+      <c r="AH4" s="446"/>
+      <c r="AI4" s="446"/>
+      <c r="AJ4" s="446"/>
+      <c r="AK4" s="446"/>
+      <c r="AL4" s="443"/>
+      <c r="AM4" s="443"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A5" s="441"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="443"/>
+      <c r="K5" s="443"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="443"/>
+      <c r="N5" s="443"/>
+      <c r="O5" s="443"/>
+      <c r="P5" s="443"/>
+      <c r="Q5" s="443"/>
+      <c r="R5" s="443"/>
+      <c r="S5" s="443"/>
+      <c r="T5" s="443"/>
+      <c r="U5" s="443"/>
+      <c r="V5" s="443"/>
+      <c r="W5" s="443"/>
+      <c r="X5" s="443"/>
+      <c r="Y5" s="443"/>
+      <c r="Z5" s="443"/>
+      <c r="AA5" s="443"/>
+      <c r="AB5" s="443"/>
+      <c r="AC5" s="443"/>
+      <c r="AD5" s="443"/>
+      <c r="AE5" s="443"/>
+      <c r="AF5" s="443"/>
+      <c r="AG5" s="443"/>
+      <c r="AH5" s="443"/>
+      <c r="AI5" s="443"/>
+      <c r="AJ5" s="443"/>
+      <c r="AK5" s="443"/>
+      <c r="AL5" s="443"/>
+      <c r="AM5" s="443"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6" spans="1:49" ht="8.000000" customHeight="1">
+      <c r="A6" s="448"/>
+      <c r="B6" s="448"/>
+      <c r="C6" s="448"/>
+      <c r="D6" s="449"/>
+      <c r="E6" s="449"/>
+      <c r="F6" s="449"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="449"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="449"/>
+      <c r="L6" s="449"/>
+      <c r="M6" s="449"/>
+      <c r="N6" s="449"/>
+      <c r="O6" s="449"/>
+      <c r="P6" s="449"/>
+      <c r="Q6" s="449"/>
+      <c r="R6" s="449"/>
+      <c r="S6" s="449"/>
+      <c r="T6" s="449"/>
+      <c r="U6" s="449"/>
+      <c r="V6" s="449"/>
+      <c r="W6" s="449"/>
+      <c r="X6" s="449"/>
+      <c r="Y6" s="449"/>
+      <c r="Z6" s="449"/>
+      <c r="AA6" s="452"/>
+      <c r="AB6" s="449"/>
+      <c r="AC6" s="449"/>
+      <c r="AD6" s="449"/>
+      <c r="AE6" s="449"/>
+      <c r="AF6" s="449"/>
+      <c r="AG6" s="449"/>
+      <c r="AH6" s="449"/>
+      <c r="AI6" s="449"/>
+      <c r="AJ6" s="449"/>
+      <c r="AK6" s="452"/>
+      <c r="AL6" s="452"/>
+      <c r="AM6" s="453"/>
+    </row>
+    <row r="7" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A7" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="221"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="458" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="459"/>
+      <c r="F7" s="458" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="459"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="459"/>
+      <c r="J7" s="459"/>
+      <c r="K7" s="459"/>
+      <c r="L7" s="459"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="458"/>
+      <c r="O7" s="458" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="459"/>
+      <c r="Q7" s="459"/>
+      <c r="R7" s="459"/>
+      <c r="S7" s="459"/>
+      <c r="T7" s="459"/>
+      <c r="U7" s="459"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="459"/>
+      <c r="Z7" s="459"/>
+      <c r="AA7" s="459"/>
+      <c r="AB7" s="459"/>
+      <c r="AC7" s="459"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH7" s="459"/>
+      <c r="AI7" s="459"/>
+      <c r="AJ7" s="459"/>
+      <c r="AK7" s="459"/>
+      <c r="AL7" s="459"/>
+      <c r="AM7" s="459"/>
+    </row>
+    <row r="8" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A8" s="409"/>
+      <c r="B8" s="410"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="130">
+        <v>1</v>
+      </c>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132">
+        <v>2</v>
+      </c>
+      <c r="I8" s="133"/>
+      <c r="J8" s="132">
+        <v>3</v>
+      </c>
+      <c r="K8" s="133"/>
+      <c r="L8" s="132">
+        <v>4</v>
+      </c>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="133"/>
+      <c r="P8" s="132">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="132">
+        <v>3</v>
+      </c>
+      <c r="S8" s="65"/>
+      <c r="T8" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="137"/>
+      <c r="V8" s="135">
+        <v>5</v>
+      </c>
+      <c r="W8" s="133"/>
+      <c r="X8" s="135">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="135">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="135">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="135">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="135">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="135">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="133"/>
+      <c r="AL8" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="67"/>
+    </row>
+    <row r="9" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A9" s="509" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="540"/>
+      <c r="C9" s="403" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="78"/>
+    </row>
+    <row r="10" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A10" s="515"/>
+      <c r="B10" s="541"/>
+      <c r="C10" s="403"/>
+      <c r="D10" s="243" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="78"/>
+    </row>
+    <row r="11" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A11" s="515"/>
+      <c r="B11" s="541"/>
+      <c r="C11" s="403"/>
+      <c r="D11" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="78"/>
+    </row>
+    <row r="12" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A12" s="515"/>
+      <c r="B12" s="541"/>
+      <c r="C12" s="403"/>
+      <c r="D12" s="243" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="78"/>
+    </row>
+    <row r="13" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A13" s="515"/>
+      <c r="B13" s="541"/>
+      <c r="C13" s="403"/>
+      <c r="D13" s="243" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="78"/>
+    </row>
+    <row r="14" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A14" s="515"/>
+      <c r="B14" s="541"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="243" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="78"/>
+    </row>
+    <row r="15" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A15" s="515"/>
+      <c r="B15" s="542"/>
+      <c r="C15" s="475" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="243" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="78"/>
+    </row>
+    <row r="16" spans="1:49" ht="17.100000" customHeight="1">
+      <c r="A16" s="511"/>
+      <c r="B16" s="543"/>
+      <c r="C16" s="475"/>
+      <c r="D16" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="33"/>
+    </row>
+    <row r="17" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A17" s="511"/>
+      <c r="B17" s="543"/>
+      <c r="C17" s="475"/>
+      <c r="D17" s="243" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="33"/>
+    </row>
+    <row r="18" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A18" s="511"/>
+      <c r="B18" s="543"/>
+      <c r="C18" s="475"/>
+      <c r="D18" s="243" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A19" s="511"/>
+      <c r="B19" s="543"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="243" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="33"/>
+    </row>
+    <row r="20" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A20" s="511"/>
+      <c r="B20" s="543"/>
+      <c r="C20" s="475"/>
+      <c r="D20" s="243" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="33"/>
+    </row>
+    <row r="21" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A21" s="513"/>
+      <c r="B21" s="543"/>
+      <c r="C21" s="475"/>
+      <c r="D21" s="243" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="33"/>
+    </row>
+    <row r="22" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A22" s="513"/>
+      <c r="B22" s="543"/>
+      <c r="C22" s="475"/>
+      <c r="D22" s="243" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="33"/>
+    </row>
+    <row r="23" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A23" s="513"/>
+      <c r="B23" s="544"/>
+      <c r="C23" s="479" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="243" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="33"/>
+    </row>
+    <row r="24" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A24" s="513"/>
+      <c r="B24" s="544"/>
+      <c r="C24" s="479"/>
+      <c r="D24" s="243" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="33"/>
+    </row>
+    <row r="25" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A25" s="513"/>
+      <c r="B25" s="544"/>
+      <c r="C25" s="480"/>
+      <c r="D25" s="243" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="33"/>
+    </row>
+    <row r="26" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A26" s="511"/>
+      <c r="B26" s="544"/>
+      <c r="C26" s="480"/>
+      <c r="D26" s="243" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="33"/>
+    </row>
+    <row r="27" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A27" s="513"/>
+      <c r="B27" s="544"/>
+      <c r="C27" s="480"/>
+      <c r="D27" s="243" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="363"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="33"/>
+    </row>
+    <row r="28" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A28" s="513"/>
+      <c r="B28" s="543"/>
+      <c r="C28" s="481"/>
+      <c r="D28" s="243" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="33"/>
+    </row>
+    <row r="29" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A29" s="513"/>
+      <c r="B29" s="544"/>
+      <c r="C29" s="479"/>
+      <c r="D29" s="243" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38">
+        <v>4</v>
+      </c>
+      <c r="M29" s="39"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="33"/>
+    </row>
+    <row r="30" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A30" s="513"/>
+      <c r="B30" s="544"/>
+      <c r="C30" s="557" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="33"/>
+    </row>
+    <row r="31" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A31" s="513"/>
+      <c r="B31" s="544"/>
+      <c r="C31" s="558"/>
+      <c r="D31" s="243" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="33"/>
+    </row>
+    <row r="32" spans="1:39" ht="17.100000" customHeight="1">
+      <c r="A32" s="513"/>
+      <c r="B32" s="544"/>
+      <c r="C32" s="558"/>
+      <c r="D32" s="243" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="33"/>
+    </row>
+    <row r="33" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A33" s="513"/>
+      <c r="B33" s="544"/>
+      <c r="C33" s="558"/>
+      <c r="D33" s="243" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="33"/>
+    </row>
+    <row r="34" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A34" s="513"/>
+      <c r="B34" s="544"/>
+      <c r="C34" s="558"/>
+      <c r="D34" s="243" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="33"/>
+    </row>
+    <row r="35" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A35" s="513"/>
+      <c r="B35" s="544"/>
+      <c r="C35" s="559"/>
+      <c r="D35" s="243" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="33"/>
+    </row>
+    <row r="36" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A36" s="513"/>
+      <c r="B36" s="544"/>
+      <c r="C36" s="558"/>
+      <c r="D36" s="243" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="33"/>
+    </row>
+    <row r="37" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A37" s="515"/>
+      <c r="B37" s="544"/>
+      <c r="C37" s="558"/>
+      <c r="D37" s="243" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="33"/>
+    </row>
+    <row r="38" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A38" s="516"/>
+      <c r="B38" s="544"/>
+      <c r="C38" s="558"/>
+      <c r="D38" s="243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="33"/>
+    </row>
+    <row r="39" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A39" s="516"/>
+      <c r="B39" s="544"/>
+      <c r="C39" s="560"/>
+      <c r="D39" s="243" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="33"/>
+    </row>
+    <row r="40" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="A40" s="517"/>
+      <c r="B40" s="545"/>
+      <c r="C40" s="548" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="243" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="33"/>
+    </row>
+    <row r="41" spans="1:16371" ht="18.000000" customHeight="1">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AX41" s="0"/>
+      <c r="AY41" s="0"/>
+      <c r="AZ41" s="0"/>
+      <c r="BB41" s="35"/>
+      <c r="CU41" s="0"/>
+      <c r="CV41" s="0"/>
+      <c r="CW41" s="0"/>
+      <c r="CY41" s="35"/>
+      <c r="ER41" s="0"/>
+      <c r="ES41" s="0"/>
+      <c r="ET41" s="0"/>
+      <c r="EV41" s="35"/>
+      <c r="GO41" s="0"/>
+      <c r="GP41" s="0"/>
+      <c r="GQ41" s="0"/>
+      <c r="GS41" s="35"/>
+      <c r="IL41" s="0"/>
+      <c r="IM41" s="0"/>
+      <c r="IN41" s="0"/>
+      <c r="IP41" s="35"/>
+      <c r="KI41" s="0"/>
+      <c r="KJ41" s="0"/>
+      <c r="KK41" s="0"/>
+      <c r="KM41" s="35"/>
+      <c r="MF41" s="0"/>
+      <c r="MG41" s="0"/>
+      <c r="MH41" s="0"/>
+      <c r="MJ41" s="35"/>
+      <c r="OC41" s="0"/>
+      <c r="OD41" s="0"/>
+      <c r="OE41" s="0"/>
+      <c r="OG41" s="35"/>
+      <c r="PZ41" s="0"/>
+      <c r="QA41" s="0"/>
+      <c r="QB41" s="0"/>
+      <c r="QD41" s="35"/>
+      <c r="RW41" s="0"/>
+      <c r="RX41" s="0"/>
+      <c r="RY41" s="0"/>
+      <c r="SA41" s="35"/>
+      <c r="TT41" s="0"/>
+      <c r="TU41" s="0"/>
+      <c r="TV41" s="0"/>
+      <c r="TX41" s="35"/>
+      <c r="VQ41" s="0"/>
+      <c r="VR41" s="0"/>
+      <c r="VS41" s="0"/>
+      <c r="VU41" s="35"/>
+      <c r="XN41" s="0"/>
+      <c r="XO41" s="0"/>
+      <c r="XP41" s="0"/>
+      <c r="XR41" s="35"/>
+      <c r="ZK41" s="0"/>
+      <c r="ZL41" s="0"/>
+      <c r="ZM41" s="0"/>
+      <c r="ZO41" s="35"/>
+      <c r="ABH41" s="0"/>
+      <c r="ABI41" s="0"/>
+      <c r="ABJ41" s="0"/>
+      <c r="ABL41" s="35"/>
+      <c r="ADE41" s="0"/>
+      <c r="ADF41" s="0"/>
+      <c r="ADG41" s="0"/>
+      <c r="ADI41" s="35"/>
+      <c r="AFB41" s="0"/>
+      <c r="AFC41" s="0"/>
+      <c r="AFD41" s="0"/>
+      <c r="AFF41" s="35"/>
+      <c r="AGY41" s="0"/>
+      <c r="AGZ41" s="0"/>
+      <c r="AHA41" s="0"/>
+      <c r="AHC41" s="35"/>
+      <c r="AIV41" s="0"/>
+      <c r="AIW41" s="0"/>
+      <c r="AIX41" s="0"/>
+      <c r="AIZ41" s="35"/>
+      <c r="AKS41" s="0"/>
+      <c r="AKT41" s="0"/>
+      <c r="AKU41" s="0"/>
+      <c r="AKW41" s="35"/>
+      <c r="AMP41" s="0"/>
+      <c r="AMQ41" s="0"/>
+      <c r="AMR41" s="0"/>
+      <c r="AMT41" s="35"/>
+      <c r="AOM41" s="0"/>
+      <c r="AON41" s="0"/>
+      <c r="AOO41" s="0"/>
+      <c r="AOQ41" s="35"/>
+      <c r="AQJ41" s="0"/>
+      <c r="AQK41" s="0"/>
+      <c r="AQL41" s="0"/>
+      <c r="AQN41" s="35"/>
+      <c r="ASG41" s="0"/>
+      <c r="ASH41" s="0"/>
+      <c r="ASI41" s="0"/>
+      <c r="ASK41" s="35"/>
+      <c r="AUD41" s="0"/>
+      <c r="AUE41" s="0"/>
+      <c r="AUF41" s="0"/>
+      <c r="AUH41" s="35"/>
+      <c r="AWA41" s="0"/>
+      <c r="AWB41" s="0"/>
+      <c r="AWC41" s="0"/>
+      <c r="AWE41" s="35"/>
+      <c r="AXX41" s="0"/>
+      <c r="AXY41" s="0"/>
+      <c r="AXZ41" s="0"/>
+      <c r="AYB41" s="35"/>
+      <c r="AZU41" s="0"/>
+      <c r="AZV41" s="0"/>
+      <c r="AZW41" s="0"/>
+      <c r="AZY41" s="35"/>
+      <c r="BBR41" s="0"/>
+      <c r="BBS41" s="0"/>
+      <c r="BBT41" s="0"/>
+      <c r="BBV41" s="35"/>
+      <c r="BDO41" s="0"/>
+      <c r="BDP41" s="0"/>
+      <c r="BDQ41" s="0"/>
+      <c r="BDS41" s="35"/>
+      <c r="BFL41" s="0"/>
+      <c r="BFM41" s="0"/>
+      <c r="BFN41" s="0"/>
+      <c r="BFP41" s="35"/>
+      <c r="BHI41" s="0"/>
+      <c r="BHJ41" s="0"/>
+      <c r="BHK41" s="0"/>
+      <c r="BHM41" s="35"/>
+      <c r="BJF41" s="0"/>
+      <c r="BJG41" s="0"/>
+      <c r="BJH41" s="0"/>
+      <c r="BJJ41" s="35"/>
+      <c r="BLC41" s="0"/>
+      <c r="BLD41" s="0"/>
+      <c r="BLE41" s="0"/>
+      <c r="BLG41" s="35"/>
+      <c r="BMZ41" s="0"/>
+      <c r="BNA41" s="0"/>
+      <c r="BNB41" s="0"/>
+      <c r="BND41" s="35"/>
+      <c r="BOW41" s="0"/>
+      <c r="BOX41" s="0"/>
+      <c r="BOY41" s="0"/>
+      <c r="BPA41" s="35"/>
+      <c r="BQT41" s="0"/>
+      <c r="BQU41" s="0"/>
+      <c r="BQV41" s="0"/>
+      <c r="BQX41" s="35"/>
+      <c r="BSQ41" s="0"/>
+      <c r="BSR41" s="0"/>
+      <c r="BSS41" s="0"/>
+      <c r="BSU41" s="35"/>
+      <c r="BUN41" s="0"/>
+      <c r="BUO41" s="0"/>
+      <c r="BUP41" s="0"/>
+      <c r="BUR41" s="35"/>
+      <c r="BWK41" s="0"/>
+      <c r="BWL41" s="0"/>
+      <c r="BWM41" s="0"/>
+      <c r="BWO41" s="35"/>
+      <c r="BYH41" s="0"/>
+      <c r="BYI41" s="0"/>
+      <c r="BYJ41" s="0"/>
+      <c r="BYL41" s="35"/>
+      <c r="CAE41" s="0"/>
+      <c r="CAF41" s="0"/>
+      <c r="CAG41" s="0"/>
+      <c r="CAI41" s="35"/>
+      <c r="CCB41" s="0"/>
+      <c r="CCC41" s="0"/>
+      <c r="CCD41" s="0"/>
+      <c r="CCF41" s="35"/>
+      <c r="CDY41" s="0"/>
+      <c r="CDZ41" s="0"/>
+      <c r="CEA41" s="0"/>
+      <c r="CEC41" s="35"/>
+      <c r="CFV41" s="0"/>
+      <c r="CFW41" s="0"/>
+      <c r="CFX41" s="0"/>
+      <c r="CFZ41" s="35"/>
+      <c r="CHS41" s="0"/>
+      <c r="CHT41" s="0"/>
+      <c r="CHU41" s="0"/>
+      <c r="CHW41" s="35"/>
+      <c r="CJP41" s="0"/>
+      <c r="CJQ41" s="0"/>
+      <c r="CJR41" s="0"/>
+      <c r="CJT41" s="35"/>
+      <c r="CLM41" s="0"/>
+      <c r="CLN41" s="0"/>
+      <c r="CLO41" s="0"/>
+      <c r="CLQ41" s="35"/>
+      <c r="CNJ41" s="0"/>
+      <c r="CNK41" s="0"/>
+      <c r="CNL41" s="0"/>
+      <c r="CNN41" s="35"/>
+      <c r="CPG41" s="0"/>
+      <c r="CPH41" s="0"/>
+      <c r="CPI41" s="0"/>
+      <c r="CPK41" s="35"/>
+      <c r="CRD41" s="0"/>
+      <c r="CRE41" s="0"/>
+      <c r="CRF41" s="0"/>
+      <c r="CRH41" s="35"/>
+      <c r="CTA41" s="0"/>
+      <c r="CTB41" s="0"/>
+      <c r="CTC41" s="0"/>
+      <c r="CTE41" s="35"/>
+      <c r="CUX41" s="0"/>
+      <c r="CUY41" s="0"/>
+      <c r="CUZ41" s="0"/>
+      <c r="CVB41" s="35"/>
+      <c r="CWU41" s="0"/>
+      <c r="CWV41" s="0"/>
+      <c r="CWW41" s="0"/>
+      <c r="CWY41" s="35"/>
+      <c r="CYR41" s="0"/>
+      <c r="CYS41" s="0"/>
+      <c r="CYT41" s="0"/>
+      <c r="CYV41" s="35"/>
+      <c r="DAO41" s="0"/>
+      <c r="DAP41" s="0"/>
+      <c r="DAQ41" s="0"/>
+      <c r="DAS41" s="35"/>
+      <c r="DCL41" s="0"/>
+      <c r="DCM41" s="0"/>
+      <c r="DCN41" s="0"/>
+      <c r="DCP41" s="35"/>
+      <c r="DEI41" s="0"/>
+      <c r="DEJ41" s="0"/>
+      <c r="DEK41" s="0"/>
+      <c r="DEM41" s="35"/>
+      <c r="DGF41" s="0"/>
+      <c r="DGG41" s="0"/>
+      <c r="DGH41" s="0"/>
+      <c r="DGJ41" s="35"/>
+      <c r="DIC41" s="0"/>
+      <c r="DID41" s="0"/>
+      <c r="DIE41" s="0"/>
+      <c r="DIG41" s="35"/>
+      <c r="DJZ41" s="0"/>
+      <c r="DKA41" s="0"/>
+      <c r="DKB41" s="0"/>
+      <c r="DKD41" s="35"/>
+      <c r="DLW41" s="0"/>
+      <c r="DLX41" s="0"/>
+      <c r="DLY41" s="0"/>
+      <c r="DMA41" s="35"/>
+      <c r="DNT41" s="0"/>
+      <c r="DNU41" s="0"/>
+      <c r="DNV41" s="0"/>
+      <c r="DNX41" s="35"/>
+      <c r="DPQ41" s="0"/>
+      <c r="DPR41" s="0"/>
+      <c r="DPS41" s="0"/>
+      <c r="DPU41" s="35"/>
+      <c r="DRN41" s="0"/>
+      <c r="DRO41" s="0"/>
+      <c r="DRP41" s="0"/>
+      <c r="DRR41" s="35"/>
+      <c r="DTK41" s="0"/>
+      <c r="DTL41" s="0"/>
+      <c r="DTM41" s="0"/>
+      <c r="DTO41" s="35"/>
+      <c r="DVH41" s="0"/>
+      <c r="DVI41" s="0"/>
+      <c r="DVJ41" s="0"/>
+      <c r="DVL41" s="35"/>
+      <c r="DXE41" s="0"/>
+      <c r="DXF41" s="0"/>
+      <c r="DXG41" s="0"/>
+      <c r="DXI41" s="35"/>
+      <c r="DZB41" s="0"/>
+      <c r="DZC41" s="0"/>
+      <c r="DZD41" s="0"/>
+      <c r="DZF41" s="35"/>
+      <c r="EAY41" s="0"/>
+      <c r="EAZ41" s="0"/>
+      <c r="EBA41" s="0"/>
+      <c r="EBC41" s="35"/>
+      <c r="ECV41" s="0"/>
+      <c r="ECW41" s="0"/>
+      <c r="ECX41" s="0"/>
+      <c r="ECZ41" s="35"/>
+      <c r="EES41" s="0"/>
+      <c r="EET41" s="0"/>
+      <c r="EEU41" s="0"/>
+      <c r="EEW41" s="35"/>
+      <c r="EGP41" s="0"/>
+      <c r="EGQ41" s="0"/>
+      <c r="EGR41" s="0"/>
+      <c r="EGT41" s="35"/>
+      <c r="EIM41" s="0"/>
+      <c r="EIN41" s="0"/>
+      <c r="EIO41" s="0"/>
+      <c r="EIQ41" s="35"/>
+      <c r="EKJ41" s="0"/>
+      <c r="EKK41" s="0"/>
+      <c r="EKL41" s="0"/>
+      <c r="EKN41" s="35"/>
+      <c r="EMG41" s="0"/>
+      <c r="EMH41" s="0"/>
+      <c r="EMI41" s="0"/>
+      <c r="EMK41" s="35"/>
+      <c r="EOD41" s="0"/>
+      <c r="EOE41" s="0"/>
+      <c r="EOF41" s="0"/>
+      <c r="EOH41" s="35"/>
+      <c r="EQA41" s="0"/>
+      <c r="EQB41" s="0"/>
+      <c r="EQC41" s="0"/>
+      <c r="EQE41" s="35"/>
+      <c r="ERX41" s="0"/>
+      <c r="ERY41" s="0"/>
+      <c r="ERZ41" s="0"/>
+      <c r="ESB41" s="35"/>
+      <c r="ETU41" s="0"/>
+      <c r="ETV41" s="0"/>
+      <c r="ETW41" s="0"/>
+      <c r="ETY41" s="35"/>
+      <c r="EVR41" s="0"/>
+      <c r="EVS41" s="0"/>
+      <c r="EVT41" s="0"/>
+      <c r="EVV41" s="35"/>
+      <c r="EXO41" s="0"/>
+      <c r="EXP41" s="0"/>
+      <c r="EXQ41" s="0"/>
+      <c r="EXS41" s="35"/>
+      <c r="EZL41" s="0"/>
+      <c r="EZM41" s="0"/>
+      <c r="EZN41" s="0"/>
+      <c r="EZP41" s="35"/>
+      <c r="FBI41" s="0"/>
+      <c r="FBJ41" s="0"/>
+      <c r="FBK41" s="0"/>
+      <c r="FBM41" s="35"/>
+      <c r="FDF41" s="0"/>
+      <c r="FDG41" s="0"/>
+      <c r="FDH41" s="0"/>
+      <c r="FDJ41" s="35"/>
+      <c r="FFC41" s="0"/>
+      <c r="FFD41" s="0"/>
+      <c r="FFE41" s="0"/>
+      <c r="FFG41" s="35"/>
+      <c r="FGZ41" s="0"/>
+      <c r="FHA41" s="0"/>
+      <c r="FHB41" s="0"/>
+      <c r="FHD41" s="35"/>
+      <c r="FIW41" s="0"/>
+      <c r="FIX41" s="0"/>
+      <c r="FIY41" s="0"/>
+      <c r="FJA41" s="35"/>
+      <c r="FKT41" s="0"/>
+      <c r="FKU41" s="0"/>
+      <c r="FKV41" s="0"/>
+      <c r="FKX41" s="35"/>
+      <c r="FMQ41" s="0"/>
+      <c r="FMR41" s="0"/>
+      <c r="FMS41" s="0"/>
+      <c r="FMU41" s="35"/>
+      <c r="FON41" s="0"/>
+      <c r="FOO41" s="0"/>
+      <c r="FOP41" s="0"/>
+      <c r="FOR41" s="35"/>
+      <c r="FQK41" s="0"/>
+      <c r="FQL41" s="0"/>
+      <c r="FQM41" s="0"/>
+      <c r="FQO41" s="35"/>
+      <c r="FSH41" s="0"/>
+      <c r="FSI41" s="0"/>
+      <c r="FSJ41" s="0"/>
+      <c r="FSL41" s="35"/>
+      <c r="FUE41" s="0"/>
+      <c r="FUF41" s="0"/>
+      <c r="FUG41" s="0"/>
+      <c r="FUI41" s="35"/>
+      <c r="FWB41" s="0"/>
+      <c r="FWC41" s="0"/>
+      <c r="FWD41" s="0"/>
+      <c r="FWF41" s="35"/>
+      <c r="FXY41" s="0"/>
+      <c r="FXZ41" s="0"/>
+      <c r="FYA41" s="0"/>
+      <c r="FYC41" s="35"/>
+      <c r="FZV41" s="0"/>
+      <c r="FZW41" s="0"/>
+      <c r="FZX41" s="0"/>
+      <c r="FZZ41" s="35"/>
+      <c r="GBS41" s="0"/>
+      <c r="GBT41" s="0"/>
+      <c r="GBU41" s="0"/>
+      <c r="GBW41" s="35"/>
+      <c r="GDP41" s="0"/>
+      <c r="GDQ41" s="0"/>
+      <c r="GDR41" s="0"/>
+      <c r="GDT41" s="35"/>
+      <c r="GFM41" s="0"/>
+      <c r="GFN41" s="0"/>
+      <c r="GFO41" s="0"/>
+      <c r="GFQ41" s="35"/>
+      <c r="GHJ41" s="0"/>
+      <c r="GHK41" s="0"/>
+      <c r="GHL41" s="0"/>
+      <c r="GHN41" s="35"/>
+      <c r="GJG41" s="0"/>
+      <c r="GJH41" s="0"/>
+      <c r="GJI41" s="0"/>
+      <c r="GJK41" s="35"/>
+      <c r="GLD41" s="0"/>
+      <c r="GLE41" s="0"/>
+      <c r="GLF41" s="0"/>
+      <c r="GLH41" s="35"/>
+      <c r="GNA41" s="0"/>
+      <c r="GNB41" s="0"/>
+      <c r="GNC41" s="0"/>
+      <c r="GNE41" s="35"/>
+      <c r="GOX41" s="0"/>
+      <c r="GOY41" s="0"/>
+      <c r="GOZ41" s="0"/>
+      <c r="GPB41" s="35"/>
+      <c r="GQU41" s="0"/>
+      <c r="GQV41" s="0"/>
+      <c r="GQW41" s="0"/>
+      <c r="GQY41" s="35"/>
+      <c r="GSR41" s="0"/>
+      <c r="GSS41" s="0"/>
+      <c r="GST41" s="0"/>
+      <c r="GSV41" s="35"/>
+      <c r="GUO41" s="0"/>
+      <c r="GUP41" s="0"/>
+      <c r="GUQ41" s="0"/>
+      <c r="GUS41" s="35"/>
+      <c r="GWL41" s="0"/>
+      <c r="GWM41" s="0"/>
+      <c r="GWN41" s="0"/>
+      <c r="GWP41" s="35"/>
+      <c r="GYI41" s="0"/>
+      <c r="GYJ41" s="0"/>
+      <c r="GYK41" s="0"/>
+      <c r="GYM41" s="35"/>
+      <c r="HAF41" s="0"/>
+      <c r="HAG41" s="0"/>
+      <c r="HAH41" s="0"/>
+      <c r="HAJ41" s="35"/>
+      <c r="HCC41" s="0"/>
+      <c r="HCD41" s="0"/>
+      <c r="HCE41" s="0"/>
+      <c r="HCG41" s="35"/>
+      <c r="HDZ41" s="0"/>
+      <c r="HEA41" s="0"/>
+      <c r="HEB41" s="0"/>
+      <c r="HED41" s="35"/>
+      <c r="HFW41" s="0"/>
+      <c r="HFX41" s="0"/>
+      <c r="HFY41" s="0"/>
+      <c r="HGA41" s="35"/>
+      <c r="HHT41" s="0"/>
+      <c r="HHU41" s="0"/>
+      <c r="HHV41" s="0"/>
+      <c r="HHX41" s="35"/>
+      <c r="HJQ41" s="0"/>
+      <c r="HJR41" s="0"/>
+      <c r="HJS41" s="0"/>
+      <c r="HJU41" s="35"/>
+      <c r="HLN41" s="0"/>
+      <c r="HLO41" s="0"/>
+      <c r="HLP41" s="0"/>
+      <c r="HLR41" s="35"/>
+      <c r="HNK41" s="0"/>
+      <c r="HNL41" s="0"/>
+      <c r="HNM41" s="0"/>
+      <c r="HNO41" s="35"/>
+      <c r="HPH41" s="0"/>
+      <c r="HPI41" s="0"/>
+      <c r="HPJ41" s="0"/>
+      <c r="HPL41" s="35"/>
+      <c r="HRE41" s="0"/>
+      <c r="HRF41" s="0"/>
+      <c r="HRG41" s="0"/>
+      <c r="HRI41" s="35"/>
+      <c r="HTB41" s="0"/>
+      <c r="HTC41" s="0"/>
+      <c r="HTD41" s="0"/>
+      <c r="HTF41" s="35"/>
+      <c r="HUY41" s="0"/>
+      <c r="HUZ41" s="0"/>
+      <c r="HVA41" s="0"/>
+      <c r="HVC41" s="35"/>
+      <c r="HWV41" s="0"/>
+      <c r="HWW41" s="0"/>
+      <c r="HWX41" s="0"/>
+      <c r="HWZ41" s="35"/>
+      <c r="HYS41" s="0"/>
+      <c r="HYT41" s="0"/>
+      <c r="HYU41" s="0"/>
+      <c r="HYW41" s="35"/>
+      <c r="IAP41" s="0"/>
+      <c r="IAQ41" s="0"/>
+      <c r="IAR41" s="0"/>
+      <c r="IAT41" s="35"/>
+      <c r="ICM41" s="0"/>
+      <c r="ICN41" s="0"/>
+      <c r="ICO41" s="0"/>
+      <c r="ICQ41" s="35"/>
+      <c r="IEJ41" s="0"/>
+      <c r="IEK41" s="0"/>
+      <c r="IEL41" s="0"/>
+      <c r="IEN41" s="35"/>
+      <c r="IGG41" s="0"/>
+      <c r="IGH41" s="0"/>
+      <c r="IGI41" s="0"/>
+      <c r="IGK41" s="35"/>
+      <c r="IID41" s="0"/>
+      <c r="IIE41" s="0"/>
+      <c r="IIF41" s="0"/>
+      <c r="IIH41" s="35"/>
+      <c r="IKA41" s="0"/>
+      <c r="IKB41" s="0"/>
+      <c r="IKC41" s="0"/>
+      <c r="IKE41" s="35"/>
+      <c r="ILX41" s="0"/>
+      <c r="ILY41" s="0"/>
+      <c r="ILZ41" s="0"/>
+      <c r="IMB41" s="35"/>
+      <c r="INU41" s="0"/>
+      <c r="INV41" s="0"/>
+      <c r="INW41" s="0"/>
+      <c r="INY41" s="35"/>
+      <c r="IPR41" s="0"/>
+      <c r="IPS41" s="0"/>
+      <c r="IPT41" s="0"/>
+      <c r="IPV41" s="35"/>
+      <c r="IRO41" s="0"/>
+      <c r="IRP41" s="0"/>
+      <c r="IRQ41" s="0"/>
+      <c r="IRS41" s="35"/>
+      <c r="ITL41" s="0"/>
+      <c r="ITM41" s="0"/>
+      <c r="ITN41" s="0"/>
+      <c r="ITP41" s="35"/>
+      <c r="IVI41" s="0"/>
+      <c r="IVJ41" s="0"/>
+      <c r="IVK41" s="0"/>
+      <c r="IVM41" s="35"/>
+      <c r="IXF41" s="0"/>
+      <c r="IXG41" s="0"/>
+      <c r="IXH41" s="0"/>
+      <c r="IXJ41" s="35"/>
+      <c r="IZC41" s="0"/>
+      <c r="IZD41" s="0"/>
+      <c r="IZE41" s="0"/>
+      <c r="IZG41" s="35"/>
+      <c r="JAZ41" s="0"/>
+      <c r="JBA41" s="0"/>
+      <c r="JBB41" s="0"/>
+      <c r="JBD41" s="35"/>
+      <c r="JCW41" s="0"/>
+      <c r="JCX41" s="0"/>
+      <c r="JCY41" s="0"/>
+      <c r="JDA41" s="35"/>
+      <c r="JET41" s="0"/>
+      <c r="JEU41" s="0"/>
+      <c r="JEV41" s="0"/>
+      <c r="JEX41" s="35"/>
+      <c r="JGQ41" s="0"/>
+      <c r="JGR41" s="0"/>
+      <c r="JGS41" s="0"/>
+      <c r="JGU41" s="35"/>
+      <c r="JIN41" s="0"/>
+      <c r="JIO41" s="0"/>
+      <c r="JIP41" s="0"/>
+      <c r="JIR41" s="35"/>
+      <c r="JKK41" s="0"/>
+      <c r="JKL41" s="0"/>
+      <c r="JKM41" s="0"/>
+      <c r="JKO41" s="35"/>
+      <c r="JMH41" s="0"/>
+      <c r="JMI41" s="0"/>
+      <c r="JMJ41" s="0"/>
+      <c r="JML41" s="35"/>
+      <c r="JOE41" s="0"/>
+      <c r="JOF41" s="0"/>
+      <c r="JOG41" s="0"/>
+      <c r="JOI41" s="35"/>
+      <c r="JQB41" s="0"/>
+      <c r="JQC41" s="0"/>
+      <c r="JQD41" s="0"/>
+      <c r="JQF41" s="35"/>
+      <c r="JRY41" s="0"/>
+      <c r="JRZ41" s="0"/>
+      <c r="JSA41" s="0"/>
+      <c r="JSC41" s="35"/>
+      <c r="JTV41" s="0"/>
+      <c r="JTW41" s="0"/>
+      <c r="JTX41" s="0"/>
+      <c r="JTZ41" s="35"/>
+      <c r="JVS41" s="0"/>
+      <c r="JVT41" s="0"/>
+      <c r="JVU41" s="0"/>
+      <c r="JVW41" s="35"/>
+      <c r="JXP41" s="0"/>
+      <c r="JXQ41" s="0"/>
+      <c r="JXR41" s="0"/>
+      <c r="JXT41" s="35"/>
+      <c r="JZM41" s="0"/>
+      <c r="JZN41" s="0"/>
+      <c r="JZO41" s="0"/>
+      <c r="JZQ41" s="35"/>
+      <c r="KBJ41" s="0"/>
+      <c r="KBK41" s="0"/>
+      <c r="KBL41" s="0"/>
+      <c r="KBN41" s="35"/>
+      <c r="KDG41" s="0"/>
+      <c r="KDH41" s="0"/>
+      <c r="KDI41" s="0"/>
+      <c r="KDK41" s="35"/>
+      <c r="KFD41" s="0"/>
+      <c r="KFE41" s="0"/>
+      <c r="KFF41" s="0"/>
+      <c r="KFH41" s="35"/>
+      <c r="KHA41" s="0"/>
+      <c r="KHB41" s="0"/>
+      <c r="KHC41" s="0"/>
+      <c r="KHE41" s="35"/>
+      <c r="KIX41" s="0"/>
+      <c r="KIY41" s="0"/>
+      <c r="KIZ41" s="0"/>
+      <c r="KJB41" s="35"/>
+      <c r="KKU41" s="0"/>
+      <c r="KKV41" s="0"/>
+      <c r="KKW41" s="0"/>
+      <c r="KKY41" s="35"/>
+      <c r="KMR41" s="0"/>
+      <c r="KMS41" s="0"/>
+      <c r="KMT41" s="0"/>
+      <c r="KMV41" s="35"/>
+      <c r="KOO41" s="0"/>
+      <c r="KOP41" s="0"/>
+      <c r="KOQ41" s="0"/>
+      <c r="KOS41" s="35"/>
+      <c r="KQL41" s="0"/>
+      <c r="KQM41" s="0"/>
+      <c r="KQN41" s="0"/>
+      <c r="KQP41" s="35"/>
+      <c r="KSI41" s="0"/>
+      <c r="KSJ41" s="0"/>
+      <c r="KSK41" s="0"/>
+      <c r="KSM41" s="35"/>
+      <c r="KUF41" s="0"/>
+      <c r="KUG41" s="0"/>
+      <c r="KUH41" s="0"/>
+      <c r="KUJ41" s="35"/>
+      <c r="KWC41" s="0"/>
+      <c r="KWD41" s="0"/>
+      <c r="KWE41" s="0"/>
+      <c r="KWG41" s="35"/>
+      <c r="KXZ41" s="0"/>
+      <c r="KYA41" s="0"/>
+      <c r="KYB41" s="0"/>
+      <c r="KYD41" s="35"/>
+      <c r="KZW41" s="0"/>
+      <c r="KZX41" s="0"/>
+      <c r="KZY41" s="0"/>
+      <c r="LAA41" s="35"/>
+      <c r="LBT41" s="0"/>
+      <c r="LBU41" s="0"/>
+      <c r="LBV41" s="0"/>
+      <c r="LBX41" s="35"/>
+      <c r="LDQ41" s="0"/>
+      <c r="LDR41" s="0"/>
+      <c r="LDS41" s="0"/>
+      <c r="LDU41" s="35"/>
+      <c r="LFN41" s="0"/>
+      <c r="LFO41" s="0"/>
+      <c r="LFP41" s="0"/>
+      <c r="LFR41" s="35"/>
+      <c r="LHK41" s="0"/>
+      <c r="LHL41" s="0"/>
+      <c r="LHM41" s="0"/>
+      <c r="LHO41" s="35"/>
+      <c r="LJH41" s="0"/>
+      <c r="LJI41" s="0"/>
+      <c r="LJJ41" s="0"/>
+      <c r="LJL41" s="35"/>
+      <c r="LLE41" s="0"/>
+      <c r="LLF41" s="0"/>
+      <c r="LLG41" s="0"/>
+      <c r="LLI41" s="35"/>
+      <c r="LNB41" s="0"/>
+      <c r="LNC41" s="0"/>
+      <c r="LND41" s="0"/>
+      <c r="LNF41" s="35"/>
+      <c r="LOY41" s="0"/>
+      <c r="LOZ41" s="0"/>
+      <c r="LPA41" s="0"/>
+      <c r="LPC41" s="35"/>
+      <c r="LQV41" s="0"/>
+      <c r="LQW41" s="0"/>
+      <c r="LQX41" s="0"/>
+      <c r="LQZ41" s="35"/>
+      <c r="LSS41" s="0"/>
+      <c r="LST41" s="0"/>
+      <c r="LSU41" s="0"/>
+      <c r="LSW41" s="35"/>
+      <c r="LUP41" s="0"/>
+      <c r="LUQ41" s="0"/>
+      <c r="LUR41" s="0"/>
+      <c r="LUT41" s="35"/>
+      <c r="LWM41" s="0"/>
+      <c r="LWN41" s="0"/>
+      <c r="LWO41" s="0"/>
+      <c r="LWQ41" s="35"/>
+      <c r="LYJ41" s="0"/>
+      <c r="LYK41" s="0"/>
+      <c r="LYL41" s="0"/>
+      <c r="LYN41" s="35"/>
+      <c r="MAG41" s="0"/>
+      <c r="MAH41" s="0"/>
+      <c r="MAI41" s="0"/>
+      <c r="MAK41" s="35"/>
+      <c r="MCD41" s="0"/>
+      <c r="MCE41" s="0"/>
+      <c r="MCF41" s="0"/>
+      <c r="MCH41" s="35"/>
+      <c r="MEA41" s="0"/>
+      <c r="MEB41" s="0"/>
+      <c r="MEC41" s="0"/>
+      <c r="MEE41" s="35"/>
+      <c r="MFX41" s="0"/>
+      <c r="MFY41" s="0"/>
+      <c r="MFZ41" s="0"/>
+      <c r="MGB41" s="35"/>
+      <c r="MHU41" s="0"/>
+      <c r="MHV41" s="0"/>
+      <c r="MHW41" s="0"/>
+      <c r="MHY41" s="35"/>
+      <c r="MJR41" s="0"/>
+      <c r="MJS41" s="0"/>
+      <c r="MJT41" s="0"/>
+      <c r="MJV41" s="35"/>
+      <c r="MLO41" s="0"/>
+      <c r="MLP41" s="0"/>
+      <c r="MLQ41" s="0"/>
+      <c r="MLS41" s="35"/>
+      <c r="MNL41" s="0"/>
+      <c r="MNM41" s="0"/>
+      <c r="MNN41" s="0"/>
+      <c r="MNP41" s="35"/>
+      <c r="MPI41" s="0"/>
+      <c r="MPJ41" s="0"/>
+      <c r="MPK41" s="0"/>
+      <c r="MPM41" s="35"/>
+      <c r="MRF41" s="0"/>
+      <c r="MRG41" s="0"/>
+      <c r="MRH41" s="0"/>
+      <c r="MRJ41" s="35"/>
+      <c r="MTC41" s="0"/>
+      <c r="MTD41" s="0"/>
+      <c r="MTE41" s="0"/>
+      <c r="MTG41" s="35"/>
+      <c r="MUZ41" s="0"/>
+      <c r="MVA41" s="0"/>
+      <c r="MVB41" s="0"/>
+      <c r="MVD41" s="35"/>
+      <c r="MWW41" s="0"/>
+      <c r="MWX41" s="0"/>
+      <c r="MWY41" s="0"/>
+      <c r="MXA41" s="35"/>
+      <c r="MYT41" s="0"/>
+      <c r="MYU41" s="0"/>
+      <c r="MYV41" s="0"/>
+      <c r="MYX41" s="35"/>
+      <c r="NAQ41" s="0"/>
+      <c r="NAR41" s="0"/>
+      <c r="NAS41" s="0"/>
+      <c r="NAU41" s="35"/>
+      <c r="NCN41" s="0"/>
+      <c r="NCO41" s="0"/>
+      <c r="NCP41" s="0"/>
+      <c r="NCR41" s="35"/>
+      <c r="NEK41" s="0"/>
+      <c r="NEL41" s="0"/>
+      <c r="NEM41" s="0"/>
+      <c r="NEO41" s="35"/>
+      <c r="NGH41" s="0"/>
+      <c r="NGI41" s="0"/>
+      <c r="NGJ41" s="0"/>
+      <c r="NGL41" s="35"/>
+      <c r="NIE41" s="0"/>
+      <c r="NIF41" s="0"/>
+      <c r="NIG41" s="0"/>
+      <c r="NII41" s="35"/>
+      <c r="NKB41" s="0"/>
+      <c r="NKC41" s="0"/>
+      <c r="NKD41" s="0"/>
+      <c r="NKF41" s="35"/>
+      <c r="NLY41" s="0"/>
+      <c r="NLZ41" s="0"/>
+      <c r="NMA41" s="0"/>
+      <c r="NMC41" s="35"/>
+      <c r="NNV41" s="0"/>
+      <c r="NNW41" s="0"/>
+      <c r="NNX41" s="0"/>
+      <c r="NNZ41" s="35"/>
+      <c r="NPS41" s="0"/>
+      <c r="NPT41" s="0"/>
+      <c r="NPU41" s="0"/>
+      <c r="NPW41" s="35"/>
+      <c r="NRP41" s="0"/>
+      <c r="NRQ41" s="0"/>
+      <c r="NRR41" s="0"/>
+      <c r="NRT41" s="35"/>
+      <c r="NTM41" s="0"/>
+      <c r="NTN41" s="0"/>
+      <c r="NTO41" s="0"/>
+      <c r="NTQ41" s="35"/>
+      <c r="NVJ41" s="0"/>
+      <c r="NVK41" s="0"/>
+      <c r="NVL41" s="0"/>
+      <c r="NVN41" s="35"/>
+      <c r="NXG41" s="0"/>
+      <c r="NXH41" s="0"/>
+      <c r="NXI41" s="0"/>
+      <c r="NXK41" s="35"/>
+      <c r="NZD41" s="0"/>
+      <c r="NZE41" s="0"/>
+      <c r="NZF41" s="0"/>
+      <c r="NZH41" s="35"/>
+      <c r="OBA41" s="0"/>
+      <c r="OBB41" s="0"/>
+      <c r="OBC41" s="0"/>
+      <c r="OBE41" s="35"/>
+      <c r="OCX41" s="0"/>
+      <c r="OCY41" s="0"/>
+      <c r="OCZ41" s="0"/>
+      <c r="ODB41" s="35"/>
+      <c r="OEU41" s="0"/>
+      <c r="OEV41" s="0"/>
+      <c r="OEW41" s="0"/>
+      <c r="OEY41" s="35"/>
+      <c r="OGR41" s="0"/>
+      <c r="OGS41" s="0"/>
+      <c r="OGT41" s="0"/>
+      <c r="OGV41" s="35"/>
+      <c r="OIO41" s="0"/>
+      <c r="OIP41" s="0"/>
+      <c r="OIQ41" s="0"/>
+      <c r="OIS41" s="35"/>
+      <c r="OKL41" s="0"/>
+      <c r="OKM41" s="0"/>
+      <c r="OKN41" s="0"/>
+      <c r="OKP41" s="35"/>
+      <c r="OMI41" s="0"/>
+      <c r="OMJ41" s="0"/>
+      <c r="OMK41" s="0"/>
+      <c r="OMM41" s="35"/>
+      <c r="OOF41" s="0"/>
+      <c r="OOG41" s="0"/>
+      <c r="OOH41" s="0"/>
+      <c r="OOJ41" s="35"/>
+      <c r="OQC41" s="0"/>
+      <c r="OQD41" s="0"/>
+      <c r="OQE41" s="0"/>
+      <c r="OQG41" s="35"/>
+      <c r="ORZ41" s="0"/>
+      <c r="OSA41" s="0"/>
+      <c r="OSB41" s="0"/>
+      <c r="OSD41" s="35"/>
+      <c r="OTW41" s="0"/>
+      <c r="OTX41" s="0"/>
+      <c r="OTY41" s="0"/>
+      <c r="OUA41" s="35"/>
+      <c r="OVT41" s="0"/>
+      <c r="OVU41" s="0"/>
+      <c r="OVV41" s="0"/>
+      <c r="OVX41" s="35"/>
+      <c r="OXQ41" s="0"/>
+      <c r="OXR41" s="0"/>
+      <c r="OXS41" s="0"/>
+      <c r="OXU41" s="35"/>
+      <c r="OZN41" s="0"/>
+      <c r="OZO41" s="0"/>
+      <c r="OZP41" s="0"/>
+      <c r="OZR41" s="35"/>
+      <c r="PBK41" s="0"/>
+      <c r="PBL41" s="0"/>
+      <c r="PBM41" s="0"/>
+      <c r="PBO41" s="35"/>
+      <c r="PDH41" s="0"/>
+      <c r="PDI41" s="0"/>
+      <c r="PDJ41" s="0"/>
+      <c r="PDL41" s="35"/>
+      <c r="PFE41" s="0"/>
+      <c r="PFF41" s="0"/>
+      <c r="PFG41" s="0"/>
+      <c r="PFI41" s="35"/>
+      <c r="PHB41" s="0"/>
+      <c r="PHC41" s="0"/>
+      <c r="PHD41" s="0"/>
+      <c r="PHF41" s="35"/>
+      <c r="PIY41" s="0"/>
+      <c r="PIZ41" s="0"/>
+      <c r="PJA41" s="0"/>
+      <c r="PJC41" s="35"/>
+      <c r="PKV41" s="0"/>
+      <c r="PKW41" s="0"/>
+      <c r="PKX41" s="0"/>
+      <c r="PKZ41" s="35"/>
+      <c r="PMS41" s="0"/>
+      <c r="PMT41" s="0"/>
+      <c r="PMU41" s="0"/>
+      <c r="PMW41" s="35"/>
+      <c r="POP41" s="0"/>
+      <c r="POQ41" s="0"/>
+      <c r="POR41" s="0"/>
+      <c r="POT41" s="35"/>
+      <c r="PQM41" s="0"/>
+      <c r="PQN41" s="0"/>
+      <c r="PQO41" s="0"/>
+      <c r="PQQ41" s="35"/>
+      <c r="PSJ41" s="0"/>
+      <c r="PSK41" s="0"/>
+      <c r="PSL41" s="0"/>
+      <c r="PSN41" s="35"/>
+      <c r="PUG41" s="0"/>
+      <c r="PUH41" s="0"/>
+      <c r="PUI41" s="0"/>
+      <c r="PUK41" s="35"/>
+      <c r="PWD41" s="0"/>
+      <c r="PWE41" s="0"/>
+      <c r="PWF41" s="0"/>
+      <c r="PWH41" s="35"/>
+      <c r="PYA41" s="0"/>
+      <c r="PYB41" s="0"/>
+      <c r="PYC41" s="0"/>
+      <c r="PYE41" s="35"/>
+      <c r="PZX41" s="0"/>
+      <c r="PZY41" s="0"/>
+      <c r="PZZ41" s="0"/>
+      <c r="QAB41" s="35"/>
+      <c r="QBU41" s="0"/>
+      <c r="QBV41" s="0"/>
+      <c r="QBW41" s="0"/>
+      <c r="QBY41" s="35"/>
+      <c r="QDR41" s="0"/>
+      <c r="QDS41" s="0"/>
+      <c r="QDT41" s="0"/>
+      <c r="QDV41" s="35"/>
+      <c r="QFO41" s="0"/>
+      <c r="QFP41" s="0"/>
+      <c r="QFQ41" s="0"/>
+      <c r="QFS41" s="35"/>
+      <c r="QHL41" s="0"/>
+      <c r="QHM41" s="0"/>
+      <c r="QHN41" s="0"/>
+      <c r="QHP41" s="35"/>
+      <c r="QJI41" s="0"/>
+      <c r="QJJ41" s="0"/>
+      <c r="QJK41" s="0"/>
+      <c r="QJM41" s="35"/>
+      <c r="QLF41" s="0"/>
+      <c r="QLG41" s="0"/>
+      <c r="QLH41" s="0"/>
+      <c r="QLJ41" s="35"/>
+      <c r="QNC41" s="0"/>
+      <c r="QND41" s="0"/>
+      <c r="QNE41" s="0"/>
+      <c r="QNG41" s="35"/>
+      <c r="QOZ41" s="0"/>
+      <c r="QPA41" s="0"/>
+      <c r="QPB41" s="0"/>
+      <c r="QPD41" s="35"/>
+      <c r="QQW41" s="0"/>
+      <c r="QQX41" s="0"/>
+      <c r="QQY41" s="0"/>
+      <c r="QRA41" s="35"/>
+      <c r="QST41" s="0"/>
+      <c r="QSU41" s="0"/>
+      <c r="QSV41" s="0"/>
+      <c r="QSX41" s="35"/>
+      <c r="QUQ41" s="0"/>
+      <c r="QUR41" s="0"/>
+      <c r="QUS41" s="0"/>
+      <c r="QUU41" s="35"/>
+      <c r="QWN41" s="0"/>
+      <c r="QWO41" s="0"/>
+      <c r="QWP41" s="0"/>
+      <c r="QWR41" s="35"/>
+      <c r="QYK41" s="0"/>
+      <c r="QYL41" s="0"/>
+      <c r="QYM41" s="0"/>
+      <c r="QYO41" s="35"/>
+      <c r="RAH41" s="0"/>
+      <c r="RAI41" s="0"/>
+      <c r="RAJ41" s="0"/>
+      <c r="RAL41" s="35"/>
+      <c r="RCE41" s="0"/>
+      <c r="RCF41" s="0"/>
+      <c r="RCG41" s="0"/>
+      <c r="RCI41" s="35"/>
+      <c r="REB41" s="0"/>
+      <c r="REC41" s="0"/>
+      <c r="RED41" s="0"/>
+      <c r="REF41" s="35"/>
+      <c r="RFY41" s="0"/>
+      <c r="RFZ41" s="0"/>
+      <c r="RGA41" s="0"/>
+      <c r="RGC41" s="35"/>
+      <c r="RHV41" s="0"/>
+      <c r="RHW41" s="0"/>
+      <c r="RHX41" s="0"/>
+      <c r="RHZ41" s="35"/>
+      <c r="RJS41" s="0"/>
+      <c r="RJT41" s="0"/>
+      <c r="RJU41" s="0"/>
+      <c r="RJW41" s="35"/>
+      <c r="RLP41" s="0"/>
+      <c r="RLQ41" s="0"/>
+      <c r="RLR41" s="0"/>
+      <c r="RLT41" s="35"/>
+      <c r="RNM41" s="0"/>
+      <c r="RNN41" s="0"/>
+      <c r="RNO41" s="0"/>
+      <c r="RNQ41" s="35"/>
+      <c r="RPJ41" s="0"/>
+      <c r="RPK41" s="0"/>
+      <c r="RPL41" s="0"/>
+      <c r="RPN41" s="35"/>
+      <c r="RRG41" s="0"/>
+      <c r="RRH41" s="0"/>
+      <c r="RRI41" s="0"/>
+      <c r="RRK41" s="35"/>
+      <c r="RTD41" s="0"/>
+      <c r="RTE41" s="0"/>
+      <c r="RTF41" s="0"/>
+      <c r="RTH41" s="35"/>
+      <c r="RVA41" s="0"/>
+      <c r="RVB41" s="0"/>
+      <c r="RVC41" s="0"/>
+      <c r="RVE41" s="35"/>
+      <c r="RWX41" s="0"/>
+      <c r="RWY41" s="0"/>
+      <c r="RWZ41" s="0"/>
+      <c r="RXB41" s="35"/>
+      <c r="RYU41" s="0"/>
+      <c r="RYV41" s="0"/>
+      <c r="RYW41" s="0"/>
+      <c r="RYY41" s="35"/>
+      <c r="SAR41" s="0"/>
+      <c r="SAS41" s="0"/>
+      <c r="SAT41" s="0"/>
+      <c r="SAV41" s="35"/>
+      <c r="SCO41" s="0"/>
+      <c r="SCP41" s="0"/>
+      <c r="SCQ41" s="0"/>
+      <c r="SCS41" s="35"/>
+      <c r="SEL41" s="0"/>
+      <c r="SEM41" s="0"/>
+      <c r="SEN41" s="0"/>
+      <c r="SEP41" s="35"/>
+      <c r="SGI41" s="0"/>
+      <c r="SGJ41" s="0"/>
+      <c r="SGK41" s="0"/>
+      <c r="SGM41" s="35"/>
+      <c r="SIF41" s="0"/>
+      <c r="SIG41" s="0"/>
+      <c r="SIH41" s="0"/>
+      <c r="SIJ41" s="35"/>
+      <c r="SKC41" s="0"/>
+      <c r="SKD41" s="0"/>
+      <c r="SKE41" s="0"/>
+      <c r="SKG41" s="35"/>
+      <c r="SLZ41" s="0"/>
+      <c r="SMA41" s="0"/>
+      <c r="SMB41" s="0"/>
+      <c r="SMD41" s="35"/>
+      <c r="SNW41" s="0"/>
+      <c r="SNX41" s="0"/>
+      <c r="SNY41" s="0"/>
+      <c r="SOA41" s="35"/>
+      <c r="SPT41" s="0"/>
+      <c r="SPU41" s="0"/>
+      <c r="SPV41" s="0"/>
+      <c r="SPX41" s="35"/>
+      <c r="SRQ41" s="0"/>
+      <c r="SRR41" s="0"/>
+      <c r="SRS41" s="0"/>
+      <c r="SRU41" s="35"/>
+      <c r="STN41" s="0"/>
+      <c r="STO41" s="0"/>
+      <c r="STP41" s="0"/>
+      <c r="STR41" s="35"/>
+      <c r="SVK41" s="0"/>
+      <c r="SVL41" s="0"/>
+      <c r="SVM41" s="0"/>
+      <c r="SVO41" s="35"/>
+      <c r="SXH41" s="0"/>
+      <c r="SXI41" s="0"/>
+      <c r="SXJ41" s="0"/>
+      <c r="SXL41" s="35"/>
+      <c r="SZE41" s="0"/>
+      <c r="SZF41" s="0"/>
+      <c r="SZG41" s="0"/>
+      <c r="SZI41" s="35"/>
+      <c r="TBB41" s="0"/>
+      <c r="TBC41" s="0"/>
+      <c r="TBD41" s="0"/>
+      <c r="TBF41" s="35"/>
+      <c r="TCY41" s="0"/>
+      <c r="TCZ41" s="0"/>
+      <c r="TDA41" s="0"/>
+      <c r="TDC41" s="35"/>
+      <c r="TEV41" s="0"/>
+      <c r="TEW41" s="0"/>
+      <c r="TEX41" s="0"/>
+      <c r="TEZ41" s="35"/>
+      <c r="TGS41" s="0"/>
+      <c r="TGT41" s="0"/>
+      <c r="TGU41" s="0"/>
+      <c r="TGW41" s="35"/>
+      <c r="TIP41" s="0"/>
+      <c r="TIQ41" s="0"/>
+      <c r="TIR41" s="0"/>
+      <c r="TIT41" s="35"/>
+      <c r="TKM41" s="0"/>
+      <c r="TKN41" s="0"/>
+      <c r="TKO41" s="0"/>
+      <c r="TKQ41" s="35"/>
+      <c r="TMJ41" s="0"/>
+      <c r="TMK41" s="0"/>
+      <c r="TML41" s="0"/>
+      <c r="TMN41" s="35"/>
+      <c r="TOG41" s="0"/>
+      <c r="TOH41" s="0"/>
+      <c r="TOI41" s="0"/>
+      <c r="TOK41" s="35"/>
+      <c r="TQD41" s="0"/>
+      <c r="TQE41" s="0"/>
+      <c r="TQF41" s="0"/>
+      <c r="TQH41" s="35"/>
+      <c r="TSA41" s="0"/>
+      <c r="TSB41" s="0"/>
+      <c r="TSC41" s="0"/>
+      <c r="TSE41" s="35"/>
+      <c r="TTX41" s="0"/>
+      <c r="TTY41" s="0"/>
+      <c r="TTZ41" s="0"/>
+      <c r="TUB41" s="35"/>
+      <c r="TVU41" s="0"/>
+      <c r="TVV41" s="0"/>
+      <c r="TVW41" s="0"/>
+      <c r="TVY41" s="35"/>
+      <c r="TXR41" s="0"/>
+      <c r="TXS41" s="0"/>
+      <c r="TXT41" s="0"/>
+      <c r="TXV41" s="35"/>
+      <c r="TZO41" s="0"/>
+      <c r="TZP41" s="0"/>
+      <c r="TZQ41" s="0"/>
+      <c r="TZS41" s="35"/>
+      <c r="UBL41" s="0"/>
+      <c r="UBM41" s="0"/>
+      <c r="UBN41" s="0"/>
+      <c r="UBP41" s="35"/>
+      <c r="UDI41" s="0"/>
+      <c r="UDJ41" s="0"/>
+      <c r="UDK41" s="0"/>
+      <c r="UDM41" s="35"/>
+      <c r="UFF41" s="0"/>
+      <c r="UFG41" s="0"/>
+      <c r="UFH41" s="0"/>
+      <c r="UFJ41" s="35"/>
+      <c r="UHC41" s="0"/>
+      <c r="UHD41" s="0"/>
+      <c r="UHE41" s="0"/>
+      <c r="UHG41" s="35"/>
+      <c r="UIZ41" s="0"/>
+      <c r="UJA41" s="0"/>
+      <c r="UJB41" s="0"/>
+      <c r="UJD41" s="35"/>
+      <c r="UKW41" s="0"/>
+      <c r="UKX41" s="0"/>
+      <c r="UKY41" s="0"/>
+      <c r="ULA41" s="35"/>
+      <c r="UMT41" s="0"/>
+      <c r="UMU41" s="0"/>
+      <c r="UMV41" s="0"/>
+      <c r="UMX41" s="35"/>
+      <c r="UOQ41" s="0"/>
+      <c r="UOR41" s="0"/>
+      <c r="UOS41" s="0"/>
+      <c r="UOU41" s="35"/>
+      <c r="UQN41" s="0"/>
+      <c r="UQO41" s="0"/>
+      <c r="UQP41" s="0"/>
+      <c r="UQR41" s="35"/>
+      <c r="USK41" s="0"/>
+      <c r="USL41" s="0"/>
+      <c r="USM41" s="0"/>
+      <c r="USO41" s="35"/>
+      <c r="UUH41" s="0"/>
+      <c r="UUI41" s="0"/>
+      <c r="UUJ41" s="0"/>
+      <c r="UUL41" s="35"/>
+      <c r="UWE41" s="0"/>
+      <c r="UWF41" s="0"/>
+      <c r="UWG41" s="0"/>
+      <c r="UWI41" s="35"/>
+      <c r="UYB41" s="0"/>
+      <c r="UYC41" s="0"/>
+      <c r="UYD41" s="0"/>
+      <c r="UYF41" s="35"/>
+      <c r="UZY41" s="0"/>
+      <c r="UZZ41" s="0"/>
+      <c r="VAA41" s="0"/>
+      <c r="VAC41" s="35"/>
+      <c r="VBV41" s="0"/>
+      <c r="VBW41" s="0"/>
+      <c r="VBX41" s="0"/>
+      <c r="VBZ41" s="35"/>
+      <c r="VDS41" s="0"/>
+      <c r="VDT41" s="0"/>
+      <c r="VDU41" s="0"/>
+      <c r="VDW41" s="35"/>
+      <c r="VFP41" s="0"/>
+      <c r="VFQ41" s="0"/>
+      <c r="VFR41" s="0"/>
+      <c r="VFT41" s="35"/>
+      <c r="VHM41" s="0"/>
+      <c r="VHN41" s="0"/>
+      <c r="VHO41" s="0"/>
+      <c r="VHQ41" s="35"/>
+      <c r="VJJ41" s="0"/>
+      <c r="VJK41" s="0"/>
+      <c r="VJL41" s="0"/>
+      <c r="VJN41" s="35"/>
+      <c r="VLG41" s="0"/>
+      <c r="VLH41" s="0"/>
+      <c r="VLI41" s="0"/>
+      <c r="VLK41" s="35"/>
+      <c r="VND41" s="0"/>
+      <c r="VNE41" s="0"/>
+      <c r="VNF41" s="0"/>
+      <c r="VNH41" s="35"/>
+      <c r="VPA41" s="0"/>
+      <c r="VPB41" s="0"/>
+      <c r="VPC41" s="0"/>
+      <c r="VPE41" s="35"/>
+      <c r="VQX41" s="0"/>
+      <c r="VQY41" s="0"/>
+      <c r="VQZ41" s="0"/>
+      <c r="VRB41" s="35"/>
+      <c r="VSU41" s="0"/>
+      <c r="VSV41" s="0"/>
+      <c r="VSW41" s="0"/>
+      <c r="VSY41" s="35"/>
+      <c r="VUR41" s="0"/>
+      <c r="VUS41" s="0"/>
+      <c r="VUT41" s="0"/>
+      <c r="VUV41" s="35"/>
+      <c r="VWO41" s="0"/>
+      <c r="VWP41" s="0"/>
+      <c r="VWQ41" s="0"/>
+      <c r="VWS41" s="35"/>
+      <c r="VYL41" s="0"/>
+      <c r="VYM41" s="0"/>
+      <c r="VYN41" s="0"/>
+      <c r="VYP41" s="35"/>
+      <c r="WAI41" s="0"/>
+      <c r="WAJ41" s="0"/>
+      <c r="WAK41" s="0"/>
+      <c r="WAM41" s="35"/>
+      <c r="WCF41" s="0"/>
+      <c r="WCG41" s="0"/>
+      <c r="WCH41" s="0"/>
+      <c r="WCJ41" s="35"/>
+      <c r="WEC41" s="0"/>
+      <c r="WED41" s="0"/>
+      <c r="WEE41" s="0"/>
+      <c r="WEG41" s="35"/>
+      <c r="WFZ41" s="0"/>
+      <c r="WGA41" s="0"/>
+      <c r="WGB41" s="0"/>
+      <c r="WGD41" s="35"/>
+      <c r="WHW41" s="0"/>
+      <c r="WHX41" s="0"/>
+      <c r="WHY41" s="0"/>
+      <c r="WIA41" s="35"/>
+      <c r="WJT41" s="0"/>
+      <c r="WJU41" s="0"/>
+      <c r="WJV41" s="0"/>
+      <c r="WJX41" s="35"/>
+      <c r="WLQ41" s="0"/>
+      <c r="WLR41" s="0"/>
+      <c r="WLS41" s="0"/>
+      <c r="WLU41" s="35"/>
+      <c r="WNN41" s="0"/>
+      <c r="WNO41" s="0"/>
+      <c r="WNP41" s="0"/>
+      <c r="WNR41" s="35"/>
+      <c r="WPK41" s="0"/>
+      <c r="WPL41" s="0"/>
+      <c r="WPM41" s="0"/>
+      <c r="WPO41" s="35"/>
+      <c r="WRH41" s="0"/>
+      <c r="WRI41" s="0"/>
+      <c r="WRJ41" s="0"/>
+      <c r="WRL41" s="35"/>
+      <c r="WTE41" s="0"/>
+      <c r="WTF41" s="0"/>
+      <c r="WTG41" s="0"/>
+      <c r="WTI41" s="35"/>
+      <c r="WVB41" s="0"/>
+      <c r="WVC41" s="0"/>
+      <c r="WVD41" s="0"/>
+      <c r="WVF41" s="35"/>
+      <c r="WWY41" s="0"/>
+      <c r="WWZ41" s="0"/>
+      <c r="WXA41" s="0"/>
+      <c r="WXC41" s="35"/>
+      <c r="WYV41" s="0"/>
+      <c r="WYW41" s="0"/>
+      <c r="WYX41" s="0"/>
+      <c r="WYZ41" s="35"/>
+      <c r="XAS41" s="0"/>
+      <c r="XAT41" s="0"/>
+      <c r="XAU41" s="0"/>
+      <c r="XAW41" s="35"/>
+      <c r="XCP41" s="0"/>
+      <c r="XCQ41" s="0"/>
+      <c r="XCR41" s="0"/>
+      <c r="XCT41" s="35"/>
+      <c r="XEM41" s="0"/>
+      <c r="XEN41" s="0"/>
+      <c r="XEO41" s="0"/>
+      <c r="XEQ41" s="35"/>
+    </row>
+    <row r="42" spans="1:16371" ht="18.000000" customHeight="1">
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="E43" s="35"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+    </row>
+    <row r="44" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="D44" s="5"/>
+      <c r="E44" s="35"/>
+      <c r="W44" s="2"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+    </row>
+    <row r="45" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="D45" s="8"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+    </row>
+    <row r="46" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="D46" s="4"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+    </row>
+    <row r="47" spans="1:16371" ht="17.100000" customHeight="1">
+      <c r="D47" s="4"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+    </row>
+    <row r="48" spans="1:16371" ht="20.100000" customHeight="1">
+      <c r="D48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+    </row>
+    <row r="49" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="D49" s="10"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+    </row>
+    <row r="50" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+    </row>
+    <row r="51" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="D51" s="10"/>
+      <c r="E51" s="4"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+    </row>
+    <row r="52" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="4:47" ht="20.100000" customHeight="1">
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" ht="20.100000" customHeight="1"/>
+    <row r="58" ht="20.100000" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="492">
+    <mergeCell ref="A1:AM5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:W7"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="AG7:AM7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="A9:B40"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="AL25:AM25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ28:AK28"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AJ31:AK31"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AK33"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AJ38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AL40:AM40"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.59" right="0.59" top="0.59" bottom="0.35" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>